--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="State 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PC1</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>Stage 1 - Instruction Execution</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +160,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,66 +472,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V12"/>
+  <dimension ref="B2:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:N12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="22" width="5.7109375" customWidth="1"/>
+    <col min="3" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="22" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="2:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
@@ -594,6 +611,11 @@
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -613,12 +635,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="3:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="3:21" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="B2:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
@@ -16,32 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>PC</t>
   </si>
   <si>
-    <t>IR1_1</t>
-  </si>
-  <si>
-    <t>IR0_1</t>
-  </si>
-  <si>
     <t>IR_1</t>
   </si>
   <si>
     <t>PCs_en</t>
   </si>
   <si>
-    <t>PCs_C</t>
-  </si>
-  <si>
     <t>PC Stack</t>
   </si>
   <si>
@@ -109,6 +94,297 @@
   </si>
   <si>
     <t>set</t>
+  </si>
+  <si>
+    <t>Mar_s</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>MUX_MAR</t>
+  </si>
+  <si>
+    <t>CP9</t>
+  </si>
+  <si>
+    <t>B_MUX</t>
+  </si>
+  <si>
+    <t>CP11</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B_s</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A_s</t>
+  </si>
+  <si>
+    <t>A_MUX</t>
+  </si>
+  <si>
+    <t>CP10</t>
+  </si>
+  <si>
+    <t>CCR</t>
+  </si>
+  <si>
+    <t>CCR_s</t>
+  </si>
+  <si>
+    <t>MUX_ALU</t>
+  </si>
+  <si>
+    <t>CP1</t>
+  </si>
+  <si>
+    <t>CP0</t>
+  </si>
+  <si>
+    <t>Alu_ctrl[0]</t>
+  </si>
+  <si>
+    <t>Alu_ctrl[1]</t>
+  </si>
+  <si>
+    <t>Alu_ctrl[2]</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>ACC_s</t>
+  </si>
+  <si>
+    <t>Shifter</t>
+  </si>
+  <si>
+    <t>Sh_ctrl[0]</t>
+  </si>
+  <si>
+    <t>Sh_ctrl[1]</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>num_shift</t>
+  </si>
+  <si>
+    <t>Accum Stack</t>
+  </si>
+  <si>
+    <t>ACCs_en</t>
+  </si>
+  <si>
+    <t>ACCs_ctrl</t>
+  </si>
+  <si>
+    <t>MUX_ACC</t>
+  </si>
+  <si>
+    <t>CP5</t>
+  </si>
+  <si>
+    <t>CP6</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>CP3</t>
+  </si>
+  <si>
+    <t>CP4</t>
+  </si>
+  <si>
+    <t>MUX_MDR</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>Mdr_s</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>CH_HIT</t>
+  </si>
+  <si>
+    <t>CH_en</t>
+  </si>
+  <si>
+    <t>CH_rw</t>
+  </si>
+  <si>
+    <t>IR_2</t>
+  </si>
+  <si>
+    <t>IRO_s2</t>
+  </si>
+  <si>
+    <t>IR1_s2</t>
+  </si>
+  <si>
+    <t>IR1_s1</t>
+  </si>
+  <si>
+    <t>IR0_s1</t>
+  </si>
+  <si>
+    <t>PC_ctrl[0]</t>
+  </si>
+  <si>
+    <t>PC_ctrl[1]</t>
+  </si>
+  <si>
+    <t>PCs_ctrl</t>
+  </si>
+  <si>
+    <t>DATA Memory</t>
+  </si>
+  <si>
+    <t>dmem_en</t>
+  </si>
+  <si>
+    <t>dmem_rw</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T50</t>
   </si>
 </sst>
 </file>
@@ -151,18 +427,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -474,148 +753,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="11" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="22" width="5.7109375" customWidth="1"/>
+    <col min="13" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="22" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="2:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-    </row>
-    <row r="3" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="2:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -635,65 +922,486 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:U4"/>
+  <dimension ref="B2:AJ55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="B2:AJ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="2:36" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="3:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="AC3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+    </row>
+    <row r="4" spans="2:36" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="3:21" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>30</v>
+      <c r="AC4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C2:U2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+  <mergeCells count="10">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
     <sheet name="State 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>PC</t>
   </si>
@@ -391,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +400,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -427,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V13"/>
+  <dimension ref="B2:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,13 +830,17 @@
         <v>13</v>
       </c>
       <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>73</v>
@@ -859,59 +872,491 @@
       <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:V2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
   </mergeCells>
@@ -924,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="B2:AJ55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,16 +1850,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>PC</t>
   </si>
   <si>
-    <t>IR_1</t>
-  </si>
-  <si>
     <t>PCs_en</t>
   </si>
   <si>
@@ -236,21 +233,12 @@
     <t>IR1_s2</t>
   </si>
   <si>
-    <t>IR1_s1</t>
-  </si>
-  <si>
-    <t>IR0_s1</t>
-  </si>
-  <si>
     <t>PC_ctrl[0]</t>
   </si>
   <si>
     <t>PC_ctrl[1]</t>
   </si>
   <si>
-    <t>PCs_ctrl</t>
-  </si>
-  <si>
     <t>DATA Memory</t>
   </si>
   <si>
@@ -384,6 +372,42 @@
   </si>
   <si>
     <t>T50</t>
+  </si>
+  <si>
+    <t>PCs_ctrl[1]</t>
+  </si>
+  <si>
+    <t>PCs_ctrl[0]</t>
+  </si>
+  <si>
+    <t>ACCs_ctrl[1]</t>
+  </si>
+  <si>
+    <t>ACCs_ctrl[0]</t>
+  </si>
+  <si>
+    <t>IR1_set</t>
+  </si>
+  <si>
+    <t>IR0_clr</t>
+  </si>
+  <si>
+    <t>IR01_set</t>
+  </si>
+  <si>
+    <t>IR1_0</t>
+  </si>
+  <si>
+    <t>IR0_0</t>
+  </si>
+  <si>
+    <t>IR1_0_clr</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>clr</t>
   </si>
 </sst>
 </file>
@@ -413,12 +437,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -433,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,13 +481,31 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,30 +808,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V14"/>
+  <dimension ref="B2:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="22" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="18" width="7.85546875" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" customWidth="1"/>
+    <col min="20" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="26" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -803,562 +853,740 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="2:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="2:25" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="2:25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="L4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
+      <c r="O4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
+        <v>1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>1</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>1</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <v>1</v>
+      </c>
+      <c r="T6" s="14">
+        <v>1</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <v>1</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>1</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="S8" s="14">
+        <v>1</v>
+      </c>
+      <c r="T8" s="14">
+        <v>1</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14">
+        <v>1</v>
+      </c>
+      <c r="T9" s="14">
+        <v>1</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>1</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1</v>
+      </c>
+      <c r="T10" s="14">
+        <v>1</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>1</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>1</v>
+      </c>
+      <c r="T11" s="14">
+        <v>1</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>1</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
+        <v>1</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>1</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>1</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
+  <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1385,7 +1613,7 @@
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1406,433 +1634,433 @@
     </row>
     <row r="3" spans="2:36" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
+      <c r="AC3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
     </row>
     <row r="4" spans="2:36" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Z4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="AE4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AJ4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
   <si>
     <t>PC</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>CP13</t>
+  </si>
+  <si>
+    <t>T55</t>
   </si>
 </sst>
 </file>
@@ -859,33 +862,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -897,6 +873,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,29 +1228,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -1257,43 +1260,43 @@
       <c r="B2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67" t="s">
+      <c r="C2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="67"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67" t="s">
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -2357,11 +2360,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK60"/>
+  <dimension ref="A1:AK61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2391,44 +2394,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
@@ -2440,66 +2443,66 @@
       <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="69" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="71"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="70" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
       <c r="U2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="69" t="s">
+      <c r="W2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="69" t="s">
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="71"/>
+      <c r="AA2" s="74"/>
       <c r="AB2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="69" t="s">
+      <c r="AC2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="69" t="s">
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="71"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="74"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
@@ -8713,207 +8716,317 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="66" t="s">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="48">
+        <v>1</v>
+      </c>
+      <c r="C59" s="48">
+        <v>0</v>
+      </c>
+      <c r="D59" s="48">
+        <v>0</v>
+      </c>
+      <c r="E59" s="49">
+        <v>0</v>
+      </c>
+      <c r="F59" s="50">
+        <v>0</v>
+      </c>
+      <c r="G59" s="50">
+        <v>0</v>
+      </c>
+      <c r="H59" s="50">
+        <v>0</v>
+      </c>
+      <c r="I59" s="49">
+        <v>0</v>
+      </c>
+      <c r="J59" s="51">
+        <v>0</v>
+      </c>
+      <c r="K59" s="50">
+        <v>0</v>
+      </c>
+      <c r="L59" s="49">
+        <v>0</v>
+      </c>
+      <c r="M59" s="51">
+        <v>0</v>
+      </c>
+      <c r="N59" s="50">
+        <v>0</v>
+      </c>
+      <c r="O59" s="51">
+        <v>0</v>
+      </c>
+      <c r="P59" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="49">
+        <v>1</v>
+      </c>
+      <c r="R59" s="50">
+        <v>1</v>
+      </c>
+      <c r="S59" s="50">
+        <v>1</v>
+      </c>
+      <c r="T59" s="51">
+        <v>0</v>
+      </c>
+      <c r="U59" s="48">
+        <v>0</v>
+      </c>
+      <c r="V59" s="48">
+        <v>0</v>
+      </c>
+      <c r="W59" s="49">
+        <v>0</v>
+      </c>
+      <c r="X59" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="51">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="48">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="49">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="50">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="51">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="49">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="50">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="50">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="50">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C60" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D60" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="77" t="s">
+      <c r="E60" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="78" t="s">
+      <c r="F60" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="78" t="s">
+      <c r="G60" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="H59" s="78" t="s">
+      <c r="H60" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="77" t="s">
+      <c r="I60" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="J59" s="79" t="s">
+      <c r="J60" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="78" t="s">
+      <c r="K60" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="L59" s="77" t="s">
+      <c r="L60" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="M59" s="79" t="s">
+      <c r="M60" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="N59" s="78" t="s">
+      <c r="N60" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="O59" s="79" t="s">
+      <c r="O60" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="P59" s="66" t="s">
+      <c r="P60" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q59" s="77" t="s">
+      <c r="Q60" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="R59" s="78" t="s">
+      <c r="R60" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="S59" s="78" t="s">
+      <c r="S60" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="T59" s="79" t="s">
+      <c r="T60" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="U59" s="66" t="s">
+      <c r="U60" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="V59" s="66" t="s">
+      <c r="V60" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="W59" s="77" t="s">
+      <c r="W60" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="X59" s="78" t="s">
+      <c r="X60" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="Y59" s="79" t="s">
+      <c r="Y60" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="Z59" s="77" t="s">
+      <c r="Z60" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="AA59" s="79" t="s">
+      <c r="AA60" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="AB59" s="66" t="s">
+      <c r="AB60" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AC59" s="77" t="s">
+      <c r="AC60" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AD59" s="78" t="s">
+      <c r="AD60" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="AE59" s="79" t="s">
+      <c r="AE60" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AF59" s="77" t="s">
+      <c r="AF60" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="AG59" s="78" t="s">
+      <c r="AG60" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="AH59" s="78" t="s">
+      <c r="AH60" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="AI59" s="78" t="s">
+      <c r="AI60" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AJ59" s="79" t="s">
+      <c r="AJ60" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AK59" s="15"/>
+      <c r="AK60" s="15"/>
     </row>
-    <row r="60" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="27" t="s">
+    <row r="61" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D61" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="73" t="s">
+      <c r="E61" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="73" t="s">
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="J60" s="75"/>
-      <c r="K60" s="29" t="s">
+      <c r="J61" s="78"/>
+      <c r="K61" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="73" t="s">
+      <c r="L61" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M60" s="75"/>
-      <c r="N60" s="74" t="s">
+      <c r="M61" s="78"/>
+      <c r="N61" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="O60" s="75"/>
-      <c r="P60" s="22" t="s">
+      <c r="O61" s="78"/>
+      <c r="P61" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Q60" s="73" t="s">
+      <c r="Q61" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="R60" s="74"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="75"/>
-      <c r="U60" s="22" t="s">
+      <c r="R61" s="77"/>
+      <c r="S61" s="77"/>
+      <c r="T61" s="78"/>
+      <c r="U61" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="V60" s="22" t="s">
+      <c r="V61" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="W60" s="73" t="s">
+      <c r="W61" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="75"/>
-      <c r="Z60" s="73" t="s">
+      <c r="X61" s="77"/>
+      <c r="Y61" s="78"/>
+      <c r="Z61" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AA60" s="75"/>
-      <c r="AB60" s="22" t="s">
+      <c r="AA61" s="78"/>
+      <c r="AB61" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AC60" s="73" t="s">
+      <c r="AC61" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="74"/>
-      <c r="AE60" s="75"/>
-      <c r="AF60" s="73" t="s">
+      <c r="AD61" s="77"/>
+      <c r="AE61" s="78"/>
+      <c r="AF61" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="AG60" s="74"/>
-      <c r="AH60" s="74"/>
-      <c r="AI60" s="74"/>
-      <c r="AJ60" s="75"/>
+      <c r="AG61" s="77"/>
+      <c r="AH61" s="77"/>
+      <c r="AI61" s="77"/>
+      <c r="AJ61" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF60:AJ60"/>
+    <mergeCell ref="AF61:AJ61"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:T60"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="AC60:AE60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="AC61:AE61"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="L61:M61"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
@@ -868,30 +868,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -903,6 +879,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,7 +1210,7 @@
   </sheetPr>
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1231,216 +1231,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80" t="s">
+      <c r="C2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="79" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="72"/>
+      <c r="P2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="78">
+      <c r="B3" s="70">
         <f t="shared" ref="B3:S3" si="0">SUM(C3+1)</f>
         <v>19</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="70">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="70">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="70">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="70">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="70">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="70">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="70">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="70">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="70">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="70">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M3" s="78">
+      <c r="M3" s="70">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="70">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O3" s="78">
+      <c r="O3" s="70">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P3" s="78">
+      <c r="P3" s="70">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="70">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R3" s="78">
+      <c r="R3" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S3" s="78">
+      <c r="S3" s="70">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T3" s="78">
+      <c r="T3" s="70">
         <f>SUM(U3+1)</f>
         <v>1</v>
       </c>
-      <c r="U3" s="79">
+      <c r="U3" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="78" t="s">
+      <c r="P4" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
   </sheetPr>
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -2478,44 +2478,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
@@ -2527,205 +2527,205 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="70" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="72"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="71" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="72"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="70" t="s">
+      <c r="W2" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="70" t="s">
+      <c r="X2" s="78"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="72"/>
+      <c r="AA2" s="79"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="70" t="s">
+      <c r="AC2" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="70" t="s">
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="72"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="79"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="77">
+      <c r="B3" s="69">
         <f t="shared" ref="B3:AH3" si="0">SUM(C3+1)</f>
         <v>34</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="69">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="69">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="69">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="69">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="69">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="69">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="69">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="69">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="69">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="69">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M3" s="77">
+      <c r="M3" s="69">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="N3" s="77">
+      <c r="N3" s="69">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="O3" s="77">
+      <c r="O3" s="69">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P3" s="77">
+      <c r="P3" s="69">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="69">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="R3" s="77">
+      <c r="R3" s="69">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S3" s="77">
+      <c r="S3" s="69">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T3" s="77">
+      <c r="T3" s="69">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U3" s="77">
+      <c r="U3" s="69">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="V3" s="77">
+      <c r="V3" s="69">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="W3" s="77">
+      <c r="W3" s="69">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="X3" s="77">
+      <c r="X3" s="69">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Y3" s="77">
+      <c r="Y3" s="69">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="69">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AA3" s="77">
+      <c r="AA3" s="69">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AB3" s="77">
+      <c r="AB3" s="69">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AC3" s="77">
+      <c r="AC3" s="69">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AD3" s="77">
+      <c r="AD3" s="69">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AE3" s="77">
+      <c r="AE3" s="69">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF3" s="77">
+      <c r="AF3" s="69">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG3" s="77">
+      <c r="AG3" s="69">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AH3" s="77">
+      <c r="AH3" s="69">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AI3" s="77">
+      <c r="AI3" s="69">
         <f>SUM(AJ3+1)</f>
         <v>1</v>
       </c>
-      <c r="AJ3" s="77">
+      <c r="AJ3" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9170,69 +9170,72 @@
       <c r="D62" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="73" t="s">
+      <c r="E62" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="73" t="s">
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="75"/>
+      <c r="J62" s="76"/>
       <c r="K62" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="73" t="s">
+      <c r="L62" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M62" s="75"/>
-      <c r="N62" s="74" t="s">
+      <c r="M62" s="76"/>
+      <c r="N62" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="O62" s="75"/>
+      <c r="O62" s="76"/>
       <c r="P62" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q62" s="73" t="s">
+      <c r="Q62" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="R62" s="74"/>
-      <c r="S62" s="74"/>
-      <c r="T62" s="75"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="76"/>
       <c r="U62" s="20" t="s">
         <v>22</v>
       </c>
       <c r="V62" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="W62" s="73" t="s">
+      <c r="W62" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="X62" s="74"/>
-      <c r="Y62" s="75"/>
-      <c r="Z62" s="73" t="s">
+      <c r="X62" s="75"/>
+      <c r="Y62" s="76"/>
+      <c r="Z62" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AA62" s="75"/>
+      <c r="AA62" s="76"/>
       <c r="AB62" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC62" s="73" t="s">
+      <c r="AC62" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="AD62" s="74"/>
-      <c r="AE62" s="75"/>
-      <c r="AF62" s="73" t="s">
+      <c r="AD62" s="75"/>
+      <c r="AE62" s="76"/>
+      <c r="AF62" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AG62" s="74"/>
-      <c r="AH62" s="74"/>
-      <c r="AI62" s="74"/>
-      <c r="AJ62" s="75"/>
+      <c r="AG62" s="75"/>
+      <c r="AH62" s="75"/>
+      <c r="AI62" s="75"/>
+      <c r="AJ62" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:T2"/>
     <mergeCell ref="AF62:AJ62"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
@@ -9249,12 +9252,9 @@
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -883,6 +883,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -891,15 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2447,8 +2447,8 @@
   <dimension ref="A1:AK62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2527,66 +2527,66 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="77" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="78" t="s">
+      <c r="M2" s="76"/>
+      <c r="N2" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="79"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="79"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="77" t="s">
+      <c r="W2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="77" t="s">
+      <c r="X2" s="75"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="79"/>
+      <c r="AA2" s="76"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="77" t="s">
+      <c r="AC2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="77" t="s">
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="79"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="76"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="69">
@@ -4135,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="Z16" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="37">
         <v>1</v>
@@ -9170,74 +9170,69 @@
       <c r="D62" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="74" t="s">
+      <c r="E62" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="74" t="s">
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="76"/>
+      <c r="J62" s="79"/>
       <c r="K62" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="74" t="s">
+      <c r="L62" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M62" s="76"/>
-      <c r="N62" s="75" t="s">
+      <c r="M62" s="79"/>
+      <c r="N62" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="O62" s="76"/>
+      <c r="O62" s="79"/>
       <c r="P62" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q62" s="74" t="s">
+      <c r="Q62" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="76"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="78"/>
+      <c r="T62" s="79"/>
       <c r="U62" s="20" t="s">
         <v>22</v>
       </c>
       <c r="V62" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="W62" s="74" t="s">
+      <c r="W62" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="X62" s="75"/>
-      <c r="Y62" s="76"/>
-      <c r="Z62" s="74" t="s">
+      <c r="X62" s="78"/>
+      <c r="Y62" s="79"/>
+      <c r="Z62" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AA62" s="76"/>
+      <c r="AA62" s="79"/>
       <c r="AB62" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC62" s="74" t="s">
+      <c r="AC62" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AD62" s="75"/>
-      <c r="AE62" s="76"/>
-      <c r="AF62" s="74" t="s">
+      <c r="AD62" s="78"/>
+      <c r="AE62" s="79"/>
+      <c r="AF62" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="AG62" s="75"/>
-      <c r="AH62" s="75"/>
-      <c r="AI62" s="75"/>
-      <c r="AJ62" s="76"/>
+      <c r="AG62" s="78"/>
+      <c r="AH62" s="78"/>
+      <c r="AI62" s="78"/>
+      <c r="AJ62" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF62:AJ62"/>
-    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E62:H62"/>
@@ -9252,6 +9247,11 @@
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AF62:AJ62"/>
+    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
   <si>
     <t>PC</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>T63</t>
+  </si>
+  <si>
+    <t>T64</t>
   </si>
 </sst>
 </file>
@@ -904,10 +907,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2462,11 +2465,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK70"/>
+  <dimension ref="A1:AK71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:AJ68"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ69" sqref="A5:AJ69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2548,33 +2551,33 @@
       <c r="E2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="74"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="74"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
       <c r="Q2" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="73"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
@@ -2584,27 +2587,27 @@
       <c r="W2" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="73"/>
       <c r="Z2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="74"/>
+      <c r="AA2" s="73"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AC2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="73"/>
       <c r="AF2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="73"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -9070,112 +9073,112 @@
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="37">
-        <v>1</v>
-      </c>
-      <c r="C61" s="37">
-        <v>0</v>
-      </c>
-      <c r="D61" s="37">
-        <v>0</v>
-      </c>
-      <c r="E61" s="38">
-        <v>0</v>
-      </c>
-      <c r="F61" s="36">
-        <v>0</v>
-      </c>
-      <c r="G61" s="36">
-        <v>0</v>
-      </c>
-      <c r="H61" s="36">
-        <v>0</v>
-      </c>
-      <c r="I61" s="38">
-        <v>0</v>
-      </c>
-      <c r="J61" s="39">
-        <v>0</v>
-      </c>
-      <c r="K61" s="36">
-        <v>0</v>
-      </c>
-      <c r="L61" s="38">
-        <v>0</v>
-      </c>
-      <c r="M61" s="39">
-        <v>0</v>
-      </c>
-      <c r="N61" s="36">
-        <v>0</v>
-      </c>
-      <c r="O61" s="39">
-        <v>0</v>
-      </c>
-      <c r="P61" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="38">
-        <v>1</v>
-      </c>
-      <c r="R61" s="36">
-        <v>0</v>
-      </c>
-      <c r="S61" s="36">
-        <v>1</v>
-      </c>
-      <c r="T61" s="39">
-        <v>0</v>
-      </c>
-      <c r="U61" s="37">
-        <v>0</v>
-      </c>
-      <c r="V61" s="37">
-        <v>0</v>
-      </c>
-      <c r="W61" s="38">
-        <v>0</v>
-      </c>
-      <c r="X61" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="38">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="39">
+      <c r="B61" s="42">
+        <v>1</v>
+      </c>
+      <c r="C61" s="42">
+        <v>0</v>
+      </c>
+      <c r="D61" s="42">
+        <v>0</v>
+      </c>
+      <c r="E61" s="43">
+        <v>0</v>
+      </c>
+      <c r="F61" s="44">
+        <v>0</v>
+      </c>
+      <c r="G61" s="44">
+        <v>0</v>
+      </c>
+      <c r="H61" s="44">
+        <v>0</v>
+      </c>
+      <c r="I61" s="43">
+        <v>0</v>
+      </c>
+      <c r="J61" s="45">
+        <v>0</v>
+      </c>
+      <c r="K61" s="44">
+        <v>0</v>
+      </c>
+      <c r="L61" s="43">
+        <v>0</v>
+      </c>
+      <c r="M61" s="45">
+        <v>0</v>
+      </c>
+      <c r="N61" s="44">
+        <v>0</v>
+      </c>
+      <c r="O61" s="45">
+        <v>0</v>
+      </c>
+      <c r="P61" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="43">
+        <v>1</v>
+      </c>
+      <c r="R61" s="44">
+        <v>1</v>
+      </c>
+      <c r="S61" s="44">
+        <v>1</v>
+      </c>
+      <c r="T61" s="45">
+        <v>0</v>
+      </c>
+      <c r="U61" s="42">
+        <v>0</v>
+      </c>
+      <c r="V61" s="42">
+        <v>0</v>
+      </c>
+      <c r="W61" s="43">
+        <v>0</v>
+      </c>
+      <c r="X61" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="45">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="43">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="45">
         <v>0</v>
       </c>
     </row>
@@ -9190,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="38">
         <v>0</v>
@@ -9280,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="36">
         <v>0</v>
@@ -9288,7 +9291,6 @@
       <c r="AJ62" s="39">
         <v>0</v>
       </c>
-      <c r="AK62" s="69"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
@@ -9388,10 +9390,10 @@
         <v>1</v>
       </c>
       <c r="AG63" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="36">
         <v>0</v>
@@ -9405,109 +9407,109 @@
       <c r="A64" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="40">
-        <v>1</v>
-      </c>
-      <c r="C64" s="40">
-        <v>0</v>
-      </c>
-      <c r="D64" s="40">
-        <v>1</v>
-      </c>
-      <c r="E64" s="57">
-        <v>0</v>
-      </c>
-      <c r="F64" s="58">
-        <v>0</v>
-      </c>
-      <c r="G64" s="58">
-        <v>0</v>
-      </c>
-      <c r="H64" s="58">
-        <v>0</v>
-      </c>
-      <c r="I64" s="57">
-        <v>0</v>
-      </c>
-      <c r="J64" s="59">
-        <v>0</v>
-      </c>
-      <c r="K64" s="58">
-        <v>0</v>
-      </c>
-      <c r="L64" s="57">
-        <v>0</v>
-      </c>
-      <c r="M64" s="59">
-        <v>0</v>
-      </c>
-      <c r="N64" s="58">
-        <v>0</v>
-      </c>
-      <c r="O64" s="59">
-        <v>0</v>
-      </c>
-      <c r="P64" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="57">
-        <v>1</v>
-      </c>
-      <c r="R64" s="58">
-        <v>0</v>
-      </c>
-      <c r="S64" s="58">
-        <v>1</v>
-      </c>
-      <c r="T64" s="59">
-        <v>0</v>
-      </c>
-      <c r="U64" s="40">
-        <v>0</v>
-      </c>
-      <c r="V64" s="40">
-        <v>0</v>
-      </c>
-      <c r="W64" s="57">
-        <v>0</v>
-      </c>
-      <c r="X64" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="57">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="57">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="58">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="59">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="57">
-        <v>1</v>
-      </c>
-      <c r="AG64" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="58">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ64" s="59">
+      <c r="B64" s="37">
+        <v>1</v>
+      </c>
+      <c r="C64" s="37">
+        <v>0</v>
+      </c>
+      <c r="D64" s="37">
+        <v>1</v>
+      </c>
+      <c r="E64" s="38">
+        <v>0</v>
+      </c>
+      <c r="F64" s="36">
+        <v>0</v>
+      </c>
+      <c r="G64" s="36">
+        <v>0</v>
+      </c>
+      <c r="H64" s="36">
+        <v>0</v>
+      </c>
+      <c r="I64" s="38">
+        <v>0</v>
+      </c>
+      <c r="J64" s="39">
+        <v>0</v>
+      </c>
+      <c r="K64" s="36">
+        <v>0</v>
+      </c>
+      <c r="L64" s="38">
+        <v>0</v>
+      </c>
+      <c r="M64" s="39">
+        <v>0</v>
+      </c>
+      <c r="N64" s="36">
+        <v>0</v>
+      </c>
+      <c r="O64" s="39">
+        <v>0</v>
+      </c>
+      <c r="P64" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="38">
+        <v>1</v>
+      </c>
+      <c r="R64" s="36">
+        <v>0</v>
+      </c>
+      <c r="S64" s="36">
+        <v>1</v>
+      </c>
+      <c r="T64" s="39">
+        <v>0</v>
+      </c>
+      <c r="U64" s="37">
+        <v>0</v>
+      </c>
+      <c r="V64" s="37">
+        <v>0</v>
+      </c>
+      <c r="W64" s="38">
+        <v>0</v>
+      </c>
+      <c r="X64" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="37">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG64" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="39">
         <v>0</v>
       </c>
       <c r="AK64" s="69"/>
@@ -9516,109 +9518,109 @@
       <c r="A65" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="37">
-        <v>1</v>
-      </c>
-      <c r="C65" s="37">
-        <v>0</v>
-      </c>
-      <c r="D65" s="37">
-        <v>0</v>
-      </c>
-      <c r="E65" s="38">
-        <v>0</v>
-      </c>
-      <c r="F65" s="36">
-        <v>0</v>
-      </c>
-      <c r="G65" s="36">
-        <v>0</v>
-      </c>
-      <c r="H65" s="36">
-        <v>0</v>
-      </c>
-      <c r="I65" s="38">
-        <v>0</v>
-      </c>
-      <c r="J65" s="39">
-        <v>0</v>
-      </c>
-      <c r="K65" s="36">
-        <v>0</v>
-      </c>
-      <c r="L65" s="38">
-        <v>0</v>
-      </c>
-      <c r="M65" s="39">
-        <v>0</v>
-      </c>
-      <c r="N65" s="36">
-        <v>0</v>
-      </c>
-      <c r="O65" s="39">
-        <v>0</v>
-      </c>
-      <c r="P65" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="38">
-        <v>1</v>
-      </c>
-      <c r="R65" s="36">
-        <v>0</v>
-      </c>
-      <c r="S65" s="36">
-        <v>1</v>
-      </c>
-      <c r="T65" s="39">
-        <v>0</v>
-      </c>
-      <c r="U65" s="37">
-        <v>0</v>
-      </c>
-      <c r="V65" s="37">
-        <v>0</v>
-      </c>
-      <c r="W65" s="38">
-        <v>0</v>
-      </c>
-      <c r="X65" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="38">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="36">
-        <v>1</v>
-      </c>
-      <c r="AI65" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="39">
+      <c r="B65" s="40">
+        <v>1</v>
+      </c>
+      <c r="C65" s="40">
+        <v>0</v>
+      </c>
+      <c r="D65" s="40">
+        <v>1</v>
+      </c>
+      <c r="E65" s="57">
+        <v>0</v>
+      </c>
+      <c r="F65" s="58">
+        <v>0</v>
+      </c>
+      <c r="G65" s="58">
+        <v>0</v>
+      </c>
+      <c r="H65" s="58">
+        <v>0</v>
+      </c>
+      <c r="I65" s="57">
+        <v>0</v>
+      </c>
+      <c r="J65" s="59">
+        <v>0</v>
+      </c>
+      <c r="K65" s="58">
+        <v>0</v>
+      </c>
+      <c r="L65" s="57">
+        <v>0</v>
+      </c>
+      <c r="M65" s="59">
+        <v>0</v>
+      </c>
+      <c r="N65" s="58">
+        <v>0</v>
+      </c>
+      <c r="O65" s="59">
+        <v>0</v>
+      </c>
+      <c r="P65" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="57">
+        <v>1</v>
+      </c>
+      <c r="R65" s="58">
+        <v>0</v>
+      </c>
+      <c r="S65" s="58">
+        <v>1</v>
+      </c>
+      <c r="T65" s="59">
+        <v>0</v>
+      </c>
+      <c r="U65" s="40">
+        <v>0</v>
+      </c>
+      <c r="V65" s="40">
+        <v>0</v>
+      </c>
+      <c r="W65" s="57">
+        <v>0</v>
+      </c>
+      <c r="X65" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="57">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="57">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ65" s="59">
         <v>0</v>
       </c>
       <c r="AK65" s="69"/>
@@ -9832,13 +9834,13 @@
         <v>1</v>
       </c>
       <c r="AG67" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI67" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="39">
         <v>0</v>
@@ -9954,209 +9956,320 @@
       <c r="AJ68" s="39">
         <v>0</v>
       </c>
-      <c r="AK68" s="68"/>
+      <c r="AK68" s="69"/>
     </row>
-    <row r="69" spans="1:37" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="60" t="s">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A69" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="37">
+        <v>1</v>
+      </c>
+      <c r="C69" s="37">
+        <v>0</v>
+      </c>
+      <c r="D69" s="37">
+        <v>0</v>
+      </c>
+      <c r="E69" s="38">
+        <v>0</v>
+      </c>
+      <c r="F69" s="36">
+        <v>0</v>
+      </c>
+      <c r="G69" s="36">
+        <v>0</v>
+      </c>
+      <c r="H69" s="36">
+        <v>0</v>
+      </c>
+      <c r="I69" s="38">
+        <v>0</v>
+      </c>
+      <c r="J69" s="39">
+        <v>0</v>
+      </c>
+      <c r="K69" s="36">
+        <v>0</v>
+      </c>
+      <c r="L69" s="38">
+        <v>0</v>
+      </c>
+      <c r="M69" s="39">
+        <v>0</v>
+      </c>
+      <c r="N69" s="36">
+        <v>0</v>
+      </c>
+      <c r="O69" s="39">
+        <v>0</v>
+      </c>
+      <c r="P69" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="38">
+        <v>1</v>
+      </c>
+      <c r="R69" s="36">
+        <v>0</v>
+      </c>
+      <c r="S69" s="36">
+        <v>1</v>
+      </c>
+      <c r="T69" s="39">
+        <v>0</v>
+      </c>
+      <c r="U69" s="37">
+        <v>0</v>
+      </c>
+      <c r="V69" s="37">
+        <v>0</v>
+      </c>
+      <c r="W69" s="38">
+        <v>0</v>
+      </c>
+      <c r="X69" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="37">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ69" s="39">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="68"/>
+    </row>
+    <row r="70" spans="1:37" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C70" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="60" t="s">
+      <c r="D70" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="62" t="s">
+      <c r="E70" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="63" t="s">
+      <c r="F70" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="63" t="s">
+      <c r="G70" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H70" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="I69" s="62" t="s">
+      <c r="I70" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="J69" s="64" t="s">
+      <c r="J70" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="63" t="s">
+      <c r="K70" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L69" s="62" t="s">
+      <c r="L70" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="M69" s="64" t="s">
+      <c r="M70" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="N69" s="63" t="s">
+      <c r="N70" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="O69" s="64" t="s">
+      <c r="O70" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="P69" s="60" t="s">
+      <c r="P70" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="Q69" s="62" t="s">
+      <c r="Q70" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="R69" s="63" t="s">
+      <c r="R70" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="S69" s="63" t="s">
+      <c r="S70" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="T69" s="64" t="s">
+      <c r="T70" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="U69" s="60" t="s">
+      <c r="U70" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="V69" s="60" t="s">
+      <c r="V70" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="W69" s="62" t="s">
+      <c r="W70" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="X69" s="63" t="s">
+      <c r="X70" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="Y69" s="64" t="s">
+      <c r="Y70" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="Z69" s="62" t="s">
+      <c r="Z70" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AA69" s="64" t="s">
+      <c r="AA70" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="AB69" s="60" t="s">
+      <c r="AB70" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="AC69" s="62" t="s">
+      <c r="AC70" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AD69" s="63" t="s">
+      <c r="AD70" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="AE69" s="64" t="s">
+      <c r="AE70" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="AF69" s="62" t="s">
+      <c r="AF70" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AG69" s="63" t="s">
+      <c r="AG70" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="AH69" s="63" t="s">
+      <c r="AH70" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="AI69" s="63" t="s">
+      <c r="AI70" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AJ69" s="64" t="s">
+      <c r="AJ70" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AK69" s="13"/>
+      <c r="AK70" s="13"/>
     </row>
-    <row r="70" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
+    <row r="71" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D71" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="75" t="s">
+      <c r="E71" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="75" t="s">
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="77"/>
-      <c r="K70" s="27" t="s">
+      <c r="J71" s="77"/>
+      <c r="K71" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="75" t="s">
+      <c r="L71" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M70" s="77"/>
-      <c r="N70" s="76" t="s">
+      <c r="M71" s="77"/>
+      <c r="N71" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="O70" s="77"/>
-      <c r="P70" s="20" t="s">
+      <c r="O71" s="77"/>
+      <c r="P71" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q70" s="75" t="s">
+      <c r="Q71" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="R70" s="76"/>
-      <c r="S70" s="76"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="20" t="s">
+      <c r="R71" s="76"/>
+      <c r="S71" s="76"/>
+      <c r="T71" s="77"/>
+      <c r="U71" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V70" s="20" t="s">
+      <c r="V71" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="W70" s="75" t="s">
+      <c r="W71" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X70" s="76"/>
-      <c r="Y70" s="77"/>
-      <c r="Z70" s="75" t="s">
+      <c r="X71" s="76"/>
+      <c r="Y71" s="77"/>
+      <c r="Z71" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AA70" s="77"/>
-      <c r="AB70" s="20" t="s">
+      <c r="AA71" s="77"/>
+      <c r="AB71" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC70" s="75" t="s">
+      <c r="AC71" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AD70" s="76"/>
-      <c r="AE70" s="77"/>
-      <c r="AF70" s="75" t="s">
+      <c r="AD71" s="76"/>
+      <c r="AE71" s="77"/>
+      <c r="AF71" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="AG70" s="76"/>
-      <c r="AH70" s="76"/>
-      <c r="AI70" s="76"/>
-      <c r="AJ70" s="77"/>
+      <c r="AG71" s="76"/>
+      <c r="AH71" s="76"/>
+      <c r="AI71" s="76"/>
+      <c r="AJ71" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q71:T71"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="AC71:AE71"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF70:AJ70"/>
+    <mergeCell ref="AF71:AJ71"/>
     <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="Q70:T70"/>
-    <mergeCell ref="W70:Y70"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="AC70:AE70"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11110,10 +11223,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ64"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AJ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17283,117 +17396,117 @@
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="37">
-        <v>1</v>
-      </c>
-      <c r="C57" s="37">
-        <v>0</v>
-      </c>
-      <c r="D57" s="37">
-        <v>0</v>
-      </c>
-      <c r="E57" s="38">
-        <v>0</v>
-      </c>
-      <c r="F57" s="36">
-        <v>0</v>
-      </c>
-      <c r="G57" s="36">
-        <v>0</v>
-      </c>
-      <c r="H57" s="36">
-        <v>0</v>
-      </c>
-      <c r="I57" s="38">
-        <v>0</v>
-      </c>
-      <c r="J57" s="39">
-        <v>0</v>
-      </c>
-      <c r="K57" s="36">
-        <v>0</v>
-      </c>
-      <c r="L57" s="38">
-        <v>0</v>
-      </c>
-      <c r="M57" s="39">
-        <v>0</v>
-      </c>
-      <c r="N57" s="36">
-        <v>0</v>
-      </c>
-      <c r="O57" s="39">
-        <v>0</v>
-      </c>
-      <c r="P57" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="38">
-        <v>1</v>
-      </c>
-      <c r="R57" s="36">
-        <v>0</v>
-      </c>
-      <c r="S57" s="36">
-        <v>1</v>
-      </c>
-      <c r="T57" s="39">
-        <v>0</v>
-      </c>
-      <c r="U57" s="37">
-        <v>0</v>
-      </c>
-      <c r="V57" s="37">
-        <v>0</v>
-      </c>
-      <c r="W57" s="38">
-        <v>0</v>
-      </c>
-      <c r="X57" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="38">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="39">
+      <c r="B57" s="42">
+        <v>1</v>
+      </c>
+      <c r="C57" s="42">
+        <v>0</v>
+      </c>
+      <c r="D57" s="42">
+        <v>0</v>
+      </c>
+      <c r="E57" s="43">
+        <v>0</v>
+      </c>
+      <c r="F57" s="44">
+        <v>0</v>
+      </c>
+      <c r="G57" s="44">
+        <v>0</v>
+      </c>
+      <c r="H57" s="44">
+        <v>0</v>
+      </c>
+      <c r="I57" s="43">
+        <v>0</v>
+      </c>
+      <c r="J57" s="45">
+        <v>0</v>
+      </c>
+      <c r="K57" s="44">
+        <v>0</v>
+      </c>
+      <c r="L57" s="43">
+        <v>0</v>
+      </c>
+      <c r="M57" s="45">
+        <v>0</v>
+      </c>
+      <c r="N57" s="44">
+        <v>0</v>
+      </c>
+      <c r="O57" s="45">
+        <v>0</v>
+      </c>
+      <c r="P57" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="43">
+        <v>1</v>
+      </c>
+      <c r="R57" s="44">
+        <v>1</v>
+      </c>
+      <c r="S57" s="44">
+        <v>1</v>
+      </c>
+      <c r="T57" s="45">
+        <v>0</v>
+      </c>
+      <c r="U57" s="42">
+        <v>0</v>
+      </c>
+      <c r="V57" s="42">
+        <v>0</v>
+      </c>
+      <c r="W57" s="43">
+        <v>0</v>
+      </c>
+      <c r="X57" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="45">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="42">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="43">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="40" t="s">
         <v>138</v>
       </c>
       <c r="B58" s="37">
@@ -17403,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="38">
         <v>0</v>
@@ -17493,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="AH58" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="36">
         <v>0</v>
@@ -17503,7 +17616,7 @@
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="40" t="s">
         <v>139</v>
       </c>
       <c r="B59" s="37">
@@ -17600,10 +17713,10 @@
         <v>1</v>
       </c>
       <c r="AG59" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="36">
         <v>0</v>
@@ -17613,227 +17726,227 @@
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="40">
-        <v>1</v>
-      </c>
-      <c r="C60" s="40">
-        <v>0</v>
-      </c>
-      <c r="D60" s="40">
-        <v>1</v>
-      </c>
-      <c r="E60" s="57">
-        <v>0</v>
-      </c>
-      <c r="F60" s="58">
-        <v>0</v>
-      </c>
-      <c r="G60" s="58">
-        <v>0</v>
-      </c>
-      <c r="H60" s="58">
-        <v>0</v>
-      </c>
-      <c r="I60" s="57">
-        <v>0</v>
-      </c>
-      <c r="J60" s="59">
-        <v>0</v>
-      </c>
-      <c r="K60" s="58">
-        <v>0</v>
-      </c>
-      <c r="L60" s="57">
-        <v>0</v>
-      </c>
-      <c r="M60" s="59">
-        <v>0</v>
-      </c>
-      <c r="N60" s="58">
-        <v>0</v>
-      </c>
-      <c r="O60" s="59">
-        <v>0</v>
-      </c>
-      <c r="P60" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="57">
-        <v>1</v>
-      </c>
-      <c r="R60" s="58">
-        <v>0</v>
-      </c>
-      <c r="S60" s="58">
-        <v>1</v>
-      </c>
-      <c r="T60" s="59">
-        <v>0</v>
-      </c>
-      <c r="U60" s="40">
-        <v>0</v>
-      </c>
-      <c r="V60" s="40">
-        <v>0</v>
-      </c>
-      <c r="W60" s="57">
-        <v>0</v>
-      </c>
-      <c r="X60" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="57">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="57">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="58">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="59">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="57">
-        <v>1</v>
-      </c>
-      <c r="AG60" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="58">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="59">
+      <c r="B60" s="37">
+        <v>1</v>
+      </c>
+      <c r="C60" s="37">
+        <v>0</v>
+      </c>
+      <c r="D60" s="37">
+        <v>1</v>
+      </c>
+      <c r="E60" s="38">
+        <v>0</v>
+      </c>
+      <c r="F60" s="36">
+        <v>0</v>
+      </c>
+      <c r="G60" s="36">
+        <v>0</v>
+      </c>
+      <c r="H60" s="36">
+        <v>0</v>
+      </c>
+      <c r="I60" s="38">
+        <v>0</v>
+      </c>
+      <c r="J60" s="39">
+        <v>0</v>
+      </c>
+      <c r="K60" s="36">
+        <v>0</v>
+      </c>
+      <c r="L60" s="38">
+        <v>0</v>
+      </c>
+      <c r="M60" s="39">
+        <v>0</v>
+      </c>
+      <c r="N60" s="36">
+        <v>0</v>
+      </c>
+      <c r="O60" s="39">
+        <v>0</v>
+      </c>
+      <c r="P60" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="38">
+        <v>1</v>
+      </c>
+      <c r="R60" s="36">
+        <v>0</v>
+      </c>
+      <c r="S60" s="36">
+        <v>1</v>
+      </c>
+      <c r="T60" s="39">
+        <v>0</v>
+      </c>
+      <c r="U60" s="37">
+        <v>0</v>
+      </c>
+      <c r="V60" s="37">
+        <v>0</v>
+      </c>
+      <c r="W60" s="38">
+        <v>0</v>
+      </c>
+      <c r="X60" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="37">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="37">
-        <v>1</v>
-      </c>
-      <c r="C61" s="37">
-        <v>0</v>
-      </c>
-      <c r="D61" s="37">
-        <v>0</v>
-      </c>
-      <c r="E61" s="38">
-        <v>0</v>
-      </c>
-      <c r="F61" s="36">
-        <v>0</v>
-      </c>
-      <c r="G61" s="36">
-        <v>0</v>
-      </c>
-      <c r="H61" s="36">
-        <v>0</v>
-      </c>
-      <c r="I61" s="38">
-        <v>0</v>
-      </c>
-      <c r="J61" s="39">
-        <v>0</v>
-      </c>
-      <c r="K61" s="36">
-        <v>0</v>
-      </c>
-      <c r="L61" s="38">
-        <v>0</v>
-      </c>
-      <c r="M61" s="39">
-        <v>0</v>
-      </c>
-      <c r="N61" s="36">
-        <v>0</v>
-      </c>
-      <c r="O61" s="39">
-        <v>0</v>
-      </c>
-      <c r="P61" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="38">
-        <v>1</v>
-      </c>
-      <c r="R61" s="36">
-        <v>0</v>
-      </c>
-      <c r="S61" s="36">
-        <v>1</v>
-      </c>
-      <c r="T61" s="39">
-        <v>0</v>
-      </c>
-      <c r="U61" s="37">
-        <v>0</v>
-      </c>
-      <c r="V61" s="37">
-        <v>0</v>
-      </c>
-      <c r="W61" s="38">
-        <v>0</v>
-      </c>
-      <c r="X61" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="38">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="36">
-        <v>1</v>
-      </c>
-      <c r="AI61" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="39">
+      <c r="B61" s="40">
+        <v>1</v>
+      </c>
+      <c r="C61" s="40">
+        <v>0</v>
+      </c>
+      <c r="D61" s="40">
+        <v>1</v>
+      </c>
+      <c r="E61" s="57">
+        <v>0</v>
+      </c>
+      <c r="F61" s="58">
+        <v>0</v>
+      </c>
+      <c r="G61" s="58">
+        <v>0</v>
+      </c>
+      <c r="H61" s="58">
+        <v>0</v>
+      </c>
+      <c r="I61" s="57">
+        <v>0</v>
+      </c>
+      <c r="J61" s="59">
+        <v>0</v>
+      </c>
+      <c r="K61" s="58">
+        <v>0</v>
+      </c>
+      <c r="L61" s="57">
+        <v>0</v>
+      </c>
+      <c r="M61" s="59">
+        <v>0</v>
+      </c>
+      <c r="N61" s="58">
+        <v>0</v>
+      </c>
+      <c r="O61" s="59">
+        <v>0</v>
+      </c>
+      <c r="P61" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="57">
+        <v>1</v>
+      </c>
+      <c r="R61" s="58">
+        <v>0</v>
+      </c>
+      <c r="S61" s="58">
+        <v>1</v>
+      </c>
+      <c r="T61" s="59">
+        <v>0</v>
+      </c>
+      <c r="U61" s="40">
+        <v>0</v>
+      </c>
+      <c r="V61" s="40">
+        <v>0</v>
+      </c>
+      <c r="W61" s="57">
+        <v>0</v>
+      </c>
+      <c r="X61" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="57">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="57">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B62" s="37">
@@ -17943,7 +18056,7 @@
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="40" t="s">
         <v>143</v>
       </c>
       <c r="B63" s="37">
@@ -18040,20 +18153,20 @@
         <v>1</v>
       </c>
       <c r="AG63" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="40" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="37">
@@ -18159,6 +18272,116 @@
         <v>1</v>
       </c>
       <c r="AJ64" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="37">
+        <v>1</v>
+      </c>
+      <c r="C65" s="37">
+        <v>0</v>
+      </c>
+      <c r="D65" s="37">
+        <v>0</v>
+      </c>
+      <c r="E65" s="38">
+        <v>0</v>
+      </c>
+      <c r="F65" s="36">
+        <v>0</v>
+      </c>
+      <c r="G65" s="36">
+        <v>0</v>
+      </c>
+      <c r="H65" s="36">
+        <v>0</v>
+      </c>
+      <c r="I65" s="38">
+        <v>0</v>
+      </c>
+      <c r="J65" s="39">
+        <v>0</v>
+      </c>
+      <c r="K65" s="36">
+        <v>0</v>
+      </c>
+      <c r="L65" s="38">
+        <v>0</v>
+      </c>
+      <c r="M65" s="39">
+        <v>0</v>
+      </c>
+      <c r="N65" s="36">
+        <v>0</v>
+      </c>
+      <c r="O65" s="39">
+        <v>0</v>
+      </c>
+      <c r="P65" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="38">
+        <v>1</v>
+      </c>
+      <c r="R65" s="36">
+        <v>0</v>
+      </c>
+      <c r="S65" s="36">
+        <v>1</v>
+      </c>
+      <c r="T65" s="39">
+        <v>0</v>
+      </c>
+      <c r="U65" s="37">
+        <v>0</v>
+      </c>
+      <c r="V65" s="37">
+        <v>0</v>
+      </c>
+      <c r="W65" s="38">
+        <v>0</v>
+      </c>
+      <c r="X65" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="37">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ65" s="39">
         <v>0</v>
       </c>
     </row>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -904,10 +904,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -922,8 +922,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2499,44 +2499,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
@@ -2548,66 +2548,66 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="73" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="74"/>
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="73"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="74"/>
       <c r="S2" s="74"/>
-      <c r="T2" s="73"/>
+      <c r="T2" s="78"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="72" t="s">
+      <c r="W2" s="73" t="s">
         <v>53</v>
       </c>
       <c r="X2" s="74"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="72" t="s">
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="73"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="72" t="s">
+      <c r="AC2" s="73" t="s">
         <v>58</v>
       </c>
       <c r="AD2" s="74"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="72" t="s">
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="73" t="s">
         <v>46</v>
       </c>
       <c r="AG2" s="74"/>
       <c r="AH2" s="74"/>
       <c r="AI2" s="74"/>
-      <c r="AJ2" s="73"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="5"/>
     </row>
@@ -3075,8 +3075,8 @@
       <c r="AI6" s="58">
         <v>0</v>
       </c>
-      <c r="AJ6" s="59">
-        <v>0</v>
+      <c r="AJ6" s="35">
+        <v>1</v>
       </c>
       <c r="AK6" s="5"/>
     </row>
@@ -3186,8 +3186,8 @@
       <c r="AI7" s="55">
         <v>0</v>
       </c>
-      <c r="AJ7" s="56">
-        <v>0</v>
+      <c r="AJ7" s="35">
+        <v>1</v>
       </c>
       <c r="AK7" s="5"/>
     </row>
@@ -3297,8 +3297,8 @@
       <c r="AI8" s="30">
         <v>0</v>
       </c>
-      <c r="AJ8" s="31">
-        <v>0</v>
+      <c r="AJ8" s="35">
+        <v>1</v>
       </c>
       <c r="AK8" s="5"/>
     </row>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="5"/>
     </row>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="5"/>
     </row>
@@ -3630,8 +3630,8 @@
       <c r="AI11" s="52">
         <v>0</v>
       </c>
-      <c r="AJ11" s="53">
-        <v>0</v>
+      <c r="AJ11" s="35">
+        <v>1</v>
       </c>
       <c r="AK11" s="5"/>
     </row>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="5"/>
     </row>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="5"/>
     </row>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="5"/>
     </row>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="5"/>
     </row>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="5"/>
     </row>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="5"/>
     </row>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="5"/>
     </row>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="5"/>
     </row>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="5"/>
     </row>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="5"/>
     </row>
@@ -4851,8 +4851,8 @@
       <c r="AI22" s="58">
         <v>0</v>
       </c>
-      <c r="AJ22" s="59">
-        <v>0</v>
+      <c r="AJ22" s="35">
+        <v>1</v>
       </c>
       <c r="AK22" s="5"/>
     </row>
@@ -4962,8 +4962,8 @@
       <c r="AI23" s="36">
         <v>0</v>
       </c>
-      <c r="AJ23" s="39">
-        <v>0</v>
+      <c r="AJ23" s="35">
+        <v>1</v>
       </c>
       <c r="AK23" s="5"/>
     </row>
@@ -5073,8 +5073,8 @@
       <c r="AI24" s="44">
         <v>0</v>
       </c>
-      <c r="AJ24" s="45">
-        <v>0</v>
+      <c r="AJ24" s="35">
+        <v>1</v>
       </c>
       <c r="AK24" s="5"/>
     </row>
@@ -5184,8 +5184,8 @@
       <c r="AI25" s="36">
         <v>0</v>
       </c>
-      <c r="AJ25" s="39">
-        <v>0</v>
+      <c r="AJ25" s="35">
+        <v>1</v>
       </c>
       <c r="AK25" s="5"/>
     </row>
@@ -5295,8 +5295,8 @@
       <c r="AI26" s="36">
         <v>0</v>
       </c>
-      <c r="AJ26" s="39">
-        <v>0</v>
+      <c r="AJ26" s="35">
+        <v>1</v>
       </c>
       <c r="AK26" s="5"/>
     </row>
@@ -5406,8 +5406,8 @@
       <c r="AI27" s="36">
         <v>0</v>
       </c>
-      <c r="AJ27" s="39">
-        <v>0</v>
+      <c r="AJ27" s="35">
+        <v>1</v>
       </c>
       <c r="AK27" s="5"/>
     </row>
@@ -5517,8 +5517,8 @@
       <c r="AI28" s="36">
         <v>0</v>
       </c>
-      <c r="AJ28" s="39">
-        <v>0</v>
+      <c r="AJ28" s="35">
+        <v>1</v>
       </c>
       <c r="AK28" s="5"/>
     </row>
@@ -5628,8 +5628,8 @@
       <c r="AI29" s="36">
         <v>1</v>
       </c>
-      <c r="AJ29" s="39">
-        <v>0</v>
+      <c r="AJ29" s="35">
+        <v>1</v>
       </c>
       <c r="AK29" s="5"/>
     </row>
@@ -5739,8 +5739,8 @@
       <c r="AI30" s="36">
         <v>0</v>
       </c>
-      <c r="AJ30" s="39">
-        <v>0</v>
+      <c r="AJ30" s="35">
+        <v>1</v>
       </c>
       <c r="AK30" s="5"/>
     </row>
@@ -5850,8 +5850,8 @@
       <c r="AI31" s="36">
         <v>1</v>
       </c>
-      <c r="AJ31" s="39">
-        <v>0</v>
+      <c r="AJ31" s="35">
+        <v>1</v>
       </c>
       <c r="AK31" s="5"/>
     </row>
@@ -5961,8 +5961,8 @@
       <c r="AI32" s="36">
         <v>0</v>
       </c>
-      <c r="AJ32" s="39">
-        <v>0</v>
+      <c r="AJ32" s="35">
+        <v>1</v>
       </c>
       <c r="AK32" s="5"/>
     </row>
@@ -6072,8 +6072,8 @@
       <c r="AI33" s="36">
         <v>0</v>
       </c>
-      <c r="AJ33" s="39">
-        <v>0</v>
+      <c r="AJ33" s="35">
+        <v>1</v>
       </c>
       <c r="AK33" s="5"/>
     </row>
@@ -6183,8 +6183,8 @@
       <c r="AI34" s="36">
         <v>0</v>
       </c>
-      <c r="AJ34" s="39">
-        <v>0</v>
+      <c r="AJ34" s="35">
+        <v>1</v>
       </c>
       <c r="AK34" s="5"/>
     </row>
@@ -6294,8 +6294,8 @@
       <c r="AI35" s="36">
         <v>0</v>
       </c>
-      <c r="AJ35" s="39">
-        <v>0</v>
+      <c r="AJ35" s="35">
+        <v>1</v>
       </c>
       <c r="AK35" s="5"/>
     </row>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="5"/>
     </row>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="5"/>
     </row>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="5"/>
     </row>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="5"/>
     </row>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="5"/>
     </row>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="5"/>
     </row>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="5"/>
     </row>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="5"/>
     </row>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="5"/>
     </row>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="5"/>
     </row>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="5"/>
     </row>
@@ -7626,8 +7626,8 @@
       <c r="AI47" s="55">
         <v>0</v>
       </c>
-      <c r="AJ47" s="56">
-        <v>0</v>
+      <c r="AJ47" s="35">
+        <v>1</v>
       </c>
       <c r="AK47" s="5"/>
     </row>
@@ -7737,8 +7737,8 @@
       <c r="AI48" s="44">
         <v>0</v>
       </c>
-      <c r="AJ48" s="45">
-        <v>0</v>
+      <c r="AJ48" s="35">
+        <v>1</v>
       </c>
       <c r="AK48" s="5"/>
     </row>
@@ -7848,8 +7848,8 @@
       <c r="AI49" s="36">
         <v>0</v>
       </c>
-      <c r="AJ49" s="39">
-        <v>0</v>
+      <c r="AJ49" s="35">
+        <v>1</v>
       </c>
       <c r="AK49" s="5"/>
     </row>
@@ -7959,8 +7959,8 @@
       <c r="AI50" s="44">
         <v>0</v>
       </c>
-      <c r="AJ50" s="45">
-        <v>0</v>
+      <c r="AJ50" s="35">
+        <v>1</v>
       </c>
       <c r="AK50" s="5"/>
     </row>
@@ -8070,8 +8070,8 @@
       <c r="AI51" s="44">
         <v>0</v>
       </c>
-      <c r="AJ51" s="45">
-        <v>0</v>
+      <c r="AJ51" s="35">
+        <v>1</v>
       </c>
       <c r="AK51" s="5"/>
     </row>
@@ -8181,8 +8181,8 @@
       <c r="AI52" s="44">
         <v>0</v>
       </c>
-      <c r="AJ52" s="45">
-        <v>0</v>
+      <c r="AJ52" s="35">
+        <v>1</v>
       </c>
       <c r="AK52" s="5"/>
     </row>
@@ -8292,8 +8292,8 @@
       <c r="AI53" s="48">
         <v>0</v>
       </c>
-      <c r="AJ53" s="49">
-        <v>0</v>
+      <c r="AJ53" s="35">
+        <v>1</v>
       </c>
       <c r="AK53" s="5"/>
     </row>
@@ -8403,8 +8403,8 @@
       <c r="AI54" s="44">
         <v>0</v>
       </c>
-      <c r="AJ54" s="45">
-        <v>0</v>
+      <c r="AJ54" s="35">
+        <v>1</v>
       </c>
       <c r="AK54" s="5"/>
     </row>
@@ -8514,8 +8514,8 @@
       <c r="AI55" s="36">
         <v>0</v>
       </c>
-      <c r="AJ55" s="39">
-        <v>0</v>
+      <c r="AJ55" s="35">
+        <v>1</v>
       </c>
       <c r="AK55" s="5"/>
     </row>
@@ -8625,8 +8625,8 @@
       <c r="AI56" s="36">
         <v>0</v>
       </c>
-      <c r="AJ56" s="39">
-        <v>0</v>
+      <c r="AJ56" s="35">
+        <v>1</v>
       </c>
       <c r="AK56" s="5"/>
     </row>
@@ -8736,8 +8736,8 @@
       <c r="AI57" s="36">
         <v>0</v>
       </c>
-      <c r="AJ57" s="39">
-        <v>0</v>
+      <c r="AJ57" s="35">
+        <v>1</v>
       </c>
       <c r="AK57" s="5"/>
     </row>
@@ -8847,8 +8847,8 @@
       <c r="AI58" s="36">
         <v>0</v>
       </c>
-      <c r="AJ58" s="39">
-        <v>0</v>
+      <c r="AJ58" s="35">
+        <v>1</v>
       </c>
       <c r="AK58" s="5"/>
     </row>
@@ -8958,8 +8958,8 @@
       <c r="AI59" s="36">
         <v>0</v>
       </c>
-      <c r="AJ59" s="39">
-        <v>0</v>
+      <c r="AJ59" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
@@ -9068,8 +9068,8 @@
       <c r="AI60" s="44">
         <v>0</v>
       </c>
-      <c r="AJ60" s="45">
-        <v>0</v>
+      <c r="AJ60" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
@@ -9178,8 +9178,8 @@
       <c r="AI61" s="44">
         <v>0</v>
       </c>
-      <c r="AJ61" s="45">
-        <v>0</v>
+      <c r="AJ61" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
@@ -9288,8 +9288,8 @@
       <c r="AI62" s="36">
         <v>0</v>
       </c>
-      <c r="AJ62" s="39">
-        <v>0</v>
+      <c r="AJ62" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
@@ -9398,8 +9398,8 @@
       <c r="AI63" s="36">
         <v>0</v>
       </c>
-      <c r="AJ63" s="39">
-        <v>0</v>
+      <c r="AJ63" s="35">
+        <v>1</v>
       </c>
       <c r="AK63" s="69"/>
     </row>
@@ -9509,8 +9509,8 @@
       <c r="AI64" s="36">
         <v>0</v>
       </c>
-      <c r="AJ64" s="39">
-        <v>0</v>
+      <c r="AJ64" s="35">
+        <v>1</v>
       </c>
       <c r="AK64" s="69"/>
     </row>
@@ -9620,8 +9620,8 @@
       <c r="AI65" s="58">
         <v>1</v>
       </c>
-      <c r="AJ65" s="59">
-        <v>0</v>
+      <c r="AJ65" s="35">
+        <v>1</v>
       </c>
       <c r="AK65" s="69"/>
     </row>
@@ -9731,8 +9731,8 @@
       <c r="AI66" s="36">
         <v>0</v>
       </c>
-      <c r="AJ66" s="39">
-        <v>0</v>
+      <c r="AJ66" s="35">
+        <v>1</v>
       </c>
       <c r="AK66" s="69"/>
     </row>
@@ -9842,8 +9842,8 @@
       <c r="AI67" s="36">
         <v>0</v>
       </c>
-      <c r="AJ67" s="39">
-        <v>0</v>
+      <c r="AJ67" s="35">
+        <v>1</v>
       </c>
       <c r="AK67" s="69"/>
     </row>
@@ -9953,8 +9953,8 @@
       <c r="AI68" s="36">
         <v>1</v>
       </c>
-      <c r="AJ68" s="39">
-        <v>0</v>
+      <c r="AJ68" s="35">
+        <v>1</v>
       </c>
       <c r="AK68" s="69"/>
     </row>
@@ -10064,8 +10064,8 @@
       <c r="AI69" s="36">
         <v>1</v>
       </c>
-      <c r="AJ69" s="39">
-        <v>0</v>
+      <c r="AJ69" s="35">
+        <v>1</v>
       </c>
       <c r="AK69" s="68"/>
     </row>
@@ -10251,6 +10251,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AF71:AJ71"/>
+    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E71:H71"/>
@@ -10267,9 +10270,6 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF71:AJ71"/>
-    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11225,7 +11225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:AJ65"/>
     </sheetView>
   </sheetViews>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -11451,8 +11451,8 @@
       <c r="AI2" s="58">
         <v>0</v>
       </c>
-      <c r="AJ2" s="59">
-        <v>0</v>
+      <c r="AJ2" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -11561,8 +11561,8 @@
       <c r="AI3" s="55">
         <v>0</v>
       </c>
-      <c r="AJ3" s="56">
-        <v>0</v>
+      <c r="AJ3" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -11671,8 +11671,8 @@
       <c r="AI4" s="30">
         <v>0</v>
       </c>
-      <c r="AJ4" s="31">
-        <v>0</v>
+      <c r="AJ4" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -11782,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -12001,8 +12001,8 @@
       <c r="AI7" s="52">
         <v>0</v>
       </c>
-      <c r="AJ7" s="53">
-        <v>0</v>
+      <c r="AJ7" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -12222,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -13102,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -13211,8 +13211,8 @@
       <c r="AI18" s="58">
         <v>0</v>
       </c>
-      <c r="AJ18" s="59">
-        <v>0</v>
+      <c r="AJ18" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
@@ -13321,8 +13321,8 @@
       <c r="AI19" s="36">
         <v>0</v>
       </c>
-      <c r="AJ19" s="39">
-        <v>0</v>
+      <c r="AJ19" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
@@ -13431,8 +13431,8 @@
       <c r="AI20" s="44">
         <v>0</v>
       </c>
-      <c r="AJ20" s="45">
-        <v>0</v>
+      <c r="AJ20" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
@@ -13541,8 +13541,8 @@
       <c r="AI21" s="36">
         <v>0</v>
       </c>
-      <c r="AJ21" s="39">
-        <v>0</v>
+      <c r="AJ21" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
@@ -13651,8 +13651,8 @@
       <c r="AI22" s="36">
         <v>0</v>
       </c>
-      <c r="AJ22" s="39">
-        <v>0</v>
+      <c r="AJ22" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -13761,8 +13761,8 @@
       <c r="AI23" s="36">
         <v>0</v>
       </c>
-      <c r="AJ23" s="39">
-        <v>0</v>
+      <c r="AJ23" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -13871,8 +13871,8 @@
       <c r="AI24" s="36">
         <v>0</v>
       </c>
-      <c r="AJ24" s="39">
-        <v>0</v>
+      <c r="AJ24" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -13981,8 +13981,8 @@
       <c r="AI25" s="36">
         <v>1</v>
       </c>
-      <c r="AJ25" s="39">
-        <v>0</v>
+      <c r="AJ25" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -14091,8 +14091,8 @@
       <c r="AI26" s="36">
         <v>0</v>
       </c>
-      <c r="AJ26" s="39">
-        <v>0</v>
+      <c r="AJ26" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -14201,8 +14201,8 @@
       <c r="AI27" s="36">
         <v>1</v>
       </c>
-      <c r="AJ27" s="39">
-        <v>0</v>
+      <c r="AJ27" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -14311,8 +14311,8 @@
       <c r="AI28" s="36">
         <v>0</v>
       </c>
-      <c r="AJ28" s="39">
-        <v>0</v>
+      <c r="AJ28" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -14421,8 +14421,8 @@
       <c r="AI29" s="36">
         <v>0</v>
       </c>
-      <c r="AJ29" s="39">
-        <v>0</v>
+      <c r="AJ29" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
@@ -14531,8 +14531,8 @@
       <c r="AI30" s="36">
         <v>0</v>
       </c>
-      <c r="AJ30" s="39">
-        <v>0</v>
+      <c r="AJ30" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -14641,8 +14641,8 @@
       <c r="AI31" s="36">
         <v>0</v>
       </c>
-      <c r="AJ31" s="39">
-        <v>0</v>
+      <c r="AJ31" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -14752,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="AJ32" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
@@ -14862,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
@@ -14972,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
@@ -15082,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
@@ -15192,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
@@ -15302,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
@@ -15632,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
@@ -15742,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
@@ -15852,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
@@ -15961,8 +15961,8 @@
       <c r="AI43" s="55">
         <v>0</v>
       </c>
-      <c r="AJ43" s="56">
-        <v>0</v>
+      <c r="AJ43" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
@@ -16071,8 +16071,8 @@
       <c r="AI44" s="44">
         <v>0</v>
       </c>
-      <c r="AJ44" s="45">
-        <v>0</v>
+      <c r="AJ44" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
@@ -16181,8 +16181,8 @@
       <c r="AI45" s="36">
         <v>0</v>
       </c>
-      <c r="AJ45" s="39">
-        <v>0</v>
+      <c r="AJ45" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
@@ -16291,8 +16291,8 @@
       <c r="AI46" s="44">
         <v>0</v>
       </c>
-      <c r="AJ46" s="45">
-        <v>0</v>
+      <c r="AJ46" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
@@ -16401,8 +16401,8 @@
       <c r="AI47" s="44">
         <v>0</v>
       </c>
-      <c r="AJ47" s="45">
-        <v>0</v>
+      <c r="AJ47" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
@@ -16511,8 +16511,8 @@
       <c r="AI48" s="44">
         <v>0</v>
       </c>
-      <c r="AJ48" s="45">
-        <v>0</v>
+      <c r="AJ48" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
@@ -16621,8 +16621,8 @@
       <c r="AI49" s="48">
         <v>0</v>
       </c>
-      <c r="AJ49" s="49">
-        <v>0</v>
+      <c r="AJ49" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
@@ -16731,8 +16731,8 @@
       <c r="AI50" s="44">
         <v>0</v>
       </c>
-      <c r="AJ50" s="45">
-        <v>0</v>
+      <c r="AJ50" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
@@ -16841,8 +16841,8 @@
       <c r="AI51" s="36">
         <v>0</v>
       </c>
-      <c r="AJ51" s="39">
-        <v>0</v>
+      <c r="AJ51" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
@@ -16951,8 +16951,8 @@
       <c r="AI52" s="36">
         <v>0</v>
       </c>
-      <c r="AJ52" s="39">
-        <v>0</v>
+      <c r="AJ52" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
@@ -17061,8 +17061,8 @@
       <c r="AI53" s="36">
         <v>0</v>
       </c>
-      <c r="AJ53" s="39">
-        <v>0</v>
+      <c r="AJ53" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
@@ -17171,8 +17171,8 @@
       <c r="AI54" s="36">
         <v>0</v>
       </c>
-      <c r="AJ54" s="39">
-        <v>0</v>
+      <c r="AJ54" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
@@ -17281,8 +17281,8 @@
       <c r="AI55" s="36">
         <v>0</v>
       </c>
-      <c r="AJ55" s="39">
-        <v>0</v>
+      <c r="AJ55" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
@@ -17391,8 +17391,8 @@
       <c r="AI56" s="44">
         <v>0</v>
       </c>
-      <c r="AJ56" s="45">
-        <v>0</v>
+      <c r="AJ56" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
@@ -17501,8 +17501,8 @@
       <c r="AI57" s="44">
         <v>0</v>
       </c>
-      <c r="AJ57" s="45">
-        <v>0</v>
+      <c r="AJ57" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
@@ -17611,8 +17611,8 @@
       <c r="AI58" s="36">
         <v>0</v>
       </c>
-      <c r="AJ58" s="39">
-        <v>0</v>
+      <c r="AJ58" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
@@ -17721,8 +17721,8 @@
       <c r="AI59" s="36">
         <v>0</v>
       </c>
-      <c r="AJ59" s="39">
-        <v>0</v>
+      <c r="AJ59" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
@@ -17831,8 +17831,8 @@
       <c r="AI60" s="36">
         <v>0</v>
       </c>
-      <c r="AJ60" s="39">
-        <v>0</v>
+      <c r="AJ60" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
@@ -17941,8 +17941,8 @@
       <c r="AI61" s="58">
         <v>1</v>
       </c>
-      <c r="AJ61" s="59">
-        <v>0</v>
+      <c r="AJ61" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
@@ -18051,8 +18051,8 @@
       <c r="AI62" s="36">
         <v>0</v>
       </c>
-      <c r="AJ62" s="39">
-        <v>0</v>
+      <c r="AJ62" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
@@ -18161,8 +18161,8 @@
       <c r="AI63" s="36">
         <v>0</v>
       </c>
-      <c r="AJ63" s="39">
-        <v>0</v>
+      <c r="AJ63" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
@@ -18271,8 +18271,8 @@
       <c r="AI64" s="36">
         <v>1</v>
       </c>
-      <c r="AJ64" s="39">
-        <v>0</v>
+      <c r="AJ64" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
@@ -18381,8 +18381,8 @@
       <c r="AI65" s="36">
         <v>1</v>
       </c>
-      <c r="AJ65" s="39">
-        <v>0</v>
+      <c r="AJ65" s="35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -904,13 +904,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -922,8 +922,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2468,8 +2468,8 @@
   <dimension ref="A1:AK71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ69" sqref="A5:AJ69"/>
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:AJ69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2499,44 +2499,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
@@ -2548,66 +2548,66 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="73" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="74" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="78"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="73" t="s">
+      <c r="W2" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="73" t="s">
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="78"/>
+      <c r="AA2" s="74"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AC2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="73" t="s">
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="78"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="74"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -5173,13 +5173,13 @@
         <v>0</v>
       </c>
       <c r="AF25" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="36">
         <v>0</v>
       </c>
       <c r="AH25" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="36">
         <v>0</v>
@@ -5395,13 +5395,13 @@
         <v>0</v>
       </c>
       <c r="AF27" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="36">
         <v>0</v>
       </c>
       <c r="AH27" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="36">
         <v>0</v>
@@ -5617,16 +5617,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="36">
         <v>0</v>
       </c>
       <c r="AI29" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="35">
         <v>1</v>
@@ -5839,16 +5839,16 @@
         <v>0</v>
       </c>
       <c r="AF31" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="36">
         <v>0</v>
       </c>
       <c r="AI31" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="35">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="36">
         <v>0</v>
@@ -6172,13 +6172,13 @@
         <v>0</v>
       </c>
       <c r="AF34" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="36">
         <v>0</v>
       </c>
       <c r="AH34" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="36">
         <v>0</v>
@@ -6283,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="AF35" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="36">
         <v>0</v>
@@ -6394,16 +6394,16 @@
         <v>0</v>
       </c>
       <c r="AF36" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="32">
         <v>0</v>
       </c>
       <c r="AI36" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="35">
         <v>1</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="36">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI67" s="36">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="AI68" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="35">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="AI69" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="35">
         <v>1</v>
@@ -10251,6 +10251,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="AF71:AJ71"/>
     <mergeCell ref="AF2:AJ2"/>
@@ -10267,9 +10270,6 @@
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11225,7 +11225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AJ65"/>
     </sheetView>
   </sheetViews>
@@ -13530,13 +13530,13 @@
         <v>0</v>
       </c>
       <c r="AF21" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="36">
         <v>0</v>
       </c>
       <c r="AH21" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="36">
         <v>0</v>
@@ -13750,13 +13750,13 @@
         <v>0</v>
       </c>
       <c r="AF23" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="36">
         <v>0</v>
       </c>
       <c r="AH23" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="36">
         <v>0</v>
@@ -13970,16 +13970,16 @@
         <v>0</v>
       </c>
       <c r="AF25" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="36">
         <v>0</v>
       </c>
       <c r="AI25" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="35">
         <v>1</v>
@@ -14190,16 +14190,16 @@
         <v>0</v>
       </c>
       <c r="AF27" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="36">
         <v>0</v>
       </c>
       <c r="AI27" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="35">
         <v>1</v>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="36">
         <v>0</v>
@@ -14520,13 +14520,13 @@
         <v>0</v>
       </c>
       <c r="AF30" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="36">
         <v>0</v>
       </c>
       <c r="AH30" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="36">
         <v>0</v>
@@ -14630,10 +14630,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="36">
         <v>0</v>
@@ -14740,16 +14740,16 @@
         <v>0</v>
       </c>
       <c r="AF32" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="32">
         <v>0</v>
       </c>
       <c r="AI32" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="35">
         <v>1</v>
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="36">
         <v>0</v>
@@ -18156,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="AH63" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="36">
         <v>0</v>
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="AI64" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="35">
         <v>1</v>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="35">
         <v>1</v>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
@@ -907,10 +907,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2467,9 +2467,9 @@
   </sheetPr>
   <dimension ref="A1:AK71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:AJ69"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2551,33 +2551,33 @@
       <c r="E2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="74"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="74"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
       <c r="Q2" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="73"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
@@ -2587,27 +2587,27 @@
       <c r="W2" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="73"/>
       <c r="Z2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="74"/>
+      <c r="AA2" s="73"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AC2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="73"/>
       <c r="AF2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="73"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -10251,12 +10251,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF71:AJ71"/>
-    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E71:H71"/>
@@ -10270,6 +10264,12 @@
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AF71:AJ71"/>
+    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11225,8 +11225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AJ65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Stage 1" sheetId="2" r:id="rId2"/>
     <sheet name="Stage0_Export" sheetId="3" r:id="rId3"/>
     <sheet name="Stage1_Export" sheetId="5" r:id="rId4"/>
+    <sheet name="State1 Backup" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -904,10 +905,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -922,8 +923,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2468,8 +2469,8 @@
   <dimension ref="A1:AK71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2499,44 +2500,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
@@ -2548,66 +2549,66 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="73" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="74"/>
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="73"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="74"/>
       <c r="S2" s="74"/>
-      <c r="T2" s="73"/>
+      <c r="T2" s="78"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="72" t="s">
+      <c r="W2" s="73" t="s">
         <v>53</v>
       </c>
       <c r="X2" s="74"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="72" t="s">
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="73"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="72" t="s">
+      <c r="AC2" s="73" t="s">
         <v>58</v>
       </c>
       <c r="AD2" s="74"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="72" t="s">
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="73" t="s">
         <v>46</v>
       </c>
       <c r="AG2" s="74"/>
       <c r="AH2" s="74"/>
       <c r="AI2" s="74"/>
-      <c r="AJ2" s="73"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -5668,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="36">
         <v>0</v>
@@ -10251,6 +10252,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AF71:AJ71"/>
+    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E71:H71"/>
@@ -10267,9 +10271,6 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF71:AJ71"/>
-    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11225,8 +11226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18388,4 +18389,6011 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="33">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33">
+        <v>0</v>
+      </c>
+      <c r="D1" s="34">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32">
+        <v>0</v>
+      </c>
+      <c r="H1" s="34">
+        <v>0</v>
+      </c>
+      <c r="I1" s="35">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32">
+        <v>0</v>
+      </c>
+      <c r="K1" s="34">
+        <v>0</v>
+      </c>
+      <c r="L1" s="35">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32">
+        <v>0</v>
+      </c>
+      <c r="N1" s="35">
+        <v>0</v>
+      </c>
+      <c r="O1" s="33">
+        <v>0</v>
+      </c>
+      <c r="P1" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="32">
+        <v>1</v>
+      </c>
+      <c r="R1" s="32">
+        <v>1</v>
+      </c>
+      <c r="S1" s="35">
+        <v>1</v>
+      </c>
+      <c r="T1" s="33">
+        <v>0</v>
+      </c>
+      <c r="U1" s="33">
+        <v>0</v>
+      </c>
+      <c r="V1" s="34">
+        <v>0</v>
+      </c>
+      <c r="W1" s="32">
+        <v>1</v>
+      </c>
+      <c r="X1" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0</v>
+      </c>
+      <c r="J2" s="32">
+        <v>0</v>
+      </c>
+      <c r="K2" s="34">
+        <v>0</v>
+      </c>
+      <c r="L2" s="35">
+        <v>0</v>
+      </c>
+      <c r="M2" s="32">
+        <v>0</v>
+      </c>
+      <c r="N2" s="35">
+        <v>0</v>
+      </c>
+      <c r="O2" s="33">
+        <v>0</v>
+      </c>
+      <c r="P2" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>0</v>
+      </c>
+      <c r="R2" s="32">
+        <v>1</v>
+      </c>
+      <c r="S2" s="35">
+        <v>0</v>
+      </c>
+      <c r="T2" s="33">
+        <v>0</v>
+      </c>
+      <c r="U2" s="33">
+        <v>0</v>
+      </c>
+      <c r="V2" s="34">
+        <v>0</v>
+      </c>
+      <c r="W2" s="32">
+        <v>1</v>
+      </c>
+      <c r="X2" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0</v>
+      </c>
+      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="34">
+        <v>0</v>
+      </c>
+      <c r="L3" s="35">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0</v>
+      </c>
+      <c r="O3" s="33">
+        <v>0</v>
+      </c>
+      <c r="P3" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>0</v>
+      </c>
+      <c r="R3" s="32">
+        <v>1</v>
+      </c>
+      <c r="S3" s="35">
+        <v>0</v>
+      </c>
+      <c r="T3" s="33">
+        <v>0</v>
+      </c>
+      <c r="U3" s="33">
+        <v>0</v>
+      </c>
+      <c r="V3" s="34">
+        <v>0</v>
+      </c>
+      <c r="W3" s="32">
+        <v>1</v>
+      </c>
+      <c r="X3" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33">
+        <v>1</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>0</v>
+      </c>
+      <c r="K4" s="34">
+        <v>0</v>
+      </c>
+      <c r="L4" s="35">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="35">
+        <v>0</v>
+      </c>
+      <c r="O4" s="33">
+        <v>0</v>
+      </c>
+      <c r="P4" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="32">
+        <v>1</v>
+      </c>
+      <c r="S4" s="35">
+        <v>0</v>
+      </c>
+      <c r="T4" s="33">
+        <v>0</v>
+      </c>
+      <c r="U4" s="33">
+        <v>0</v>
+      </c>
+      <c r="V4" s="34">
+        <v>0</v>
+      </c>
+      <c r="W4" s="32">
+        <v>1</v>
+      </c>
+      <c r="X4" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="34">
+        <v>0</v>
+      </c>
+      <c r="L5" s="35">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="35">
+        <v>0</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0</v>
+      </c>
+      <c r="P5" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="32">
+        <v>1</v>
+      </c>
+      <c r="S5" s="35">
+        <v>0</v>
+      </c>
+      <c r="T5" s="33">
+        <v>0</v>
+      </c>
+      <c r="U5" s="33">
+        <v>0</v>
+      </c>
+      <c r="V5" s="34">
+        <v>0</v>
+      </c>
+      <c r="W5" s="32">
+        <v>1</v>
+      </c>
+      <c r="X5" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="34">
+        <v>0</v>
+      </c>
+      <c r="L6" s="35">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="35">
+        <v>0</v>
+      </c>
+      <c r="O6" s="33">
+        <v>0</v>
+      </c>
+      <c r="P6" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1</v>
+      </c>
+      <c r="S6" s="35">
+        <v>0</v>
+      </c>
+      <c r="T6" s="33">
+        <v>0</v>
+      </c>
+      <c r="U6" s="33">
+        <v>0</v>
+      </c>
+      <c r="V6" s="34">
+        <v>0</v>
+      </c>
+      <c r="W6" s="32">
+        <v>1</v>
+      </c>
+      <c r="X6" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0</v>
+      </c>
+      <c r="L7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="35">
+        <v>0</v>
+      </c>
+      <c r="O7" s="33">
+        <v>0</v>
+      </c>
+      <c r="P7" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32">
+        <v>1</v>
+      </c>
+      <c r="S7" s="35">
+        <v>0</v>
+      </c>
+      <c r="T7" s="33">
+        <v>0</v>
+      </c>
+      <c r="U7" s="33">
+        <v>0</v>
+      </c>
+      <c r="V7" s="34">
+        <v>0</v>
+      </c>
+      <c r="W7" s="32">
+        <v>1</v>
+      </c>
+      <c r="X7" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>1</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0</v>
+      </c>
+      <c r="K8" s="34">
+        <v>0</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="35">
+        <v>0</v>
+      </c>
+      <c r="O8" s="33">
+        <v>0</v>
+      </c>
+      <c r="P8" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1</v>
+      </c>
+      <c r="S8" s="35">
+        <v>0</v>
+      </c>
+      <c r="T8" s="33">
+        <v>0</v>
+      </c>
+      <c r="U8" s="33">
+        <v>0</v>
+      </c>
+      <c r="V8" s="34">
+        <v>0</v>
+      </c>
+      <c r="W8" s="32">
+        <v>1</v>
+      </c>
+      <c r="X8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>1</v>
+      </c>
+      <c r="B9" s="40">
+        <v>0</v>
+      </c>
+      <c r="C9" s="40">
+        <v>1</v>
+      </c>
+      <c r="D9" s="57">
+        <v>1</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0</v>
+      </c>
+      <c r="H9" s="57">
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0</v>
+      </c>
+      <c r="K9" s="57">
+        <v>0</v>
+      </c>
+      <c r="L9" s="59">
+        <v>0</v>
+      </c>
+      <c r="M9" s="58">
+        <v>0</v>
+      </c>
+      <c r="N9" s="59">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <v>0</v>
+      </c>
+      <c r="P9" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="58">
+        <v>0</v>
+      </c>
+      <c r="R9" s="58">
+        <v>1</v>
+      </c>
+      <c r="S9" s="59">
+        <v>0</v>
+      </c>
+      <c r="T9" s="40">
+        <v>0</v>
+      </c>
+      <c r="U9" s="40">
+        <v>0</v>
+      </c>
+      <c r="V9" s="57">
+        <v>0</v>
+      </c>
+      <c r="W9" s="58">
+        <v>1</v>
+      </c>
+      <c r="X9" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="57">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37">
+        <v>0</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="I10" s="39">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36">
+        <v>0</v>
+      </c>
+      <c r="K10" s="38">
+        <v>0</v>
+      </c>
+      <c r="L10" s="39">
+        <v>0</v>
+      </c>
+      <c r="M10" s="36">
+        <v>0</v>
+      </c>
+      <c r="N10" s="39">
+        <v>0</v>
+      </c>
+      <c r="O10" s="37">
+        <v>0</v>
+      </c>
+      <c r="P10" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>0</v>
+      </c>
+      <c r="R10" s="36">
+        <v>1</v>
+      </c>
+      <c r="S10" s="39">
+        <v>0</v>
+      </c>
+      <c r="T10" s="37">
+        <v>0</v>
+      </c>
+      <c r="U10" s="37">
+        <v>0</v>
+      </c>
+      <c r="V10" s="38">
+        <v>0</v>
+      </c>
+      <c r="W10" s="36">
+        <v>1</v>
+      </c>
+      <c r="X10" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>1</v>
+      </c>
+      <c r="B11" s="42">
+        <v>0</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0</v>
+      </c>
+      <c r="D11" s="43">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="43">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0</v>
+      </c>
+      <c r="K11" s="43">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="44">
+        <v>0</v>
+      </c>
+      <c r="N11" s="45">
+        <v>0</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0</v>
+      </c>
+      <c r="P11" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>0</v>
+      </c>
+      <c r="R11" s="44">
+        <v>1</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0</v>
+      </c>
+      <c r="T11" s="42">
+        <v>0</v>
+      </c>
+      <c r="U11" s="42">
+        <v>0</v>
+      </c>
+      <c r="V11" s="43">
+        <v>0</v>
+      </c>
+      <c r="W11" s="44">
+        <v>1</v>
+      </c>
+      <c r="X11" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>1</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0</v>
+      </c>
+      <c r="C12" s="37">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36">
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0</v>
+      </c>
+      <c r="L12" s="39">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0</v>
+      </c>
+      <c r="P12" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>0</v>
+      </c>
+      <c r="R12" s="36">
+        <v>1</v>
+      </c>
+      <c r="S12" s="39">
+        <v>0</v>
+      </c>
+      <c r="T12" s="37">
+        <v>0</v>
+      </c>
+      <c r="U12" s="37">
+        <v>0</v>
+      </c>
+      <c r="V12" s="38">
+        <v>0</v>
+      </c>
+      <c r="W12" s="36">
+        <v>0</v>
+      </c>
+      <c r="X12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0</v>
+      </c>
+      <c r="I13" s="39">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="38">
+        <v>0</v>
+      </c>
+      <c r="L13" s="39">
+        <v>1</v>
+      </c>
+      <c r="M13" s="36">
+        <v>0</v>
+      </c>
+      <c r="N13" s="39">
+        <v>0</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0</v>
+      </c>
+      <c r="P13" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>0</v>
+      </c>
+      <c r="R13" s="36">
+        <v>1</v>
+      </c>
+      <c r="S13" s="39">
+        <v>0</v>
+      </c>
+      <c r="T13" s="37">
+        <v>0</v>
+      </c>
+      <c r="U13" s="37">
+        <v>0</v>
+      </c>
+      <c r="V13" s="38">
+        <v>0</v>
+      </c>
+      <c r="W13" s="36">
+        <v>1</v>
+      </c>
+      <c r="X13" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <v>1</v>
+      </c>
+      <c r="B14" s="37">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37">
+        <v>1</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38">
+        <v>0</v>
+      </c>
+      <c r="L14" s="39">
+        <v>0</v>
+      </c>
+      <c r="M14" s="36">
+        <v>0</v>
+      </c>
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="37">
+        <v>0</v>
+      </c>
+      <c r="P14" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>0</v>
+      </c>
+      <c r="R14" s="36">
+        <v>1</v>
+      </c>
+      <c r="S14" s="39">
+        <v>0</v>
+      </c>
+      <c r="T14" s="37">
+        <v>0</v>
+      </c>
+      <c r="U14" s="37">
+        <v>0</v>
+      </c>
+      <c r="V14" s="38">
+        <v>0</v>
+      </c>
+      <c r="W14" s="36">
+        <v>0</v>
+      </c>
+      <c r="X14" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0</v>
+      </c>
+      <c r="C15" s="37">
+        <v>1</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0</v>
+      </c>
+      <c r="I15" s="39">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
+        <v>0</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0</v>
+      </c>
+      <c r="L15" s="39">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
+        <v>0</v>
+      </c>
+      <c r="O15" s="37">
+        <v>0</v>
+      </c>
+      <c r="P15" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>0</v>
+      </c>
+      <c r="R15" s="36">
+        <v>1</v>
+      </c>
+      <c r="S15" s="39">
+        <v>0</v>
+      </c>
+      <c r="T15" s="37">
+        <v>0</v>
+      </c>
+      <c r="U15" s="37">
+        <v>0</v>
+      </c>
+      <c r="V15" s="38">
+        <v>0</v>
+      </c>
+      <c r="W15" s="36">
+        <v>1</v>
+      </c>
+      <c r="X15" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <v>1</v>
+      </c>
+      <c r="B16" s="37">
+        <v>0</v>
+      </c>
+      <c r="C16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0</v>
+      </c>
+      <c r="N16" s="39">
+        <v>0</v>
+      </c>
+      <c r="O16" s="37">
+        <v>0</v>
+      </c>
+      <c r="P16" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>0</v>
+      </c>
+      <c r="R16" s="36">
+        <v>1</v>
+      </c>
+      <c r="S16" s="39">
+        <v>0</v>
+      </c>
+      <c r="T16" s="37">
+        <v>0</v>
+      </c>
+      <c r="U16" s="37">
+        <v>0</v>
+      </c>
+      <c r="V16" s="38">
+        <v>0</v>
+      </c>
+      <c r="W16" s="36">
+        <v>0</v>
+      </c>
+      <c r="X16" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>1</v>
+      </c>
+      <c r="B17" s="37">
+        <v>0</v>
+      </c>
+      <c r="C17" s="37">
+        <v>0</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38">
+        <v>0</v>
+      </c>
+      <c r="I17" s="39">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
+        <v>0</v>
+      </c>
+      <c r="L17" s="39">
+        <v>1</v>
+      </c>
+      <c r="M17" s="36">
+        <v>0</v>
+      </c>
+      <c r="N17" s="39">
+        <v>0</v>
+      </c>
+      <c r="O17" s="37">
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="36">
+        <v>0</v>
+      </c>
+      <c r="R17" s="36">
+        <v>1</v>
+      </c>
+      <c r="S17" s="39">
+        <v>0</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0</v>
+      </c>
+      <c r="V17" s="38">
+        <v>0</v>
+      </c>
+      <c r="W17" s="36">
+        <v>1</v>
+      </c>
+      <c r="X17" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="37">
+        <v>0</v>
+      </c>
+      <c r="C18" s="37">
+        <v>1</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38">
+        <v>0</v>
+      </c>
+      <c r="I18" s="39">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
+        <v>0</v>
+      </c>
+      <c r="K18" s="38">
+        <v>0</v>
+      </c>
+      <c r="L18" s="39">
+        <v>0</v>
+      </c>
+      <c r="M18" s="36">
+        <v>0</v>
+      </c>
+      <c r="N18" s="39">
+        <v>0</v>
+      </c>
+      <c r="O18" s="37">
+        <v>0</v>
+      </c>
+      <c r="P18" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>0</v>
+      </c>
+      <c r="R18" s="36">
+        <v>1</v>
+      </c>
+      <c r="S18" s="39">
+        <v>0</v>
+      </c>
+      <c r="T18" s="37">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37">
+        <v>0</v>
+      </c>
+      <c r="V18" s="38">
+        <v>0</v>
+      </c>
+      <c r="W18" s="36">
+        <v>0</v>
+      </c>
+      <c r="X18" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>1</v>
+      </c>
+      <c r="B19" s="37">
+        <v>0</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="38">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="38">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39">
+        <v>0</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0</v>
+      </c>
+      <c r="K19" s="38">
+        <v>0</v>
+      </c>
+      <c r="L19" s="39">
+        <v>0</v>
+      </c>
+      <c r="M19" s="36">
+        <v>0</v>
+      </c>
+      <c r="N19" s="39">
+        <v>0</v>
+      </c>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>0</v>
+      </c>
+      <c r="R19" s="36">
+        <v>1</v>
+      </c>
+      <c r="S19" s="39">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
+        <v>0</v>
+      </c>
+      <c r="V19" s="38">
+        <v>0</v>
+      </c>
+      <c r="W19" s="36">
+        <v>1</v>
+      </c>
+      <c r="X19" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <v>1</v>
+      </c>
+      <c r="B20" s="37">
+        <v>0</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="38">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="36">
+        <v>0</v>
+      </c>
+      <c r="K20" s="38">
+        <v>0</v>
+      </c>
+      <c r="L20" s="39">
+        <v>0</v>
+      </c>
+      <c r="M20" s="36">
+        <v>0</v>
+      </c>
+      <c r="N20" s="39">
+        <v>0</v>
+      </c>
+      <c r="O20" s="37">
+        <v>0</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>0</v>
+      </c>
+      <c r="R20" s="36">
+        <v>1</v>
+      </c>
+      <c r="S20" s="39">
+        <v>0</v>
+      </c>
+      <c r="T20" s="37">
+        <v>0</v>
+      </c>
+      <c r="U20" s="37">
+        <v>0</v>
+      </c>
+      <c r="V20" s="38">
+        <v>0</v>
+      </c>
+      <c r="W20" s="36">
+        <v>0</v>
+      </c>
+      <c r="X20" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>1</v>
+      </c>
+      <c r="B21" s="37">
+        <v>0</v>
+      </c>
+      <c r="C21" s="37">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0</v>
+      </c>
+      <c r="G21" s="36">
+        <v>0</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0</v>
+      </c>
+      <c r="K21" s="38">
+        <v>0</v>
+      </c>
+      <c r="L21" s="39">
+        <v>0</v>
+      </c>
+      <c r="M21" s="36">
+        <v>0</v>
+      </c>
+      <c r="N21" s="39">
+        <v>0</v>
+      </c>
+      <c r="O21" s="37">
+        <v>0</v>
+      </c>
+      <c r="P21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>0</v>
+      </c>
+      <c r="R21" s="36">
+        <v>1</v>
+      </c>
+      <c r="S21" s="39">
+        <v>0</v>
+      </c>
+      <c r="T21" s="37">
+        <v>0</v>
+      </c>
+      <c r="U21" s="37">
+        <v>0</v>
+      </c>
+      <c r="V21" s="38">
+        <v>0</v>
+      </c>
+      <c r="W21" s="36">
+        <v>0</v>
+      </c>
+      <c r="X21" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37">
+        <v>0</v>
+      </c>
+      <c r="C22" s="37">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <v>0</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="36">
+        <v>0</v>
+      </c>
+      <c r="K22" s="38">
+        <v>0</v>
+      </c>
+      <c r="L22" s="39">
+        <v>0</v>
+      </c>
+      <c r="M22" s="36">
+        <v>0</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0</v>
+      </c>
+      <c r="O22" s="37">
+        <v>0</v>
+      </c>
+      <c r="P22" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>0</v>
+      </c>
+      <c r="R22" s="36">
+        <v>1</v>
+      </c>
+      <c r="S22" s="39">
+        <v>0</v>
+      </c>
+      <c r="T22" s="37">
+        <v>0</v>
+      </c>
+      <c r="U22" s="37">
+        <v>0</v>
+      </c>
+      <c r="V22" s="38">
+        <v>0</v>
+      </c>
+      <c r="W22" s="36">
+        <v>0</v>
+      </c>
+      <c r="X22" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>1</v>
+      </c>
+      <c r="B23" s="33">
+        <v>0</v>
+      </c>
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="35">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="34">
+        <v>0</v>
+      </c>
+      <c r="L23" s="35">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="35">
+        <v>0</v>
+      </c>
+      <c r="O23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>0</v>
+      </c>
+      <c r="R23" s="32">
+        <v>1</v>
+      </c>
+      <c r="S23" s="35">
+        <v>0</v>
+      </c>
+      <c r="T23" s="33">
+        <v>0</v>
+      </c>
+      <c r="U23" s="33">
+        <v>0</v>
+      </c>
+      <c r="V23" s="34">
+        <v>0</v>
+      </c>
+      <c r="W23" s="32">
+        <v>0</v>
+      </c>
+      <c r="X23" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>1</v>
+      </c>
+      <c r="B24" s="33">
+        <v>0</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="35">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34">
+        <v>0</v>
+      </c>
+      <c r="L24" s="35">
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="35">
+        <v>0</v>
+      </c>
+      <c r="O24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>0</v>
+      </c>
+      <c r="R24" s="32">
+        <v>1</v>
+      </c>
+      <c r="S24" s="35">
+        <v>0</v>
+      </c>
+      <c r="T24" s="33">
+        <v>0</v>
+      </c>
+      <c r="U24" s="33">
+        <v>0</v>
+      </c>
+      <c r="V24" s="34">
+        <v>0</v>
+      </c>
+      <c r="W24" s="32">
+        <v>0</v>
+      </c>
+      <c r="X24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>1</v>
+      </c>
+      <c r="B25" s="33">
+        <v>0</v>
+      </c>
+      <c r="C25" s="33">
+        <v>1</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="34">
+        <v>0</v>
+      </c>
+      <c r="L25" s="35">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="35">
+        <v>0</v>
+      </c>
+      <c r="O25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>0</v>
+      </c>
+      <c r="R25" s="32">
+        <v>1</v>
+      </c>
+      <c r="S25" s="35">
+        <v>0</v>
+      </c>
+      <c r="T25" s="33">
+        <v>0</v>
+      </c>
+      <c r="U25" s="33">
+        <v>0</v>
+      </c>
+      <c r="V25" s="34">
+        <v>0</v>
+      </c>
+      <c r="W25" s="32">
+        <v>1</v>
+      </c>
+      <c r="X25" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>1</v>
+      </c>
+      <c r="B26" s="33">
+        <v>0</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="34">
+        <v>0</v>
+      </c>
+      <c r="I26" s="35">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0</v>
+      </c>
+      <c r="K26" s="34">
+        <v>0</v>
+      </c>
+      <c r="L26" s="35">
+        <v>0</v>
+      </c>
+      <c r="M26" s="32">
+        <v>1</v>
+      </c>
+      <c r="N26" s="35">
+        <v>0</v>
+      </c>
+      <c r="O26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>0</v>
+      </c>
+      <c r="R26" s="32">
+        <v>1</v>
+      </c>
+      <c r="S26" s="35">
+        <v>0</v>
+      </c>
+      <c r="T26" s="33">
+        <v>0</v>
+      </c>
+      <c r="U26" s="33">
+        <v>1</v>
+      </c>
+      <c r="V26" s="34">
+        <v>0</v>
+      </c>
+      <c r="W26" s="32">
+        <v>1</v>
+      </c>
+      <c r="X26" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33">
+        <v>0</v>
+      </c>
+      <c r="C27" s="33">
+        <v>0</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0</v>
+      </c>
+      <c r="I27" s="35">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0</v>
+      </c>
+      <c r="K27" s="34">
+        <v>0</v>
+      </c>
+      <c r="L27" s="35">
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <v>1</v>
+      </c>
+      <c r="N27" s="35">
+        <v>1</v>
+      </c>
+      <c r="O27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>0</v>
+      </c>
+      <c r="R27" s="32">
+        <v>1</v>
+      </c>
+      <c r="S27" s="35">
+        <v>0</v>
+      </c>
+      <c r="T27" s="33">
+        <v>0</v>
+      </c>
+      <c r="U27" s="33">
+        <v>0</v>
+      </c>
+      <c r="V27" s="34">
+        <v>0</v>
+      </c>
+      <c r="W27" s="32">
+        <v>1</v>
+      </c>
+      <c r="X27" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>1</v>
+      </c>
+      <c r="B28" s="33">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0</v>
+      </c>
+      <c r="H28" s="34">
+        <v>1</v>
+      </c>
+      <c r="I28" s="35">
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0</v>
+      </c>
+      <c r="K28" s="34">
+        <v>0</v>
+      </c>
+      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
+        <v>0</v>
+      </c>
+      <c r="O28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>0</v>
+      </c>
+      <c r="R28" s="32">
+        <v>1</v>
+      </c>
+      <c r="S28" s="35">
+        <v>0</v>
+      </c>
+      <c r="T28" s="33">
+        <v>0</v>
+      </c>
+      <c r="U28" s="33">
+        <v>0</v>
+      </c>
+      <c r="V28" s="34">
+        <v>0</v>
+      </c>
+      <c r="W28" s="32">
+        <v>1</v>
+      </c>
+      <c r="X28" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>1</v>
+      </c>
+      <c r="B29" s="33">
+        <v>1</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="34">
+        <v>0</v>
+      </c>
+      <c r="L29" s="35">
+        <v>0</v>
+      </c>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="35">
+        <v>0</v>
+      </c>
+      <c r="O29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>0</v>
+      </c>
+      <c r="R29" s="32">
+        <v>1</v>
+      </c>
+      <c r="S29" s="35">
+        <v>0</v>
+      </c>
+      <c r="T29" s="33">
+        <v>0</v>
+      </c>
+      <c r="U29" s="33">
+        <v>0</v>
+      </c>
+      <c r="V29" s="34">
+        <v>0</v>
+      </c>
+      <c r="W29" s="32">
+        <v>1</v>
+      </c>
+      <c r="X29" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>1</v>
+      </c>
+      <c r="B30" s="33">
+        <v>0</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="34">
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <v>0</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0</v>
+      </c>
+      <c r="K30" s="34">
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <v>0</v>
+      </c>
+      <c r="M30" s="32">
+        <v>1</v>
+      </c>
+      <c r="N30" s="35">
+        <v>0</v>
+      </c>
+      <c r="O30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="32">
+        <v>0</v>
+      </c>
+      <c r="R30" s="32">
+        <v>1</v>
+      </c>
+      <c r="S30" s="35">
+        <v>0</v>
+      </c>
+      <c r="T30" s="33">
+        <v>0</v>
+      </c>
+      <c r="U30" s="33">
+        <v>1</v>
+      </c>
+      <c r="V30" s="34">
+        <v>0</v>
+      </c>
+      <c r="W30" s="32">
+        <v>1</v>
+      </c>
+      <c r="X30" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>1</v>
+      </c>
+      <c r="B31" s="33">
+        <v>0</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0</v>
+      </c>
+      <c r="H31" s="34">
+        <v>0</v>
+      </c>
+      <c r="I31" s="35">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32">
+        <v>1</v>
+      </c>
+      <c r="K31" s="34">
+        <v>1</v>
+      </c>
+      <c r="L31" s="35">
+        <v>0</v>
+      </c>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="35">
+        <v>0</v>
+      </c>
+      <c r="O31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>0</v>
+      </c>
+      <c r="R31" s="32">
+        <v>1</v>
+      </c>
+      <c r="S31" s="35">
+        <v>0</v>
+      </c>
+      <c r="T31" s="33">
+        <v>0</v>
+      </c>
+      <c r="U31" s="33">
+        <v>0</v>
+      </c>
+      <c r="V31" s="34">
+        <v>0</v>
+      </c>
+      <c r="W31" s="32">
+        <v>1</v>
+      </c>
+      <c r="X31" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>1</v>
+      </c>
+      <c r="B32" s="33">
+        <v>0</v>
+      </c>
+      <c r="C32" s="33">
+        <v>0</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="34">
+        <v>0</v>
+      </c>
+      <c r="I32" s="35">
+        <v>0</v>
+      </c>
+      <c r="J32" s="32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="34">
+        <v>0</v>
+      </c>
+      <c r="L32" s="35">
+        <v>0</v>
+      </c>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="35">
+        <v>0</v>
+      </c>
+      <c r="O32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>0</v>
+      </c>
+      <c r="R32" s="32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="35">
+        <v>0</v>
+      </c>
+      <c r="T32" s="33">
+        <v>0</v>
+      </c>
+      <c r="U32" s="33">
+        <v>0</v>
+      </c>
+      <c r="V32" s="34">
+        <v>0</v>
+      </c>
+      <c r="W32" s="32">
+        <v>1</v>
+      </c>
+      <c r="X32" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0</v>
+      </c>
+      <c r="G33" s="32">
+        <v>0</v>
+      </c>
+      <c r="H33" s="34">
+        <v>0</v>
+      </c>
+      <c r="I33" s="35">
+        <v>0</v>
+      </c>
+      <c r="J33" s="32">
+        <v>0</v>
+      </c>
+      <c r="K33" s="34">
+        <v>0</v>
+      </c>
+      <c r="L33" s="35">
+        <v>0</v>
+      </c>
+      <c r="M33" s="32">
+        <v>1</v>
+      </c>
+      <c r="N33" s="35">
+        <v>0</v>
+      </c>
+      <c r="O33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>0</v>
+      </c>
+      <c r="R33" s="32">
+        <v>1</v>
+      </c>
+      <c r="S33" s="35">
+        <v>0</v>
+      </c>
+      <c r="T33" s="33">
+        <v>0</v>
+      </c>
+      <c r="U33" s="33">
+        <v>1</v>
+      </c>
+      <c r="V33" s="34">
+        <v>0</v>
+      </c>
+      <c r="W33" s="32">
+        <v>1</v>
+      </c>
+      <c r="X33" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>1</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="54">
+        <v>0</v>
+      </c>
+      <c r="E34" s="55">
+        <v>0</v>
+      </c>
+      <c r="F34" s="55">
+        <v>0</v>
+      </c>
+      <c r="G34" s="55">
+        <v>0</v>
+      </c>
+      <c r="H34" s="54">
+        <v>0</v>
+      </c>
+      <c r="I34" s="56">
+        <v>0</v>
+      </c>
+      <c r="J34" s="55">
+        <v>0</v>
+      </c>
+      <c r="K34" s="54">
+        <v>0</v>
+      </c>
+      <c r="L34" s="56">
+        <v>0</v>
+      </c>
+      <c r="M34" s="55">
+        <v>0</v>
+      </c>
+      <c r="N34" s="56">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="55">
+        <v>0</v>
+      </c>
+      <c r="R34" s="55">
+        <v>1</v>
+      </c>
+      <c r="S34" s="56">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="54">
+        <v>0</v>
+      </c>
+      <c r="W34" s="55">
+        <v>1</v>
+      </c>
+      <c r="X34" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="54">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="54">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="55">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="55">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="55">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="55">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="42">
+        <v>1</v>
+      </c>
+      <c r="B35" s="42">
+        <v>0</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43">
+        <v>0</v>
+      </c>
+      <c r="E35" s="44">
+        <v>0</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0</v>
+      </c>
+      <c r="G35" s="44">
+        <v>0</v>
+      </c>
+      <c r="H35" s="43">
+        <v>0</v>
+      </c>
+      <c r="I35" s="45">
+        <v>0</v>
+      </c>
+      <c r="J35" s="44">
+        <v>0</v>
+      </c>
+      <c r="K35" s="43">
+        <v>0</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0</v>
+      </c>
+      <c r="M35" s="44">
+        <v>0</v>
+      </c>
+      <c r="N35" s="45">
+        <v>0</v>
+      </c>
+      <c r="O35" s="42">
+        <v>0</v>
+      </c>
+      <c r="P35" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="44">
+        <v>0</v>
+      </c>
+      <c r="R35" s="44">
+        <v>1</v>
+      </c>
+      <c r="S35" s="45">
+        <v>0</v>
+      </c>
+      <c r="T35" s="42">
+        <v>0</v>
+      </c>
+      <c r="U35" s="42">
+        <v>0</v>
+      </c>
+      <c r="V35" s="43">
+        <v>0</v>
+      </c>
+      <c r="W35" s="44">
+        <v>1</v>
+      </c>
+      <c r="X35" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>1</v>
+      </c>
+      <c r="B36" s="37">
+        <v>0</v>
+      </c>
+      <c r="C36" s="37">
+        <v>0</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
+      <c r="E36" s="36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0</v>
+      </c>
+      <c r="I36" s="39">
+        <v>0</v>
+      </c>
+      <c r="J36" s="36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="38">
+        <v>0</v>
+      </c>
+      <c r="L36" s="39">
+        <v>0</v>
+      </c>
+      <c r="M36" s="36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="39">
+        <v>0</v>
+      </c>
+      <c r="O36" s="37">
+        <v>0</v>
+      </c>
+      <c r="P36" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="36">
+        <v>0</v>
+      </c>
+      <c r="R36" s="36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="39">
+        <v>0</v>
+      </c>
+      <c r="T36" s="37">
+        <v>0</v>
+      </c>
+      <c r="U36" s="37">
+        <v>1</v>
+      </c>
+      <c r="V36" s="38">
+        <v>0</v>
+      </c>
+      <c r="W36" s="36">
+        <v>1</v>
+      </c>
+      <c r="X36" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="42">
+        <v>1</v>
+      </c>
+      <c r="B37" s="42">
+        <v>0</v>
+      </c>
+      <c r="C37" s="42">
+        <v>0</v>
+      </c>
+      <c r="D37" s="43">
+        <v>0</v>
+      </c>
+      <c r="E37" s="44">
+        <v>0</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0</v>
+      </c>
+      <c r="G37" s="44">
+        <v>0</v>
+      </c>
+      <c r="H37" s="43">
+        <v>0</v>
+      </c>
+      <c r="I37" s="45">
+        <v>0</v>
+      </c>
+      <c r="J37" s="44">
+        <v>0</v>
+      </c>
+      <c r="K37" s="43">
+        <v>0</v>
+      </c>
+      <c r="L37" s="45">
+        <v>0</v>
+      </c>
+      <c r="M37" s="44">
+        <v>0</v>
+      </c>
+      <c r="N37" s="45">
+        <v>0</v>
+      </c>
+      <c r="O37" s="42">
+        <v>0</v>
+      </c>
+      <c r="P37" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="44">
+        <v>0</v>
+      </c>
+      <c r="R37" s="44">
+        <v>1</v>
+      </c>
+      <c r="S37" s="45">
+        <v>0</v>
+      </c>
+      <c r="T37" s="42">
+        <v>0</v>
+      </c>
+      <c r="U37" s="42">
+        <v>0</v>
+      </c>
+      <c r="V37" s="43">
+        <v>0</v>
+      </c>
+      <c r="W37" s="44">
+        <v>1</v>
+      </c>
+      <c r="X37" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="42">
+        <v>1</v>
+      </c>
+      <c r="B38" s="42">
+        <v>0</v>
+      </c>
+      <c r="C38" s="42">
+        <v>0</v>
+      </c>
+      <c r="D38" s="43">
+        <v>0</v>
+      </c>
+      <c r="E38" s="44">
+        <v>0</v>
+      </c>
+      <c r="F38" s="44">
+        <v>0</v>
+      </c>
+      <c r="G38" s="44">
+        <v>0</v>
+      </c>
+      <c r="H38" s="43">
+        <v>0</v>
+      </c>
+      <c r="I38" s="45">
+        <v>0</v>
+      </c>
+      <c r="J38" s="44">
+        <v>0</v>
+      </c>
+      <c r="K38" s="43">
+        <v>0</v>
+      </c>
+      <c r="L38" s="45">
+        <v>0</v>
+      </c>
+      <c r="M38" s="44">
+        <v>0</v>
+      </c>
+      <c r="N38" s="45">
+        <v>0</v>
+      </c>
+      <c r="O38" s="42">
+        <v>0</v>
+      </c>
+      <c r="P38" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="44">
+        <v>0</v>
+      </c>
+      <c r="R38" s="44">
+        <v>1</v>
+      </c>
+      <c r="S38" s="45">
+        <v>0</v>
+      </c>
+      <c r="T38" s="42">
+        <v>0</v>
+      </c>
+      <c r="U38" s="42">
+        <v>0</v>
+      </c>
+      <c r="V38" s="43">
+        <v>0</v>
+      </c>
+      <c r="W38" s="44">
+        <v>1</v>
+      </c>
+      <c r="X38" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="42">
+        <v>1</v>
+      </c>
+      <c r="B39" s="42">
+        <v>0</v>
+      </c>
+      <c r="C39" s="42">
+        <v>0</v>
+      </c>
+      <c r="D39" s="43">
+        <v>0</v>
+      </c>
+      <c r="E39" s="44">
+        <v>0</v>
+      </c>
+      <c r="F39" s="44">
+        <v>0</v>
+      </c>
+      <c r="G39" s="44">
+        <v>0</v>
+      </c>
+      <c r="H39" s="43">
+        <v>0</v>
+      </c>
+      <c r="I39" s="45">
+        <v>0</v>
+      </c>
+      <c r="J39" s="44">
+        <v>0</v>
+      </c>
+      <c r="K39" s="43">
+        <v>0</v>
+      </c>
+      <c r="L39" s="45">
+        <v>0</v>
+      </c>
+      <c r="M39" s="44">
+        <v>0</v>
+      </c>
+      <c r="N39" s="45">
+        <v>0</v>
+      </c>
+      <c r="O39" s="42">
+        <v>0</v>
+      </c>
+      <c r="P39" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="44">
+        <v>0</v>
+      </c>
+      <c r="R39" s="44">
+        <v>1</v>
+      </c>
+      <c r="S39" s="45">
+        <v>0</v>
+      </c>
+      <c r="T39" s="42">
+        <v>0</v>
+      </c>
+      <c r="U39" s="42">
+        <v>0</v>
+      </c>
+      <c r="V39" s="43">
+        <v>0</v>
+      </c>
+      <c r="W39" s="44">
+        <v>1</v>
+      </c>
+      <c r="X39" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="46">
+        <v>1</v>
+      </c>
+      <c r="B40" s="46">
+        <v>0</v>
+      </c>
+      <c r="C40" s="46">
+        <v>0</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="48">
+        <v>0</v>
+      </c>
+      <c r="F40" s="48">
+        <v>0</v>
+      </c>
+      <c r="G40" s="48">
+        <v>0</v>
+      </c>
+      <c r="H40" s="47">
+        <v>0</v>
+      </c>
+      <c r="I40" s="49">
+        <v>0</v>
+      </c>
+      <c r="J40" s="48">
+        <v>0</v>
+      </c>
+      <c r="K40" s="47">
+        <v>0</v>
+      </c>
+      <c r="L40" s="49">
+        <v>0</v>
+      </c>
+      <c r="M40" s="48">
+        <v>0</v>
+      </c>
+      <c r="N40" s="49">
+        <v>0</v>
+      </c>
+      <c r="O40" s="46">
+        <v>0</v>
+      </c>
+      <c r="P40" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="48">
+        <v>0</v>
+      </c>
+      <c r="R40" s="48">
+        <v>1</v>
+      </c>
+      <c r="S40" s="49">
+        <v>0</v>
+      </c>
+      <c r="T40" s="46">
+        <v>0</v>
+      </c>
+      <c r="U40" s="46">
+        <v>0</v>
+      </c>
+      <c r="V40" s="47">
+        <v>0</v>
+      </c>
+      <c r="W40" s="48">
+        <v>1</v>
+      </c>
+      <c r="X40" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="47">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="48">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="48">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="48">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="42">
+        <v>1</v>
+      </c>
+      <c r="B41" s="42">
+        <v>0</v>
+      </c>
+      <c r="C41" s="42">
+        <v>0</v>
+      </c>
+      <c r="D41" s="43">
+        <v>0</v>
+      </c>
+      <c r="E41" s="44">
+        <v>0</v>
+      </c>
+      <c r="F41" s="44">
+        <v>0</v>
+      </c>
+      <c r="G41" s="44">
+        <v>0</v>
+      </c>
+      <c r="H41" s="43">
+        <v>0</v>
+      </c>
+      <c r="I41" s="45">
+        <v>0</v>
+      </c>
+      <c r="J41" s="44">
+        <v>0</v>
+      </c>
+      <c r="K41" s="43">
+        <v>0</v>
+      </c>
+      <c r="L41" s="45">
+        <v>0</v>
+      </c>
+      <c r="M41" s="44">
+        <v>0</v>
+      </c>
+      <c r="N41" s="45">
+        <v>0</v>
+      </c>
+      <c r="O41" s="42">
+        <v>0</v>
+      </c>
+      <c r="P41" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="44">
+        <v>0</v>
+      </c>
+      <c r="R41" s="44">
+        <v>1</v>
+      </c>
+      <c r="S41" s="45">
+        <v>0</v>
+      </c>
+      <c r="T41" s="42">
+        <v>0</v>
+      </c>
+      <c r="U41" s="42">
+        <v>0</v>
+      </c>
+      <c r="V41" s="43">
+        <v>0</v>
+      </c>
+      <c r="W41" s="44">
+        <v>1</v>
+      </c>
+      <c r="X41" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>1</v>
+      </c>
+      <c r="B42" s="37">
+        <v>0</v>
+      </c>
+      <c r="C42" s="37">
+        <v>0</v>
+      </c>
+      <c r="D42" s="38">
+        <v>0</v>
+      </c>
+      <c r="E42" s="36">
+        <v>0</v>
+      </c>
+      <c r="F42" s="36">
+        <v>0</v>
+      </c>
+      <c r="G42" s="36">
+        <v>0</v>
+      </c>
+      <c r="H42" s="38">
+        <v>0</v>
+      </c>
+      <c r="I42" s="39">
+        <v>0</v>
+      </c>
+      <c r="J42" s="36">
+        <v>0</v>
+      </c>
+      <c r="K42" s="38">
+        <v>0</v>
+      </c>
+      <c r="L42" s="39">
+        <v>0</v>
+      </c>
+      <c r="M42" s="36">
+        <v>0</v>
+      </c>
+      <c r="N42" s="39">
+        <v>0</v>
+      </c>
+      <c r="O42" s="37">
+        <v>0</v>
+      </c>
+      <c r="P42" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="36">
+        <v>0</v>
+      </c>
+      <c r="R42" s="36">
+        <v>1</v>
+      </c>
+      <c r="S42" s="39">
+        <v>0</v>
+      </c>
+      <c r="T42" s="37">
+        <v>0</v>
+      </c>
+      <c r="U42" s="37">
+        <v>0</v>
+      </c>
+      <c r="V42" s="38">
+        <v>0</v>
+      </c>
+      <c r="W42" s="36">
+        <v>1</v>
+      </c>
+      <c r="X42" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>1</v>
+      </c>
+      <c r="B43" s="37">
+        <v>0</v>
+      </c>
+      <c r="C43" s="37">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38">
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
+        <v>0</v>
+      </c>
+      <c r="F43" s="36">
+        <v>0</v>
+      </c>
+      <c r="G43" s="36">
+        <v>0</v>
+      </c>
+      <c r="H43" s="38">
+        <v>0</v>
+      </c>
+      <c r="I43" s="39">
+        <v>0</v>
+      </c>
+      <c r="J43" s="36">
+        <v>0</v>
+      </c>
+      <c r="K43" s="38">
+        <v>0</v>
+      </c>
+      <c r="L43" s="39">
+        <v>0</v>
+      </c>
+      <c r="M43" s="36">
+        <v>0</v>
+      </c>
+      <c r="N43" s="39">
+        <v>0</v>
+      </c>
+      <c r="O43" s="37">
+        <v>0</v>
+      </c>
+      <c r="P43" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="36">
+        <v>1</v>
+      </c>
+      <c r="R43" s="36">
+        <v>1</v>
+      </c>
+      <c r="S43" s="39">
+        <v>1</v>
+      </c>
+      <c r="T43" s="37">
+        <v>0</v>
+      </c>
+      <c r="U43" s="37">
+        <v>0</v>
+      </c>
+      <c r="V43" s="38">
+        <v>0</v>
+      </c>
+      <c r="W43" s="36">
+        <v>1</v>
+      </c>
+      <c r="X43" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
+        <v>1</v>
+      </c>
+      <c r="B44" s="37">
+        <v>0</v>
+      </c>
+      <c r="C44" s="37">
+        <v>1</v>
+      </c>
+      <c r="D44" s="38">
+        <v>0</v>
+      </c>
+      <c r="E44" s="36">
+        <v>0</v>
+      </c>
+      <c r="F44" s="36">
+        <v>1</v>
+      </c>
+      <c r="G44" s="36">
+        <v>1</v>
+      </c>
+      <c r="H44" s="38">
+        <v>0</v>
+      </c>
+      <c r="I44" s="39">
+        <v>0</v>
+      </c>
+      <c r="J44" s="36">
+        <v>0</v>
+      </c>
+      <c r="K44" s="38">
+        <v>0</v>
+      </c>
+      <c r="L44" s="39">
+        <v>0</v>
+      </c>
+      <c r="M44" s="36">
+        <v>0</v>
+      </c>
+      <c r="N44" s="39">
+        <v>0</v>
+      </c>
+      <c r="O44" s="37">
+        <v>0</v>
+      </c>
+      <c r="P44" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="36">
+        <v>0</v>
+      </c>
+      <c r="R44" s="36">
+        <v>1</v>
+      </c>
+      <c r="S44" s="39">
+        <v>0</v>
+      </c>
+      <c r="T44" s="37">
+        <v>0</v>
+      </c>
+      <c r="U44" s="37">
+        <v>0</v>
+      </c>
+      <c r="V44" s="38">
+        <v>0</v>
+      </c>
+      <c r="W44" s="36">
+        <v>1</v>
+      </c>
+      <c r="X44" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
+        <v>1</v>
+      </c>
+      <c r="B45" s="37">
+        <v>0</v>
+      </c>
+      <c r="C45" s="37">
+        <v>1</v>
+      </c>
+      <c r="D45" s="38">
+        <v>0</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0</v>
+      </c>
+      <c r="F45" s="36">
+        <v>0</v>
+      </c>
+      <c r="G45" s="36">
+        <v>0</v>
+      </c>
+      <c r="H45" s="38">
+        <v>0</v>
+      </c>
+      <c r="I45" s="39">
+        <v>0</v>
+      </c>
+      <c r="J45" s="36">
+        <v>0</v>
+      </c>
+      <c r="K45" s="38">
+        <v>0</v>
+      </c>
+      <c r="L45" s="39">
+        <v>0</v>
+      </c>
+      <c r="M45" s="36">
+        <v>0</v>
+      </c>
+      <c r="N45" s="39">
+        <v>0</v>
+      </c>
+      <c r="O45" s="37">
+        <v>0</v>
+      </c>
+      <c r="P45" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="36">
+        <v>0</v>
+      </c>
+      <c r="R45" s="36">
+        <v>1</v>
+      </c>
+      <c r="S45" s="39">
+        <v>0</v>
+      </c>
+      <c r="T45" s="37">
+        <v>0</v>
+      </c>
+      <c r="U45" s="37">
+        <v>0</v>
+      </c>
+      <c r="V45" s="38">
+        <v>1</v>
+      </c>
+      <c r="W45" s="36">
+        <v>0</v>
+      </c>
+      <c r="X45" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
+        <v>1</v>
+      </c>
+      <c r="B46" s="37">
+        <v>0</v>
+      </c>
+      <c r="C46" s="37">
+        <v>0</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0</v>
+      </c>
+      <c r="E46" s="36">
+        <v>0</v>
+      </c>
+      <c r="F46" s="36">
+        <v>0</v>
+      </c>
+      <c r="G46" s="36">
+        <v>0</v>
+      </c>
+      <c r="H46" s="38">
+        <v>0</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="36">
+        <v>0</v>
+      </c>
+      <c r="K46" s="38">
+        <v>0</v>
+      </c>
+      <c r="L46" s="39">
+        <v>0</v>
+      </c>
+      <c r="M46" s="36">
+        <v>0</v>
+      </c>
+      <c r="N46" s="39">
+        <v>0</v>
+      </c>
+      <c r="O46" s="37">
+        <v>0</v>
+      </c>
+      <c r="P46" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="36">
+        <v>0</v>
+      </c>
+      <c r="R46" s="36">
+        <v>1</v>
+      </c>
+      <c r="S46" s="39">
+        <v>0</v>
+      </c>
+      <c r="T46" s="37">
+        <v>0</v>
+      </c>
+      <c r="U46" s="37">
+        <v>0</v>
+      </c>
+      <c r="V46" s="38">
+        <v>0</v>
+      </c>
+      <c r="W46" s="36">
+        <v>1</v>
+      </c>
+      <c r="X46" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" s="42">
+        <v>1</v>
+      </c>
+      <c r="B47" s="42">
+        <v>0</v>
+      </c>
+      <c r="C47" s="42">
+        <v>0</v>
+      </c>
+      <c r="D47" s="43">
+        <v>0</v>
+      </c>
+      <c r="E47" s="44">
+        <v>0</v>
+      </c>
+      <c r="F47" s="44">
+        <v>0</v>
+      </c>
+      <c r="G47" s="44">
+        <v>0</v>
+      </c>
+      <c r="H47" s="43">
+        <v>0</v>
+      </c>
+      <c r="I47" s="45">
+        <v>0</v>
+      </c>
+      <c r="J47" s="44">
+        <v>0</v>
+      </c>
+      <c r="K47" s="43">
+        <v>0</v>
+      </c>
+      <c r="L47" s="45">
+        <v>0</v>
+      </c>
+      <c r="M47" s="44">
+        <v>0</v>
+      </c>
+      <c r="N47" s="45">
+        <v>0</v>
+      </c>
+      <c r="O47" s="42">
+        <v>0</v>
+      </c>
+      <c r="P47" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="44">
+        <v>1</v>
+      </c>
+      <c r="R47" s="44">
+        <v>1</v>
+      </c>
+      <c r="S47" s="45">
+        <v>0</v>
+      </c>
+      <c r="T47" s="42">
+        <v>0</v>
+      </c>
+      <c r="U47" s="42">
+        <v>0</v>
+      </c>
+      <c r="V47" s="43">
+        <v>0</v>
+      </c>
+      <c r="W47" s="44">
+        <v>1</v>
+      </c>
+      <c r="X47" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" s="42">
+        <v>1</v>
+      </c>
+      <c r="B48" s="42">
+        <v>0</v>
+      </c>
+      <c r="C48" s="42">
+        <v>0</v>
+      </c>
+      <c r="D48" s="43">
+        <v>0</v>
+      </c>
+      <c r="E48" s="44">
+        <v>0</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0</v>
+      </c>
+      <c r="G48" s="44">
+        <v>0</v>
+      </c>
+      <c r="H48" s="43">
+        <v>0</v>
+      </c>
+      <c r="I48" s="45">
+        <v>0</v>
+      </c>
+      <c r="J48" s="44">
+        <v>0</v>
+      </c>
+      <c r="K48" s="43">
+        <v>0</v>
+      </c>
+      <c r="L48" s="45">
+        <v>0</v>
+      </c>
+      <c r="M48" s="44">
+        <v>0</v>
+      </c>
+      <c r="N48" s="45">
+        <v>0</v>
+      </c>
+      <c r="O48" s="42">
+        <v>0</v>
+      </c>
+      <c r="P48" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="44">
+        <v>1</v>
+      </c>
+      <c r="R48" s="44">
+        <v>1</v>
+      </c>
+      <c r="S48" s="45">
+        <v>0</v>
+      </c>
+      <c r="T48" s="42">
+        <v>0</v>
+      </c>
+      <c r="U48" s="42">
+        <v>0</v>
+      </c>
+      <c r="V48" s="43">
+        <v>0</v>
+      </c>
+      <c r="W48" s="44">
+        <v>1</v>
+      </c>
+      <c r="X48" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="37">
+        <v>1</v>
+      </c>
+      <c r="B49" s="37">
+        <v>0</v>
+      </c>
+      <c r="C49" s="37">
+        <v>0</v>
+      </c>
+      <c r="D49" s="38">
+        <v>0</v>
+      </c>
+      <c r="E49" s="36">
+        <v>0</v>
+      </c>
+      <c r="F49" s="36">
+        <v>0</v>
+      </c>
+      <c r="G49" s="36">
+        <v>0</v>
+      </c>
+      <c r="H49" s="38">
+        <v>0</v>
+      </c>
+      <c r="I49" s="39">
+        <v>0</v>
+      </c>
+      <c r="J49" s="36">
+        <v>0</v>
+      </c>
+      <c r="K49" s="38">
+        <v>0</v>
+      </c>
+      <c r="L49" s="39">
+        <v>0</v>
+      </c>
+      <c r="M49" s="36">
+        <v>0</v>
+      </c>
+      <c r="N49" s="39">
+        <v>0</v>
+      </c>
+      <c r="O49" s="37">
+        <v>0</v>
+      </c>
+      <c r="P49" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="36">
+        <v>0</v>
+      </c>
+      <c r="R49" s="36">
+        <v>1</v>
+      </c>
+      <c r="S49" s="39">
+        <v>0</v>
+      </c>
+      <c r="T49" s="37">
+        <v>0</v>
+      </c>
+      <c r="U49" s="37">
+        <v>0</v>
+      </c>
+      <c r="V49" s="38">
+        <v>0</v>
+      </c>
+      <c r="W49" s="36">
+        <v>0</v>
+      </c>
+      <c r="X49" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="37">
+        <v>1</v>
+      </c>
+      <c r="B50" s="37">
+        <v>0</v>
+      </c>
+      <c r="C50" s="37">
+        <v>1</v>
+      </c>
+      <c r="D50" s="38">
+        <v>0</v>
+      </c>
+      <c r="E50" s="36">
+        <v>0</v>
+      </c>
+      <c r="F50" s="36">
+        <v>0</v>
+      </c>
+      <c r="G50" s="36">
+        <v>0</v>
+      </c>
+      <c r="H50" s="38">
+        <v>0</v>
+      </c>
+      <c r="I50" s="39">
+        <v>0</v>
+      </c>
+      <c r="J50" s="36">
+        <v>0</v>
+      </c>
+      <c r="K50" s="38">
+        <v>0</v>
+      </c>
+      <c r="L50" s="39">
+        <v>0</v>
+      </c>
+      <c r="M50" s="36">
+        <v>0</v>
+      </c>
+      <c r="N50" s="39">
+        <v>0</v>
+      </c>
+      <c r="O50" s="37">
+        <v>0</v>
+      </c>
+      <c r="P50" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="36">
+        <v>0</v>
+      </c>
+      <c r="R50" s="36">
+        <v>1</v>
+      </c>
+      <c r="S50" s="39">
+        <v>0</v>
+      </c>
+      <c r="T50" s="37">
+        <v>0</v>
+      </c>
+      <c r="U50" s="37">
+        <v>0</v>
+      </c>
+      <c r="V50" s="38">
+        <v>0</v>
+      </c>
+      <c r="W50" s="36">
+        <v>0</v>
+      </c>
+      <c r="X50" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" s="37">
+        <v>1</v>
+      </c>
+      <c r="B51" s="37">
+        <v>0</v>
+      </c>
+      <c r="C51" s="37">
+        <v>1</v>
+      </c>
+      <c r="D51" s="38">
+        <v>0</v>
+      </c>
+      <c r="E51" s="36">
+        <v>0</v>
+      </c>
+      <c r="F51" s="36">
+        <v>0</v>
+      </c>
+      <c r="G51" s="36">
+        <v>0</v>
+      </c>
+      <c r="H51" s="38">
+        <v>0</v>
+      </c>
+      <c r="I51" s="39">
+        <v>0</v>
+      </c>
+      <c r="J51" s="36">
+        <v>0</v>
+      </c>
+      <c r="K51" s="38">
+        <v>0</v>
+      </c>
+      <c r="L51" s="39">
+        <v>0</v>
+      </c>
+      <c r="M51" s="36">
+        <v>0</v>
+      </c>
+      <c r="N51" s="39">
+        <v>0</v>
+      </c>
+      <c r="O51" s="37">
+        <v>0</v>
+      </c>
+      <c r="P51" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="36">
+        <v>0</v>
+      </c>
+      <c r="R51" s="36">
+        <v>1</v>
+      </c>
+      <c r="S51" s="39">
+        <v>0</v>
+      </c>
+      <c r="T51" s="37">
+        <v>0</v>
+      </c>
+      <c r="U51" s="37">
+        <v>0</v>
+      </c>
+      <c r="V51" s="38">
+        <v>0</v>
+      </c>
+      <c r="W51" s="36">
+        <v>0</v>
+      </c>
+      <c r="X51" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>1</v>
+      </c>
+      <c r="B52" s="40">
+        <v>0</v>
+      </c>
+      <c r="C52" s="40">
+        <v>1</v>
+      </c>
+      <c r="D52" s="57">
+        <v>0</v>
+      </c>
+      <c r="E52" s="58">
+        <v>0</v>
+      </c>
+      <c r="F52" s="58">
+        <v>0</v>
+      </c>
+      <c r="G52" s="58">
+        <v>0</v>
+      </c>
+      <c r="H52" s="57">
+        <v>0</v>
+      </c>
+      <c r="I52" s="59">
+        <v>0</v>
+      </c>
+      <c r="J52" s="58">
+        <v>0</v>
+      </c>
+      <c r="K52" s="57">
+        <v>0</v>
+      </c>
+      <c r="L52" s="59">
+        <v>0</v>
+      </c>
+      <c r="M52" s="58">
+        <v>0</v>
+      </c>
+      <c r="N52" s="59">
+        <v>0</v>
+      </c>
+      <c r="O52" s="40">
+        <v>0</v>
+      </c>
+      <c r="P52" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="58">
+        <v>0</v>
+      </c>
+      <c r="R52" s="58">
+        <v>1</v>
+      </c>
+      <c r="S52" s="59">
+        <v>0</v>
+      </c>
+      <c r="T52" s="40">
+        <v>0</v>
+      </c>
+      <c r="U52" s="40">
+        <v>0</v>
+      </c>
+      <c r="V52" s="57">
+        <v>0</v>
+      </c>
+      <c r="W52" s="58">
+        <v>0</v>
+      </c>
+      <c r="X52" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="57">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="58">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A53" s="37">
+        <v>1</v>
+      </c>
+      <c r="B53" s="37">
+        <v>0</v>
+      </c>
+      <c r="C53" s="37">
+        <v>0</v>
+      </c>
+      <c r="D53" s="38">
+        <v>0</v>
+      </c>
+      <c r="E53" s="36">
+        <v>0</v>
+      </c>
+      <c r="F53" s="36">
+        <v>0</v>
+      </c>
+      <c r="G53" s="36">
+        <v>0</v>
+      </c>
+      <c r="H53" s="38">
+        <v>0</v>
+      </c>
+      <c r="I53" s="39">
+        <v>0</v>
+      </c>
+      <c r="J53" s="36">
+        <v>0</v>
+      </c>
+      <c r="K53" s="38">
+        <v>0</v>
+      </c>
+      <c r="L53" s="39">
+        <v>0</v>
+      </c>
+      <c r="M53" s="36">
+        <v>0</v>
+      </c>
+      <c r="N53" s="39">
+        <v>0</v>
+      </c>
+      <c r="O53" s="37">
+        <v>0</v>
+      </c>
+      <c r="P53" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="36">
+        <v>0</v>
+      </c>
+      <c r="R53" s="36">
+        <v>1</v>
+      </c>
+      <c r="S53" s="39">
+        <v>0</v>
+      </c>
+      <c r="T53" s="37">
+        <v>0</v>
+      </c>
+      <c r="U53" s="37">
+        <v>0</v>
+      </c>
+      <c r="V53" s="38">
+        <v>0</v>
+      </c>
+      <c r="W53" s="36">
+        <v>0</v>
+      </c>
+      <c r="X53" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
+        <v>1</v>
+      </c>
+      <c r="B54" s="37">
+        <v>0</v>
+      </c>
+      <c r="C54" s="37">
+        <v>0</v>
+      </c>
+      <c r="D54" s="38">
+        <v>0</v>
+      </c>
+      <c r="E54" s="36">
+        <v>0</v>
+      </c>
+      <c r="F54" s="36">
+        <v>0</v>
+      </c>
+      <c r="G54" s="36">
+        <v>0</v>
+      </c>
+      <c r="H54" s="38">
+        <v>0</v>
+      </c>
+      <c r="I54" s="39">
+        <v>0</v>
+      </c>
+      <c r="J54" s="36">
+        <v>0</v>
+      </c>
+      <c r="K54" s="38">
+        <v>0</v>
+      </c>
+      <c r="L54" s="39">
+        <v>0</v>
+      </c>
+      <c r="M54" s="36">
+        <v>0</v>
+      </c>
+      <c r="N54" s="39">
+        <v>0</v>
+      </c>
+      <c r="O54" s="37">
+        <v>0</v>
+      </c>
+      <c r="P54" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="36">
+        <v>0</v>
+      </c>
+      <c r="R54" s="36">
+        <v>1</v>
+      </c>
+      <c r="S54" s="39">
+        <v>0</v>
+      </c>
+      <c r="T54" s="37">
+        <v>0</v>
+      </c>
+      <c r="U54" s="37">
+        <v>0</v>
+      </c>
+      <c r="V54" s="38">
+        <v>0</v>
+      </c>
+      <c r="W54" s="36">
+        <v>0</v>
+      </c>
+      <c r="X54" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" s="37">
+        <v>1</v>
+      </c>
+      <c r="B55" s="37">
+        <v>0</v>
+      </c>
+      <c r="C55" s="37">
+        <v>0</v>
+      </c>
+      <c r="D55" s="38">
+        <v>0</v>
+      </c>
+      <c r="E55" s="36">
+        <v>0</v>
+      </c>
+      <c r="F55" s="36">
+        <v>0</v>
+      </c>
+      <c r="G55" s="36">
+        <v>0</v>
+      </c>
+      <c r="H55" s="38">
+        <v>0</v>
+      </c>
+      <c r="I55" s="39">
+        <v>0</v>
+      </c>
+      <c r="J55" s="36">
+        <v>0</v>
+      </c>
+      <c r="K55" s="38">
+        <v>0</v>
+      </c>
+      <c r="L55" s="39">
+        <v>0</v>
+      </c>
+      <c r="M55" s="36">
+        <v>0</v>
+      </c>
+      <c r="N55" s="39">
+        <v>0</v>
+      </c>
+      <c r="O55" s="37">
+        <v>0</v>
+      </c>
+      <c r="P55" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="36">
+        <v>0</v>
+      </c>
+      <c r="R55" s="36">
+        <v>1</v>
+      </c>
+      <c r="S55" s="39">
+        <v>0</v>
+      </c>
+      <c r="T55" s="37">
+        <v>0</v>
+      </c>
+      <c r="U55" s="37">
+        <v>0</v>
+      </c>
+      <c r="V55" s="38">
+        <v>0</v>
+      </c>
+      <c r="W55" s="36">
+        <v>0</v>
+      </c>
+      <c r="X55" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
+        <v>1</v>
+      </c>
+      <c r="B56" s="37">
+        <v>0</v>
+      </c>
+      <c r="C56" s="37">
+        <v>0</v>
+      </c>
+      <c r="D56" s="38">
+        <v>0</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0</v>
+      </c>
+      <c r="F56" s="36">
+        <v>0</v>
+      </c>
+      <c r="G56" s="36">
+        <v>0</v>
+      </c>
+      <c r="H56" s="38">
+        <v>0</v>
+      </c>
+      <c r="I56" s="39">
+        <v>0</v>
+      </c>
+      <c r="J56" s="36">
+        <v>0</v>
+      </c>
+      <c r="K56" s="38">
+        <v>0</v>
+      </c>
+      <c r="L56" s="39">
+        <v>0</v>
+      </c>
+      <c r="M56" s="36">
+        <v>0</v>
+      </c>
+      <c r="N56" s="39">
+        <v>0</v>
+      </c>
+      <c r="O56" s="37">
+        <v>0</v>
+      </c>
+      <c r="P56" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="36">
+        <v>0</v>
+      </c>
+      <c r="R56" s="36">
+        <v>1</v>
+      </c>
+      <c r="S56" s="39">
+        <v>0</v>
+      </c>
+      <c r="T56" s="37">
+        <v>0</v>
+      </c>
+      <c r="U56" s="37">
+        <v>0</v>
+      </c>
+      <c r="V56" s="38">
+        <v>0</v>
+      </c>
+      <c r="W56" s="36">
+        <v>0</v>
+      </c>
+      <c r="X56" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
@@ -905,13 +905,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -923,8 +923,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2468,9 +2468,9 @@
   </sheetPr>
   <dimension ref="A1:AK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5:N69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:AJ69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2500,44 +2500,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
@@ -2549,66 +2549,66 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="73" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="74" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="78"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="73" t="s">
+      <c r="W2" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="73" t="s">
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="78"/>
+      <c r="AA2" s="74"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AC2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="73" t="s">
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="78"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="74"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="34">
         <v>1</v>
@@ -10252,6 +10252,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="AF71:AJ71"/>
     <mergeCell ref="AF2:AJ2"/>
@@ -10268,9 +10271,6 @@
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11226,8 +11226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AJ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="34">
         <v>1</v>
@@ -14021,10 +14021,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="36">
         <v>0</v>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>PC</t>
   </si>
@@ -481,6 +481,9 @@
   <si>
     <t>T71</t>
   </si>
+  <si>
+    <t>itr_clr</t>
+  </si>
 </sst>
 </file>
 
@@ -716,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,13 +957,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -972,8 +975,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,10 +1288,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,14 +1303,15 @@
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="18" width="7.85546875" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" customWidth="1"/>
-    <col min="20" max="21" width="7.28515625" customWidth="1"/>
-    <col min="22" max="26" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="19" width="7.85546875" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" customWidth="1"/>
+    <col min="23" max="27" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>6</v>
       </c>
@@ -1325,12 +1335,13 @@
       <c r="S1" s="80"/>
       <c r="T1" s="80"/>
       <c r="U1" s="80"/>
-      <c r="V1" s="4"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>113</v>
       </c>
@@ -1354,106 +1365,111 @@
         <v>5</v>
       </c>
       <c r="L2" s="79"/>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="79"/>
       <c r="R2" s="79"/>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="79"/>
+      <c r="T2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="79"/>
       <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="66">
-        <f t="shared" ref="B3:S3" si="0">SUM(C3+1)</f>
-        <v>19</v>
+        <f t="shared" ref="B3:T3" si="0">SUM(C3+1)</f>
+        <v>20</v>
       </c>
       <c r="C3" s="66">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="66">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="66">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="66">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="66">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="66">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="66">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="66">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3" s="66">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" s="66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P3" s="66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="66">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" s="66">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="66">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T3" s="66">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T3" s="66">
-        <f>SUM(U3+1)</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="67">
+      <c r="U3" s="66">
+        <f>SUM(V3+1)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="67">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66" t="s">
         <v>114</v>
       </c>
@@ -1491,31 +1507,34 @@
         <v>7</v>
       </c>
       <c r="N4" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="66" t="s">
-        <v>1</v>
-      </c>
       <c r="Q4" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="S4" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="T4" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="66" t="s">
+      <c r="U4" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="V4" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -1559,28 +1578,31 @@
         <v>1</v>
       </c>
       <c r="O5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <v>1</v>
       </c>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <v>1</v>
       </c>
       <c r="U5" s="7">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1621,31 +1643,34 @@
         <v>1</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="9">
         <v>0</v>
       </c>
       <c r="P6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="9">
         <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9">
         <v>1</v>
       </c>
       <c r="U6" s="9">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1686,31 +1711,34 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="7">
         <v>0</v>
       </c>
       <c r="S7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="7">
         <v>0</v>
       </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1751,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="7">
         <v>1</v>
@@ -1763,19 +1791,22 @@
         <v>1</v>
       </c>
       <c r="R8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="7">
         <v>1</v>
       </c>
       <c r="U8" s="7">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1822,25 +1853,28 @@
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
         <v>1</v>
       </c>
       <c r="R9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7">
         <v>1</v>
       </c>
       <c r="U9" s="7">
+        <v>1</v>
+      </c>
+      <c r="V9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1881,31 +1915,34 @@
         <v>1</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="9">
         <v>0</v>
       </c>
       <c r="P10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9">
         <v>1</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9">
         <v>1</v>
       </c>
       <c r="U10" s="9">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1946,31 +1983,34 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
         <v>1</v>
       </c>
       <c r="R11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7">
         <v>1</v>
       </c>
       <c r="U11" s="7">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -2011,31 +2051,34 @@
         <v>1</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="9">
         <v>0</v>
       </c>
       <c r="P12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
         <v>1</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="9">
         <v>1</v>
       </c>
       <c r="U12" s="9">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2076,31 +2119,34 @@
         <v>1</v>
       </c>
       <c r="N13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="9">
         <v>0</v>
       </c>
       <c r="P13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
       <c r="R13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="9">
         <v>1</v>
       </c>
       <c r="U13" s="9">
+        <v>1</v>
+      </c>
+      <c r="V13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -2141,31 +2187,34 @@
         <v>1</v>
       </c>
       <c r="N14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="9">
         <v>0</v>
       </c>
       <c r="P14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="9">
         <v>1</v>
       </c>
       <c r="U14" s="9">
+        <v>1</v>
+      </c>
+      <c r="V14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
@@ -2218,19 +2267,22 @@
         <v>1</v>
       </c>
       <c r="R15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7">
         <v>1</v>
       </c>
       <c r="U15" s="7">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
@@ -2271,31 +2323,34 @@
         <v>1</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="9">
         <v>0</v>
       </c>
       <c r="P16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
       <c r="R16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9">
         <v>1</v>
       </c>
       <c r="U16" s="9">
+        <v>1</v>
+      </c>
+      <c r="V16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>68</v>
       </c>
@@ -2336,31 +2391,34 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="7">
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="7">
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="7">
         <v>0</v>
       </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -2401,31 +2459,34 @@
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="7">
         <v>0</v>
       </c>
       <c r="P18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="7">
         <v>1</v>
       </c>
       <c r="T18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
@@ -2466,44 +2527,48 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="7">
         <v>0</v>
       </c>
       <c r="P19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="7">
         <v>1</v>
       </c>
       <c r="R19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7">
         <v>1</v>
       </c>
       <c r="U19" s="7">
+        <v>1</v>
+      </c>
+      <c r="V19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="S2:U2"/>
+  <mergeCells count="10">
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:V1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2519,7 +2584,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ76" sqref="B5:AJ76"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2549,44 +2614,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
@@ -2598,66 +2663,66 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="82" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="87"/>
+      <c r="O2" s="83"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="87"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="83"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="82" t="s">
+      <c r="W2" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="82" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="87"/>
+      <c r="AA2" s="83"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="82" t="s">
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="87"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="83"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -11077,6 +11142,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="AF78:AJ78"/>
     <mergeCell ref="AF2:AJ2"/>
@@ -11093,9 +11161,6 @@
     <mergeCell ref="I78:J78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12051,8 +12116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AJ73" sqref="AJ73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
   <si>
     <t>PC</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>itr_clr</t>
+  </si>
+  <si>
+    <t>=21'b</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1293,8 @@
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,8 +2586,8 @@
   <dimension ref="A1:AK78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q60" sqref="Q60:T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -11169,29 +11172,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="76"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="6">
         <v>1</v>
       </c>
       <c r="D1" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
@@ -11206,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="7">
         <v>0</v>
@@ -11224,33 +11230,39 @@
         <v>1</v>
       </c>
       <c r="P1" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1" s="7">
         <v>1</v>
       </c>
       <c r="S1" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="7">
+        <v>1</v>
+      </c>
+      <c r="U1" s="7">
+        <v>1</v>
+      </c>
+      <c r="V1" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
       </c>
       <c r="D2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -11268,51 +11280,57 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="9">
         <v>0</v>
       </c>
       <c r="L2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9">
         <v>0</v>
       </c>
       <c r="N2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="9">
         <v>1</v>
       </c>
       <c r="S2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="9">
+        <v>1</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -11330,54 +11348,60 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
       <c r="Q3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <v>0</v>
       </c>
       <c r="T3" s="7">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -11392,13 +11416,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -11407,39 +11431,45 @@
         <v>1</v>
       </c>
       <c r="O4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
       </c>
       <c r="Q4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="7">
         <v>1</v>
       </c>
       <c r="S4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -11451,54 +11481,60 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="7">
         <v>1</v>
       </c>
       <c r="S5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
       </c>
       <c r="D6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -11516,48 +11552,54 @@
         <v>0</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9">
         <v>0</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="9">
         <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -11578,51 +11620,57 @@
         <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="7">
         <v>1</v>
       </c>
       <c r="S7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
       </c>
       <c r="D8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -11640,51 +11688,57 @@
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9">
         <v>0</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="9">
         <v>1</v>
       </c>
       <c r="S8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
       </c>
       <c r="D9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
@@ -11702,51 +11756,57 @@
         <v>0</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="9">
         <v>1</v>
       </c>
       <c r="S9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
       </c>
       <c r="D10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -11764,54 +11824,60 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9">
         <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="9">
         <v>1</v>
       </c>
       <c r="S10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -11826,16 +11892,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
@@ -11847,30 +11913,36 @@
         <v>1</v>
       </c>
       <c r="Q11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="7">
         <v>1</v>
       </c>
       <c r="S11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -11888,51 +11960,57 @@
         <v>0</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="9">
         <v>1</v>
       </c>
       <c r="S12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -11950,54 +12028,60 @@
         <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="7">
         <v>0</v>
       </c>
       <c r="T13" s="7">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -12009,25 +12093,25 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="7">
         <v>0</v>
@@ -12036,27 +12120,33 @@
         <v>1</v>
       </c>
       <c r="R14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="7">
         <v>1</v>
       </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -12074,41 +12164,48 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="7">
         <v>1</v>
       </c>
       <c r="S15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 0" sheetId="1" r:id="rId1"/>
@@ -482,17 +482,17 @@
     <t>T71</t>
   </si>
   <si>
-    <t>itr_clr</t>
+    <t>=21'b</t>
   </si>
   <si>
-    <t>=21'b</t>
+    <t>itr_clr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +514,143 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +675,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -718,11 +1026,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,19 +1410,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -978,8 +1500,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,9 +1575,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,8 +1925,8 @@
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,9 +1936,8 @@
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="10" width="5.7109375" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="12" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
     <col min="15" max="17" width="5.7109375" customWidth="1"/>
     <col min="18" max="19" width="7.85546875" customWidth="1"/>
     <col min="20" max="20" width="8.140625" customWidth="1"/>
@@ -1315,30 +1946,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1348,127 +1979,127 @@
       <c r="B2" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79" t="s">
+      <c r="C2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79" t="s">
+      <c r="J2" s="101"/>
+      <c r="K2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="88" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="79" t="s">
+      <c r="N2" s="133"/>
+      <c r="O2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79" t="s">
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66">
+      <c r="B3" s="134">
         <f t="shared" ref="B3:T3" si="0">SUM(C3+1)</f>
         <v>20</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="134">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="134">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="134">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="134">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="134">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="134">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="134">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="134">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="134">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="134">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="134">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="134">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="134">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P3" s="66">
+      <c r="P3" s="134">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q3" s="66">
+      <c r="Q3" s="134">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R3" s="66">
+      <c r="R3" s="134">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="134">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T3" s="66">
+      <c r="T3" s="134">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U3" s="66">
+      <c r="U3" s="134">
         <f>SUM(V3+1)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="67">
+      <c r="V3" s="134">
         <v>0</v>
       </c>
     </row>
@@ -1506,11 +2137,11 @@
       <c r="L4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="95" t="s">
         <v>7</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>154</v>
       </c>
       <c r="O4" s="66" t="s">
         <v>27</v>
@@ -1538,1022 +2169,1022 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7">
-        <v>1</v>
-      </c>
-      <c r="V5" s="7">
+      <c r="B5" s="111">
+        <v>1</v>
+      </c>
+      <c r="C5" s="112">
+        <v>0</v>
+      </c>
+      <c r="D5" s="113">
+        <v>1</v>
+      </c>
+      <c r="E5" s="112">
+        <v>1</v>
+      </c>
+      <c r="F5" s="113">
+        <v>0</v>
+      </c>
+      <c r="G5" s="112">
+        <v>1</v>
+      </c>
+      <c r="H5" s="113">
+        <v>0</v>
+      </c>
+      <c r="I5" s="112">
+        <v>1</v>
+      </c>
+      <c r="J5" s="113">
+        <v>0</v>
+      </c>
+      <c r="K5" s="112">
+        <v>0</v>
+      </c>
+      <c r="L5" s="113">
+        <v>1</v>
+      </c>
+      <c r="M5" s="113">
+        <v>1</v>
+      </c>
+      <c r="N5" s="111">
+        <v>0</v>
+      </c>
+      <c r="O5" s="112">
+        <v>1</v>
+      </c>
+      <c r="P5" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="112">
+        <v>1</v>
+      </c>
+      <c r="R5" s="114">
+        <v>1</v>
+      </c>
+      <c r="S5" s="113">
+        <v>0</v>
+      </c>
+      <c r="T5" s="112">
+        <v>1</v>
+      </c>
+      <c r="U5" s="114">
+        <v>1</v>
+      </c>
+      <c r="V5" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1</v>
-      </c>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>1</v>
-      </c>
-      <c r="U6" s="9">
-        <v>1</v>
-      </c>
-      <c r="V6" s="9">
+      <c r="B6" s="116">
+        <v>1</v>
+      </c>
+      <c r="C6" s="117">
+        <v>0</v>
+      </c>
+      <c r="D6" s="118">
+        <v>0</v>
+      </c>
+      <c r="E6" s="117">
+        <v>1</v>
+      </c>
+      <c r="F6" s="118">
+        <v>0</v>
+      </c>
+      <c r="G6" s="117">
+        <v>1</v>
+      </c>
+      <c r="H6" s="118">
+        <v>0</v>
+      </c>
+      <c r="I6" s="117">
+        <v>1</v>
+      </c>
+      <c r="J6" s="118">
+        <v>0</v>
+      </c>
+      <c r="K6" s="117">
+        <v>0</v>
+      </c>
+      <c r="L6" s="118">
+        <v>1</v>
+      </c>
+      <c r="M6" s="118">
+        <v>1</v>
+      </c>
+      <c r="N6" s="116">
+        <v>1</v>
+      </c>
+      <c r="O6" s="117">
+        <v>0</v>
+      </c>
+      <c r="P6" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="117">
+        <v>1</v>
+      </c>
+      <c r="R6" s="119">
+        <v>1</v>
+      </c>
+      <c r="S6" s="118">
+        <v>0</v>
+      </c>
+      <c r="T6" s="117">
+        <v>1</v>
+      </c>
+      <c r="U6" s="119">
+        <v>1</v>
+      </c>
+      <c r="V6" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
+      <c r="B7" s="111">
+        <v>1</v>
+      </c>
+      <c r="C7" s="112">
+        <v>0</v>
+      </c>
+      <c r="D7" s="113">
+        <v>0</v>
+      </c>
+      <c r="E7" s="112">
+        <v>1</v>
+      </c>
+      <c r="F7" s="113">
+        <v>0</v>
+      </c>
+      <c r="G7" s="112">
+        <v>1</v>
+      </c>
+      <c r="H7" s="113">
+        <v>0</v>
+      </c>
+      <c r="I7" s="112">
+        <v>1</v>
+      </c>
+      <c r="J7" s="113">
+        <v>0</v>
+      </c>
+      <c r="K7" s="112">
+        <v>0</v>
+      </c>
+      <c r="L7" s="113">
+        <v>1</v>
+      </c>
+      <c r="M7" s="113">
+        <v>1</v>
+      </c>
+      <c r="N7" s="111">
+        <v>1</v>
+      </c>
+      <c r="O7" s="112">
+        <v>0</v>
+      </c>
+      <c r="P7" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="112">
+        <v>1</v>
+      </c>
+      <c r="R7" s="114">
+        <v>0</v>
+      </c>
+      <c r="S7" s="113">
+        <v>0</v>
+      </c>
+      <c r="T7" s="112">
+        <v>1</v>
+      </c>
+      <c r="U7" s="114">
+        <v>0</v>
+      </c>
+      <c r="V7" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-      <c r="R8" s="7">
-        <v>1</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7">
-        <v>1</v>
-      </c>
-      <c r="V8" s="7">
+      <c r="B8" s="111">
+        <v>1</v>
+      </c>
+      <c r="C8" s="112">
+        <v>0</v>
+      </c>
+      <c r="D8" s="113">
+        <v>1</v>
+      </c>
+      <c r="E8" s="112">
+        <v>1</v>
+      </c>
+      <c r="F8" s="113">
+        <v>0</v>
+      </c>
+      <c r="G8" s="112">
+        <v>1</v>
+      </c>
+      <c r="H8" s="113">
+        <v>0</v>
+      </c>
+      <c r="I8" s="112">
+        <v>1</v>
+      </c>
+      <c r="J8" s="113">
+        <v>0</v>
+      </c>
+      <c r="K8" s="112">
+        <v>0</v>
+      </c>
+      <c r="L8" s="113">
+        <v>1</v>
+      </c>
+      <c r="M8" s="113">
+        <v>1</v>
+      </c>
+      <c r="N8" s="111">
+        <v>1</v>
+      </c>
+      <c r="O8" s="112">
+        <v>0</v>
+      </c>
+      <c r="P8" s="113">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="112">
+        <v>1</v>
+      </c>
+      <c r="R8" s="114">
+        <v>1</v>
+      </c>
+      <c r="S8" s="113">
+        <v>0</v>
+      </c>
+      <c r="T8" s="112">
+        <v>1</v>
+      </c>
+      <c r="U8" s="114">
+        <v>1</v>
+      </c>
+      <c r="V8" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-      <c r="R9" s="7">
-        <v>1</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>1</v>
-      </c>
-      <c r="U9" s="7">
-        <v>1</v>
-      </c>
-      <c r="V9" s="7">
+      <c r="B9" s="111">
+        <v>1</v>
+      </c>
+      <c r="C9" s="112">
+        <v>0</v>
+      </c>
+      <c r="D9" s="113">
+        <v>0</v>
+      </c>
+      <c r="E9" s="112">
+        <v>1</v>
+      </c>
+      <c r="F9" s="113">
+        <v>1</v>
+      </c>
+      <c r="G9" s="112">
+        <v>1</v>
+      </c>
+      <c r="H9" s="113">
+        <v>1</v>
+      </c>
+      <c r="I9" s="112">
+        <v>1</v>
+      </c>
+      <c r="J9" s="113">
+        <v>0</v>
+      </c>
+      <c r="K9" s="112">
+        <v>0</v>
+      </c>
+      <c r="L9" s="113">
+        <v>1</v>
+      </c>
+      <c r="M9" s="113">
+        <v>0</v>
+      </c>
+      <c r="N9" s="111">
+        <v>1</v>
+      </c>
+      <c r="O9" s="112">
+        <v>0</v>
+      </c>
+      <c r="P9" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="112">
+        <v>1</v>
+      </c>
+      <c r="R9" s="114">
+        <v>1</v>
+      </c>
+      <c r="S9" s="113">
+        <v>0</v>
+      </c>
+      <c r="T9" s="112">
+        <v>1</v>
+      </c>
+      <c r="U9" s="114">
+        <v>1</v>
+      </c>
+      <c r="V9" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>1</v>
-      </c>
-      <c r="R10" s="9">
-        <v>1</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>1</v>
-      </c>
-      <c r="U10" s="9">
-        <v>1</v>
-      </c>
-      <c r="V10" s="9">
+      <c r="B10" s="116">
+        <v>1</v>
+      </c>
+      <c r="C10" s="117">
+        <v>0</v>
+      </c>
+      <c r="D10" s="118">
+        <v>0</v>
+      </c>
+      <c r="E10" s="117">
+        <v>1</v>
+      </c>
+      <c r="F10" s="118">
+        <v>0</v>
+      </c>
+      <c r="G10" s="117">
+        <v>1</v>
+      </c>
+      <c r="H10" s="118">
+        <v>0</v>
+      </c>
+      <c r="I10" s="117">
+        <v>1</v>
+      </c>
+      <c r="J10" s="118">
+        <v>0</v>
+      </c>
+      <c r="K10" s="117">
+        <v>0</v>
+      </c>
+      <c r="L10" s="118">
+        <v>1</v>
+      </c>
+      <c r="M10" s="118">
+        <v>0</v>
+      </c>
+      <c r="N10" s="116">
+        <v>1</v>
+      </c>
+      <c r="O10" s="117">
+        <v>0</v>
+      </c>
+      <c r="P10" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="117">
+        <v>1</v>
+      </c>
+      <c r="R10" s="119">
+        <v>1</v>
+      </c>
+      <c r="S10" s="118">
+        <v>0</v>
+      </c>
+      <c r="T10" s="117">
+        <v>1</v>
+      </c>
+      <c r="U10" s="119">
+        <v>1</v>
+      </c>
+      <c r="V10" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>1</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7">
-        <v>1</v>
-      </c>
-      <c r="V11" s="7">
+      <c r="B11" s="111">
+        <v>1</v>
+      </c>
+      <c r="C11" s="112">
+        <v>1</v>
+      </c>
+      <c r="D11" s="113">
+        <v>0</v>
+      </c>
+      <c r="E11" s="112">
+        <v>1</v>
+      </c>
+      <c r="F11" s="113">
+        <v>0</v>
+      </c>
+      <c r="G11" s="112">
+        <v>1</v>
+      </c>
+      <c r="H11" s="113">
+        <v>0</v>
+      </c>
+      <c r="I11" s="112">
+        <v>1</v>
+      </c>
+      <c r="J11" s="113">
+        <v>0</v>
+      </c>
+      <c r="K11" s="112">
+        <v>0</v>
+      </c>
+      <c r="L11" s="113">
+        <v>1</v>
+      </c>
+      <c r="M11" s="113">
+        <v>0</v>
+      </c>
+      <c r="N11" s="111">
+        <v>1</v>
+      </c>
+      <c r="O11" s="112">
+        <v>0</v>
+      </c>
+      <c r="P11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="112">
+        <v>1</v>
+      </c>
+      <c r="R11" s="114">
+        <v>1</v>
+      </c>
+      <c r="S11" s="113">
+        <v>0</v>
+      </c>
+      <c r="T11" s="112">
+        <v>1</v>
+      </c>
+      <c r="U11" s="114">
+        <v>1</v>
+      </c>
+      <c r="V11" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>1</v>
-      </c>
-      <c r="R12" s="9">
-        <v>1</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>1</v>
-      </c>
-      <c r="U12" s="9">
-        <v>1</v>
-      </c>
-      <c r="V12" s="9">
+      <c r="B12" s="115">
+        <v>1</v>
+      </c>
+      <c r="C12" s="120">
+        <v>0</v>
+      </c>
+      <c r="D12" s="121">
+        <v>0</v>
+      </c>
+      <c r="E12" s="120">
+        <v>1</v>
+      </c>
+      <c r="F12" s="121">
+        <v>0</v>
+      </c>
+      <c r="G12" s="120">
+        <v>1</v>
+      </c>
+      <c r="H12" s="121">
+        <v>0</v>
+      </c>
+      <c r="I12" s="120">
+        <v>1</v>
+      </c>
+      <c r="J12" s="121">
+        <v>0</v>
+      </c>
+      <c r="K12" s="120">
+        <v>0</v>
+      </c>
+      <c r="L12" s="121">
+        <v>1</v>
+      </c>
+      <c r="M12" s="121">
+        <v>1</v>
+      </c>
+      <c r="N12" s="115">
+        <v>1</v>
+      </c>
+      <c r="O12" s="120">
+        <v>0</v>
+      </c>
+      <c r="P12" s="121">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="120">
+        <v>1</v>
+      </c>
+      <c r="R12" s="122">
+        <v>1</v>
+      </c>
+      <c r="S12" s="121">
+        <v>0</v>
+      </c>
+      <c r="T12" s="120">
+        <v>1</v>
+      </c>
+      <c r="U12" s="122">
+        <v>1</v>
+      </c>
+      <c r="V12" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
-      <c r="N13" s="9">
-        <v>1</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>1</v>
-      </c>
-      <c r="R13" s="9">
-        <v>1</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>1</v>
-      </c>
-      <c r="U13" s="9">
-        <v>1</v>
-      </c>
-      <c r="V13" s="9">
+      <c r="B13" s="123">
+        <v>1</v>
+      </c>
+      <c r="C13" s="124">
+        <v>0</v>
+      </c>
+      <c r="D13" s="125">
+        <v>0</v>
+      </c>
+      <c r="E13" s="124">
+        <v>1</v>
+      </c>
+      <c r="F13" s="125">
+        <v>0</v>
+      </c>
+      <c r="G13" s="124">
+        <v>1</v>
+      </c>
+      <c r="H13" s="125">
+        <v>0</v>
+      </c>
+      <c r="I13" s="124">
+        <v>1</v>
+      </c>
+      <c r="J13" s="125">
+        <v>0</v>
+      </c>
+      <c r="K13" s="124">
+        <v>0</v>
+      </c>
+      <c r="L13" s="125">
+        <v>1</v>
+      </c>
+      <c r="M13" s="125">
+        <v>1</v>
+      </c>
+      <c r="N13" s="123">
+        <v>1</v>
+      </c>
+      <c r="O13" s="124">
+        <v>0</v>
+      </c>
+      <c r="P13" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="124">
+        <v>1</v>
+      </c>
+      <c r="R13" s="126">
+        <v>1</v>
+      </c>
+      <c r="S13" s="125">
+        <v>0</v>
+      </c>
+      <c r="T13" s="124">
+        <v>1</v>
+      </c>
+      <c r="U13" s="126">
+        <v>1</v>
+      </c>
+      <c r="V13" s="125">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1</v>
-      </c>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>1</v>
-      </c>
-      <c r="R14" s="9">
-        <v>1</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>1</v>
-      </c>
-      <c r="U14" s="9">
-        <v>1</v>
-      </c>
-      <c r="V14" s="9">
+      <c r="B14" s="123">
+        <v>1</v>
+      </c>
+      <c r="C14" s="124">
+        <v>0</v>
+      </c>
+      <c r="D14" s="125">
+        <v>0</v>
+      </c>
+      <c r="E14" s="124">
+        <v>1</v>
+      </c>
+      <c r="F14" s="125">
+        <v>0</v>
+      </c>
+      <c r="G14" s="124">
+        <v>1</v>
+      </c>
+      <c r="H14" s="125">
+        <v>0</v>
+      </c>
+      <c r="I14" s="124">
+        <v>1</v>
+      </c>
+      <c r="J14" s="125">
+        <v>0</v>
+      </c>
+      <c r="K14" s="124">
+        <v>0</v>
+      </c>
+      <c r="L14" s="125">
+        <v>1</v>
+      </c>
+      <c r="M14" s="125">
+        <v>1</v>
+      </c>
+      <c r="N14" s="123">
+        <v>1</v>
+      </c>
+      <c r="O14" s="124">
+        <v>0</v>
+      </c>
+      <c r="P14" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="124">
+        <v>1</v>
+      </c>
+      <c r="R14" s="126">
+        <v>1</v>
+      </c>
+      <c r="S14" s="125">
+        <v>0</v>
+      </c>
+      <c r="T14" s="124">
+        <v>1</v>
+      </c>
+      <c r="U14" s="126">
+        <v>1</v>
+      </c>
+      <c r="V14" s="125">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
-      <c r="R15" s="7">
-        <v>1</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>1</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7">
+      <c r="B15" s="127">
+        <v>1</v>
+      </c>
+      <c r="C15" s="128">
+        <v>0</v>
+      </c>
+      <c r="D15" s="129">
+        <v>1</v>
+      </c>
+      <c r="E15" s="128">
+        <v>1</v>
+      </c>
+      <c r="F15" s="129">
+        <v>0</v>
+      </c>
+      <c r="G15" s="128">
+        <v>1</v>
+      </c>
+      <c r="H15" s="129">
+        <v>0</v>
+      </c>
+      <c r="I15" s="128">
+        <v>1</v>
+      </c>
+      <c r="J15" s="129">
+        <v>0</v>
+      </c>
+      <c r="K15" s="128">
+        <v>0</v>
+      </c>
+      <c r="L15" s="129">
+        <v>1</v>
+      </c>
+      <c r="M15" s="129">
+        <v>1</v>
+      </c>
+      <c r="N15" s="127">
+        <v>1</v>
+      </c>
+      <c r="O15" s="128">
+        <v>1</v>
+      </c>
+      <c r="P15" s="129">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="128">
+        <v>1</v>
+      </c>
+      <c r="R15" s="130">
+        <v>1</v>
+      </c>
+      <c r="S15" s="129">
+        <v>0</v>
+      </c>
+      <c r="T15" s="128">
+        <v>1</v>
+      </c>
+      <c r="U15" s="130">
+        <v>1</v>
+      </c>
+      <c r="V15" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>1</v>
-      </c>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>1</v>
-      </c>
-      <c r="R16" s="9">
-        <v>1</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>1</v>
-      </c>
-      <c r="U16" s="9">
-        <v>1</v>
-      </c>
-      <c r="V16" s="9">
+      <c r="B16" s="123">
+        <v>1</v>
+      </c>
+      <c r="C16" s="124">
+        <v>0</v>
+      </c>
+      <c r="D16" s="125">
+        <v>0</v>
+      </c>
+      <c r="E16" s="124">
+        <v>1</v>
+      </c>
+      <c r="F16" s="125">
+        <v>0</v>
+      </c>
+      <c r="G16" s="124">
+        <v>1</v>
+      </c>
+      <c r="H16" s="125">
+        <v>0</v>
+      </c>
+      <c r="I16" s="124">
+        <v>1</v>
+      </c>
+      <c r="J16" s="125">
+        <v>0</v>
+      </c>
+      <c r="K16" s="124">
+        <v>0</v>
+      </c>
+      <c r="L16" s="125">
+        <v>1</v>
+      </c>
+      <c r="M16" s="125">
+        <v>1</v>
+      </c>
+      <c r="N16" s="123">
+        <v>1</v>
+      </c>
+      <c r="O16" s="124">
+        <v>0</v>
+      </c>
+      <c r="P16" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="124">
+        <v>1</v>
+      </c>
+      <c r="R16" s="126">
+        <v>1</v>
+      </c>
+      <c r="S16" s="125">
+        <v>0</v>
+      </c>
+      <c r="T16" s="124">
+        <v>1</v>
+      </c>
+      <c r="U16" s="126">
+        <v>1</v>
+      </c>
+      <c r="V16" s="125">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
+      <c r="B17" s="131">
+        <v>1</v>
+      </c>
+      <c r="C17" s="128">
+        <v>0</v>
+      </c>
+      <c r="D17" s="129">
+        <v>0</v>
+      </c>
+      <c r="E17" s="128">
+        <v>1</v>
+      </c>
+      <c r="F17" s="129">
+        <v>0</v>
+      </c>
+      <c r="G17" s="128">
+        <v>1</v>
+      </c>
+      <c r="H17" s="129">
+        <v>0</v>
+      </c>
+      <c r="I17" s="128">
+        <v>1</v>
+      </c>
+      <c r="J17" s="129">
+        <v>0</v>
+      </c>
+      <c r="K17" s="128">
+        <v>0</v>
+      </c>
+      <c r="L17" s="129">
+        <v>1</v>
+      </c>
+      <c r="M17" s="129">
+        <v>1</v>
+      </c>
+      <c r="N17" s="127">
+        <v>1</v>
+      </c>
+      <c r="O17" s="128">
+        <v>0</v>
+      </c>
+      <c r="P17" s="129">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="128">
+        <v>1</v>
+      </c>
+      <c r="R17" s="130">
+        <v>0</v>
+      </c>
+      <c r="S17" s="129">
+        <v>0</v>
+      </c>
+      <c r="T17" s="128">
+        <v>1</v>
+      </c>
+      <c r="U17" s="130">
+        <v>0</v>
+      </c>
+      <c r="V17" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>1</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <v>1</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
+      <c r="B18" s="127">
+        <v>1</v>
+      </c>
+      <c r="C18" s="128">
+        <v>0</v>
+      </c>
+      <c r="D18" s="129">
+        <v>1</v>
+      </c>
+      <c r="E18" s="128">
+        <v>1</v>
+      </c>
+      <c r="F18" s="129">
+        <v>0</v>
+      </c>
+      <c r="G18" s="128">
+        <v>1</v>
+      </c>
+      <c r="H18" s="129">
+        <v>0</v>
+      </c>
+      <c r="I18" s="128">
+        <v>1</v>
+      </c>
+      <c r="J18" s="129">
+        <v>1</v>
+      </c>
+      <c r="K18" s="128">
+        <v>0</v>
+      </c>
+      <c r="L18" s="129">
+        <v>1</v>
+      </c>
+      <c r="M18" s="129">
+        <v>1</v>
+      </c>
+      <c r="N18" s="127">
+        <v>1</v>
+      </c>
+      <c r="O18" s="128">
+        <v>0</v>
+      </c>
+      <c r="P18" s="129">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="128">
+        <v>1</v>
+      </c>
+      <c r="R18" s="130">
+        <v>0</v>
+      </c>
+      <c r="S18" s="129">
+        <v>1</v>
+      </c>
+      <c r="T18" s="128">
+        <v>1</v>
+      </c>
+      <c r="U18" s="130">
+        <v>0</v>
+      </c>
+      <c r="V18" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1</v>
-      </c>
-      <c r="R19" s="7">
-        <v>1</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1</v>
-      </c>
-      <c r="V19" s="7">
+      <c r="B19" s="127">
+        <v>1</v>
+      </c>
+      <c r="C19" s="128">
+        <v>0</v>
+      </c>
+      <c r="D19" s="129">
+        <v>0</v>
+      </c>
+      <c r="E19" s="128">
+        <v>1</v>
+      </c>
+      <c r="F19" s="129">
+        <v>0</v>
+      </c>
+      <c r="G19" s="128">
+        <v>1</v>
+      </c>
+      <c r="H19" s="129">
+        <v>0</v>
+      </c>
+      <c r="I19" s="128">
+        <v>1</v>
+      </c>
+      <c r="J19" s="129">
+        <v>0</v>
+      </c>
+      <c r="K19" s="128">
+        <v>0</v>
+      </c>
+      <c r="L19" s="129">
+        <v>1</v>
+      </c>
+      <c r="M19" s="129">
+        <v>1</v>
+      </c>
+      <c r="N19" s="127">
+        <v>1</v>
+      </c>
+      <c r="O19" s="128">
+        <v>0</v>
+      </c>
+      <c r="P19" s="129">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="128">
+        <v>1</v>
+      </c>
+      <c r="R19" s="130">
+        <v>1</v>
+      </c>
+      <c r="S19" s="129">
+        <v>0</v>
+      </c>
+      <c r="T19" s="128">
+        <v>1</v>
+      </c>
+      <c r="U19" s="130">
+        <v>1</v>
+      </c>
+      <c r="V19" s="129">
         <v>0</v>
       </c>
     </row>
@@ -2586,7 +3217,7 @@
   <dimension ref="A1:AK78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q60" sqref="Q60:T61"/>
     </sheetView>
   </sheetViews>
@@ -2617,44 +3248,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
@@ -2666,66 +3297,66 @@
       <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="81" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="83"/>
+      <c r="J2" s="109"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="82" t="s">
+      <c r="M2" s="109"/>
+      <c r="N2" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="83"/>
+      <c r="O2" s="109"/>
       <c r="P2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="83"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="109"/>
       <c r="U2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="81" t="s">
+      <c r="W2" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="81" t="s">
+      <c r="X2" s="105"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="83"/>
+      <c r="AA2" s="109"/>
       <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="81" t="s">
+      <c r="AC2" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="81" t="s">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="83"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="109"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65">
@@ -11082,72 +11713,69 @@
       <c r="D78" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="84" t="s">
+      <c r="E78" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="84" t="s">
+      <c r="F78" s="107"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="J78" s="86"/>
+      <c r="J78" s="108"/>
       <c r="K78" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L78" s="84" t="s">
+      <c r="L78" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="M78" s="86"/>
-      <c r="N78" s="85" t="s">
+      <c r="M78" s="108"/>
+      <c r="N78" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="O78" s="86"/>
+      <c r="O78" s="108"/>
       <c r="P78" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q78" s="84" t="s">
+      <c r="Q78" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="R78" s="85"/>
-      <c r="S78" s="85"/>
-      <c r="T78" s="86"/>
+      <c r="R78" s="107"/>
+      <c r="S78" s="107"/>
+      <c r="T78" s="108"/>
       <c r="U78" s="20" t="s">
         <v>22</v>
       </c>
       <c r="V78" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="W78" s="84" t="s">
+      <c r="W78" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="X78" s="85"/>
-      <c r="Y78" s="86"/>
-      <c r="Z78" s="84" t="s">
+      <c r="X78" s="107"/>
+      <c r="Y78" s="108"/>
+      <c r="Z78" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="AA78" s="86"/>
+      <c r="AA78" s="108"/>
       <c r="AB78" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC78" s="84" t="s">
+      <c r="AC78" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="AD78" s="85"/>
-      <c r="AE78" s="86"/>
-      <c r="AF78" s="84" t="s">
+      <c r="AD78" s="107"/>
+      <c r="AE78" s="108"/>
+      <c r="AF78" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="AG78" s="85"/>
-      <c r="AH78" s="85"/>
-      <c r="AI78" s="85"/>
-      <c r="AJ78" s="86"/>
+      <c r="AG78" s="107"/>
+      <c r="AH78" s="107"/>
+      <c r="AI78" s="107"/>
+      <c r="AJ78" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="AF78:AJ78"/>
     <mergeCell ref="AF2:AJ2"/>
@@ -11164,6 +11792,9 @@
     <mergeCell ref="I78:J78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11172,9 +11803,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -11183,1025 +11814,1040 @@
     <col min="2" max="2" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1" s="7">
-        <v>1</v>
-      </c>
-      <c r="I1" s="7">
-        <v>0</v>
-      </c>
-      <c r="J1" s="7">
-        <v>1</v>
-      </c>
-      <c r="K1" s="7">
-        <v>0</v>
-      </c>
-      <c r="L1" s="7">
-        <v>0</v>
-      </c>
-      <c r="M1" s="7">
-        <v>1</v>
-      </c>
-      <c r="N1" s="7">
-        <v>0</v>
-      </c>
-      <c r="O1" s="7">
-        <v>1</v>
-      </c>
-      <c r="P1" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="7">
-        <v>1</v>
-      </c>
-      <c r="R1" s="7">
-        <v>1</v>
-      </c>
-      <c r="S1" s="7">
-        <v>0</v>
-      </c>
-      <c r="T1" s="7">
-        <v>1</v>
-      </c>
-      <c r="U1" s="7">
-        <v>1</v>
-      </c>
-      <c r="V1" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C1" s="96">
+        <v>1</v>
+      </c>
+      <c r="D1" s="80">
+        <v>0</v>
+      </c>
+      <c r="E1" s="82">
+        <v>1</v>
+      </c>
+      <c r="F1" s="80">
+        <v>1</v>
+      </c>
+      <c r="G1" s="82">
+        <v>0</v>
+      </c>
+      <c r="H1" s="80">
+        <v>1</v>
+      </c>
+      <c r="I1" s="82">
+        <v>0</v>
+      </c>
+      <c r="J1" s="80">
+        <v>1</v>
+      </c>
+      <c r="K1" s="82">
+        <v>0</v>
+      </c>
+      <c r="L1" s="80">
+        <v>0</v>
+      </c>
+      <c r="M1" s="82">
+        <v>1</v>
+      </c>
+      <c r="N1" s="96">
+        <v>0</v>
+      </c>
+      <c r="O1" s="80">
+        <v>1</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="80">
+        <v>1</v>
+      </c>
+      <c r="R1" s="81">
+        <v>1</v>
+      </c>
+      <c r="S1" s="82">
+        <v>0</v>
+      </c>
+      <c r="T1" s="80">
+        <v>1</v>
+      </c>
+      <c r="U1" s="81">
+        <v>1</v>
+      </c>
+      <c r="V1" s="82">
+        <v>0</v>
+      </c>
+      <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>1</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9">
-        <v>0</v>
-      </c>
-      <c r="T2" s="9">
-        <v>1</v>
-      </c>
-      <c r="U2" s="9">
-        <v>1</v>
-      </c>
-      <c r="V2" s="9">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C2" s="97">
+        <v>1</v>
+      </c>
+      <c r="D2" s="83">
+        <v>0</v>
+      </c>
+      <c r="E2" s="85">
+        <v>0</v>
+      </c>
+      <c r="F2" s="83">
+        <v>1</v>
+      </c>
+      <c r="G2" s="85">
+        <v>0</v>
+      </c>
+      <c r="H2" s="83">
+        <v>1</v>
+      </c>
+      <c r="I2" s="85">
+        <v>0</v>
+      </c>
+      <c r="J2" s="83">
+        <v>1</v>
+      </c>
+      <c r="K2" s="85">
+        <v>0</v>
+      </c>
+      <c r="L2" s="83">
+        <v>0</v>
+      </c>
+      <c r="M2" s="85">
+        <v>1</v>
+      </c>
+      <c r="N2" s="97">
+        <v>1</v>
+      </c>
+      <c r="O2" s="83">
+        <v>0</v>
+      </c>
+      <c r="P2" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="83">
+        <v>1</v>
+      </c>
+      <c r="R2" s="84">
+        <v>1</v>
+      </c>
+      <c r="S2" s="85">
+        <v>0</v>
+      </c>
+      <c r="T2" s="83">
+        <v>1</v>
+      </c>
+      <c r="U2" s="84">
+        <v>1</v>
+      </c>
+      <c r="V2" s="85">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>1</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>1</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C3" s="96">
+        <v>1</v>
+      </c>
+      <c r="D3" s="80">
+        <v>0</v>
+      </c>
+      <c r="E3" s="82">
+        <v>0</v>
+      </c>
+      <c r="F3" s="80">
+        <v>1</v>
+      </c>
+      <c r="G3" s="82">
+        <v>0</v>
+      </c>
+      <c r="H3" s="80">
+        <v>1</v>
+      </c>
+      <c r="I3" s="82">
+        <v>0</v>
+      </c>
+      <c r="J3" s="80">
+        <v>1</v>
+      </c>
+      <c r="K3" s="82">
+        <v>0</v>
+      </c>
+      <c r="L3" s="80">
+        <v>0</v>
+      </c>
+      <c r="M3" s="82">
+        <v>1</v>
+      </c>
+      <c r="N3" s="96">
+        <v>1</v>
+      </c>
+      <c r="O3" s="80">
+        <v>0</v>
+      </c>
+      <c r="P3" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="80">
+        <v>1</v>
+      </c>
+      <c r="R3" s="81">
+        <v>0</v>
+      </c>
+      <c r="S3" s="82">
+        <v>0</v>
+      </c>
+      <c r="T3" s="80">
+        <v>1</v>
+      </c>
+      <c r="U3" s="81">
+        <v>0</v>
+      </c>
+      <c r="V3" s="82">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7">
-        <v>1</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C4" s="96">
+        <v>1</v>
+      </c>
+      <c r="D4" s="80">
+        <v>0</v>
+      </c>
+      <c r="E4" s="82">
+        <v>1</v>
+      </c>
+      <c r="F4" s="80">
+        <v>1</v>
+      </c>
+      <c r="G4" s="82">
+        <v>0</v>
+      </c>
+      <c r="H4" s="80">
+        <v>1</v>
+      </c>
+      <c r="I4" s="82">
+        <v>0</v>
+      </c>
+      <c r="J4" s="80">
+        <v>1</v>
+      </c>
+      <c r="K4" s="82">
+        <v>0</v>
+      </c>
+      <c r="L4" s="80">
+        <v>0</v>
+      </c>
+      <c r="M4" s="82">
+        <v>1</v>
+      </c>
+      <c r="N4" s="96">
+        <v>1</v>
+      </c>
+      <c r="O4" s="80">
+        <v>0</v>
+      </c>
+      <c r="P4" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="80">
+        <v>1</v>
+      </c>
+      <c r="R4" s="81">
+        <v>1</v>
+      </c>
+      <c r="S4" s="82">
+        <v>0</v>
+      </c>
+      <c r="T4" s="80">
+        <v>1</v>
+      </c>
+      <c r="U4" s="81">
+        <v>1</v>
+      </c>
+      <c r="V4" s="82">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7">
-        <v>1</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80">
+        <v>0</v>
+      </c>
+      <c r="E5" s="82">
+        <v>0</v>
+      </c>
+      <c r="F5" s="80">
+        <v>1</v>
+      </c>
+      <c r="G5" s="82">
+        <v>1</v>
+      </c>
+      <c r="H5" s="80">
+        <v>1</v>
+      </c>
+      <c r="I5" s="82">
+        <v>1</v>
+      </c>
+      <c r="J5" s="80">
+        <v>1</v>
+      </c>
+      <c r="K5" s="82">
+        <v>0</v>
+      </c>
+      <c r="L5" s="80">
+        <v>0</v>
+      </c>
+      <c r="M5" s="82">
+        <v>1</v>
+      </c>
+      <c r="N5" s="96">
+        <v>1</v>
+      </c>
+      <c r="O5" s="80">
+        <v>0</v>
+      </c>
+      <c r="P5" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="80">
+        <v>1</v>
+      </c>
+      <c r="R5" s="81">
+        <v>1</v>
+      </c>
+      <c r="S5" s="82">
+        <v>0</v>
+      </c>
+      <c r="T5" s="80">
+        <v>1</v>
+      </c>
+      <c r="U5" s="81">
+        <v>1</v>
+      </c>
+      <c r="V5" s="82">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>1</v>
-      </c>
-      <c r="U6" s="9">
-        <v>1</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C6" s="97">
+        <v>1</v>
+      </c>
+      <c r="D6" s="83">
+        <v>0</v>
+      </c>
+      <c r="E6" s="85">
+        <v>0</v>
+      </c>
+      <c r="F6" s="83">
+        <v>1</v>
+      </c>
+      <c r="G6" s="85">
+        <v>0</v>
+      </c>
+      <c r="H6" s="83">
+        <v>1</v>
+      </c>
+      <c r="I6" s="85">
+        <v>0</v>
+      </c>
+      <c r="J6" s="83">
+        <v>1</v>
+      </c>
+      <c r="K6" s="85">
+        <v>0</v>
+      </c>
+      <c r="L6" s="83">
+        <v>0</v>
+      </c>
+      <c r="M6" s="85">
+        <v>1</v>
+      </c>
+      <c r="N6" s="97">
+        <v>1</v>
+      </c>
+      <c r="O6" s="83">
+        <v>0</v>
+      </c>
+      <c r="P6" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="83">
+        <v>1</v>
+      </c>
+      <c r="R6" s="84">
+        <v>1</v>
+      </c>
+      <c r="S6" s="85">
+        <v>0</v>
+      </c>
+      <c r="T6" s="83">
+        <v>1</v>
+      </c>
+      <c r="U6" s="84">
+        <v>1</v>
+      </c>
+      <c r="V6" s="85">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7">
-        <v>1</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7">
-        <v>1</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C7" s="96">
+        <v>1</v>
+      </c>
+      <c r="D7" s="80">
+        <v>1</v>
+      </c>
+      <c r="E7" s="82">
+        <v>0</v>
+      </c>
+      <c r="F7" s="80">
+        <v>1</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0</v>
+      </c>
+      <c r="H7" s="80">
+        <v>1</v>
+      </c>
+      <c r="I7" s="82">
+        <v>0</v>
+      </c>
+      <c r="J7" s="80">
+        <v>1</v>
+      </c>
+      <c r="K7" s="82">
+        <v>0</v>
+      </c>
+      <c r="L7" s="80">
+        <v>0</v>
+      </c>
+      <c r="M7" s="82">
+        <v>1</v>
+      </c>
+      <c r="N7" s="96">
+        <v>1</v>
+      </c>
+      <c r="O7" s="80">
+        <v>0</v>
+      </c>
+      <c r="P7" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="80">
+        <v>1</v>
+      </c>
+      <c r="R7" s="81">
+        <v>1</v>
+      </c>
+      <c r="S7" s="82">
+        <v>0</v>
+      </c>
+      <c r="T7" s="80">
+        <v>1</v>
+      </c>
+      <c r="U7" s="81">
+        <v>1</v>
+      </c>
+      <c r="V7" s="82">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>1</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>1</v>
-      </c>
-      <c r="U8" s="9">
-        <v>1</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C8" s="79">
+        <v>1</v>
+      </c>
+      <c r="D8" s="86">
+        <v>0</v>
+      </c>
+      <c r="E8" s="88">
+        <v>0</v>
+      </c>
+      <c r="F8" s="86">
+        <v>1</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+      <c r="H8" s="86">
+        <v>1</v>
+      </c>
+      <c r="I8" s="88">
+        <v>0</v>
+      </c>
+      <c r="J8" s="86">
+        <v>1</v>
+      </c>
+      <c r="K8" s="88">
+        <v>0</v>
+      </c>
+      <c r="L8" s="86">
+        <v>0</v>
+      </c>
+      <c r="M8" s="88">
+        <v>1</v>
+      </c>
+      <c r="N8" s="79">
+        <v>1</v>
+      </c>
+      <c r="O8" s="86">
+        <v>0</v>
+      </c>
+      <c r="P8" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="86">
+        <v>1</v>
+      </c>
+      <c r="R8" s="87">
+        <v>1</v>
+      </c>
+      <c r="S8" s="88">
+        <v>0</v>
+      </c>
+      <c r="T8" s="86">
+        <v>1</v>
+      </c>
+      <c r="U8" s="87">
+        <v>1</v>
+      </c>
+      <c r="V8" s="88">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>1</v>
-      </c>
-      <c r="R9" s="9">
-        <v>1</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>1</v>
-      </c>
-      <c r="U9" s="9">
-        <v>1</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C9" s="98">
+        <v>1</v>
+      </c>
+      <c r="D9" s="89">
+        <v>0</v>
+      </c>
+      <c r="E9" s="91">
+        <v>0</v>
+      </c>
+      <c r="F9" s="89">
+        <v>1</v>
+      </c>
+      <c r="G9" s="91">
+        <v>0</v>
+      </c>
+      <c r="H9" s="89">
+        <v>1</v>
+      </c>
+      <c r="I9" s="91">
+        <v>0</v>
+      </c>
+      <c r="J9" s="89">
+        <v>1</v>
+      </c>
+      <c r="K9" s="91">
+        <v>0</v>
+      </c>
+      <c r="L9" s="89">
+        <v>0</v>
+      </c>
+      <c r="M9" s="91">
+        <v>1</v>
+      </c>
+      <c r="N9" s="98">
+        <v>1</v>
+      </c>
+      <c r="O9" s="89">
+        <v>0</v>
+      </c>
+      <c r="P9" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="89">
+        <v>1</v>
+      </c>
+      <c r="R9" s="90">
+        <v>1</v>
+      </c>
+      <c r="S9" s="91">
+        <v>0</v>
+      </c>
+      <c r="T9" s="89">
+        <v>1</v>
+      </c>
+      <c r="U9" s="90">
+        <v>1</v>
+      </c>
+      <c r="V9" s="91">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>1</v>
-      </c>
-      <c r="R10" s="9">
-        <v>1</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>1</v>
-      </c>
-      <c r="U10" s="9">
-        <v>1</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C10" s="98">
+        <v>1</v>
+      </c>
+      <c r="D10" s="89">
+        <v>0</v>
+      </c>
+      <c r="E10" s="91">
+        <v>0</v>
+      </c>
+      <c r="F10" s="89">
+        <v>1</v>
+      </c>
+      <c r="G10" s="91">
+        <v>0</v>
+      </c>
+      <c r="H10" s="89">
+        <v>1</v>
+      </c>
+      <c r="I10" s="91">
+        <v>0</v>
+      </c>
+      <c r="J10" s="89">
+        <v>1</v>
+      </c>
+      <c r="K10" s="91">
+        <v>0</v>
+      </c>
+      <c r="L10" s="89">
+        <v>0</v>
+      </c>
+      <c r="M10" s="91">
+        <v>1</v>
+      </c>
+      <c r="N10" s="98">
+        <v>1</v>
+      </c>
+      <c r="O10" s="89">
+        <v>0</v>
+      </c>
+      <c r="P10" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="89">
+        <v>1</v>
+      </c>
+      <c r="R10" s="90">
+        <v>1</v>
+      </c>
+      <c r="S10" s="91">
+        <v>0</v>
+      </c>
+      <c r="T10" s="89">
+        <v>1</v>
+      </c>
+      <c r="U10" s="90">
+        <v>1</v>
+      </c>
+      <c r="V10" s="91">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>1</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7">
-        <v>1</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C11" s="99">
+        <v>1</v>
+      </c>
+      <c r="D11" s="92">
+        <v>0</v>
+      </c>
+      <c r="E11" s="94">
+        <v>1</v>
+      </c>
+      <c r="F11" s="92">
+        <v>1</v>
+      </c>
+      <c r="G11" s="94">
+        <v>0</v>
+      </c>
+      <c r="H11" s="92">
+        <v>1</v>
+      </c>
+      <c r="I11" s="94">
+        <v>0</v>
+      </c>
+      <c r="J11" s="92">
+        <v>1</v>
+      </c>
+      <c r="K11" s="94">
+        <v>0</v>
+      </c>
+      <c r="L11" s="92">
+        <v>0</v>
+      </c>
+      <c r="M11" s="94">
+        <v>1</v>
+      </c>
+      <c r="N11" s="99">
+        <v>1</v>
+      </c>
+      <c r="O11" s="92">
+        <v>1</v>
+      </c>
+      <c r="P11" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="92">
+        <v>1</v>
+      </c>
+      <c r="R11" s="93">
+        <v>1</v>
+      </c>
+      <c r="S11" s="94">
+        <v>0</v>
+      </c>
+      <c r="T11" s="92">
+        <v>1</v>
+      </c>
+      <c r="U11" s="93">
+        <v>1</v>
+      </c>
+      <c r="V11" s="94">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>1</v>
-      </c>
-      <c r="R12" s="9">
-        <v>1</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>1</v>
-      </c>
-      <c r="U12" s="9">
-        <v>1</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C12" s="98">
+        <v>1</v>
+      </c>
+      <c r="D12" s="89">
+        <v>0</v>
+      </c>
+      <c r="E12" s="91">
+        <v>0</v>
+      </c>
+      <c r="F12" s="89">
+        <v>1</v>
+      </c>
+      <c r="G12" s="91">
+        <v>0</v>
+      </c>
+      <c r="H12" s="89">
+        <v>1</v>
+      </c>
+      <c r="I12" s="91">
+        <v>0</v>
+      </c>
+      <c r="J12" s="89">
+        <v>1</v>
+      </c>
+      <c r="K12" s="91">
+        <v>0</v>
+      </c>
+      <c r="L12" s="89">
+        <v>0</v>
+      </c>
+      <c r="M12" s="91">
+        <v>1</v>
+      </c>
+      <c r="N12" s="98">
+        <v>1</v>
+      </c>
+      <c r="O12" s="89">
+        <v>0</v>
+      </c>
+      <c r="P12" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="89">
+        <v>1</v>
+      </c>
+      <c r="R12" s="90">
+        <v>1</v>
+      </c>
+      <c r="S12" s="91">
+        <v>0</v>
+      </c>
+      <c r="T12" s="89">
+        <v>1</v>
+      </c>
+      <c r="U12" s="90">
+        <v>1</v>
+      </c>
+      <c r="V12" s="91">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>1</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="7">
-        <v>1</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C13" s="100">
+        <v>1</v>
+      </c>
+      <c r="D13" s="92">
+        <v>0</v>
+      </c>
+      <c r="E13" s="94">
+        <v>0</v>
+      </c>
+      <c r="F13" s="92">
+        <v>1</v>
+      </c>
+      <c r="G13" s="94">
+        <v>0</v>
+      </c>
+      <c r="H13" s="92">
+        <v>1</v>
+      </c>
+      <c r="I13" s="94">
+        <v>0</v>
+      </c>
+      <c r="J13" s="92">
+        <v>1</v>
+      </c>
+      <c r="K13" s="94">
+        <v>0</v>
+      </c>
+      <c r="L13" s="92">
+        <v>0</v>
+      </c>
+      <c r="M13" s="94">
+        <v>1</v>
+      </c>
+      <c r="N13" s="99">
+        <v>1</v>
+      </c>
+      <c r="O13" s="92">
+        <v>0</v>
+      </c>
+      <c r="P13" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="92">
+        <v>1</v>
+      </c>
+      <c r="R13" s="93">
+        <v>0</v>
+      </c>
+      <c r="S13" s="94">
+        <v>0</v>
+      </c>
+      <c r="T13" s="92">
+        <v>1</v>
+      </c>
+      <c r="U13" s="93">
+        <v>0</v>
+      </c>
+      <c r="V13" s="94">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>1</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
-      <c r="T14" s="7">
-        <v>1</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C14" s="99">
+        <v>1</v>
+      </c>
+      <c r="D14" s="92">
+        <v>0</v>
+      </c>
+      <c r="E14" s="94">
+        <v>1</v>
+      </c>
+      <c r="F14" s="92">
+        <v>1</v>
+      </c>
+      <c r="G14" s="94">
+        <v>0</v>
+      </c>
+      <c r="H14" s="92">
+        <v>1</v>
+      </c>
+      <c r="I14" s="94">
+        <v>0</v>
+      </c>
+      <c r="J14" s="92">
+        <v>1</v>
+      </c>
+      <c r="K14" s="94">
+        <v>1</v>
+      </c>
+      <c r="L14" s="92">
+        <v>0</v>
+      </c>
+      <c r="M14" s="94">
+        <v>1</v>
+      </c>
+      <c r="N14" s="99">
+        <v>1</v>
+      </c>
+      <c r="O14" s="92">
+        <v>0</v>
+      </c>
+      <c r="P14" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="92">
+        <v>1</v>
+      </c>
+      <c r="R14" s="93">
+        <v>0</v>
+      </c>
+      <c r="S14" s="94">
+        <v>1</v>
+      </c>
+      <c r="T14" s="92">
+        <v>1</v>
+      </c>
+      <c r="U14" s="93">
+        <v>0</v>
+      </c>
+      <c r="V14" s="94">
+        <v>1</v>
+      </c>
+      <c r="W14" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
-      <c r="R15" s="7">
-        <v>1</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>1</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C15" s="99">
+        <v>1</v>
+      </c>
+      <c r="D15" s="92">
+        <v>0</v>
+      </c>
+      <c r="E15" s="94">
+        <v>0</v>
+      </c>
+      <c r="F15" s="92">
+        <v>1</v>
+      </c>
+      <c r="G15" s="94">
+        <v>0</v>
+      </c>
+      <c r="H15" s="92">
+        <v>1</v>
+      </c>
+      <c r="I15" s="94">
+        <v>0</v>
+      </c>
+      <c r="J15" s="92">
+        <v>1</v>
+      </c>
+      <c r="K15" s="94">
+        <v>0</v>
+      </c>
+      <c r="L15" s="92">
+        <v>0</v>
+      </c>
+      <c r="M15" s="94">
+        <v>1</v>
+      </c>
+      <c r="N15" s="99">
+        <v>1</v>
+      </c>
+      <c r="O15" s="92">
+        <v>0</v>
+      </c>
+      <c r="P15" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="92">
+        <v>1</v>
+      </c>
+      <c r="R15" s="93">
+        <v>1</v>
+      </c>
+      <c r="S15" s="94">
+        <v>0</v>
+      </c>
+      <c r="T15" s="92">
+        <v>1</v>
+      </c>
+      <c r="U15" s="93">
+        <v>1</v>
+      </c>
+      <c r="V15" s="94">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="156">
   <si>
     <t>PC</t>
   </si>
@@ -1481,10 +1481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1499,8 +1499,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1850,7 +1850,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:V19"/>
+      <selection activeCell="B5" sqref="B5:V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="96">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="96">
         <v>0</v>
@@ -3110,6 +3110,74 @@
       </c>
       <c r="V19" s="97">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="95">
+        <v>1</v>
+      </c>
+      <c r="C20" s="96">
+        <v>0</v>
+      </c>
+      <c r="D20" s="97">
+        <v>1</v>
+      </c>
+      <c r="E20" s="96">
+        <v>1</v>
+      </c>
+      <c r="F20" s="97">
+        <v>0</v>
+      </c>
+      <c r="G20" s="96">
+        <v>1</v>
+      </c>
+      <c r="H20" s="97">
+        <v>0</v>
+      </c>
+      <c r="I20" s="96">
+        <v>1</v>
+      </c>
+      <c r="J20" s="97">
+        <v>1</v>
+      </c>
+      <c r="K20" s="96">
+        <v>0</v>
+      </c>
+      <c r="L20" s="97">
+        <v>1</v>
+      </c>
+      <c r="M20" s="97">
+        <v>1</v>
+      </c>
+      <c r="N20" s="95">
+        <v>1</v>
+      </c>
+      <c r="O20" s="96">
+        <v>0</v>
+      </c>
+      <c r="P20" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="96">
+        <v>1</v>
+      </c>
+      <c r="R20" s="98">
+        <v>1</v>
+      </c>
+      <c r="S20" s="97">
+        <v>1</v>
+      </c>
+      <c r="T20" s="96">
+        <v>1</v>
+      </c>
+      <c r="U20" s="98">
+        <v>1</v>
+      </c>
+      <c r="V20" s="97">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -3172,44 +3240,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -3221,66 +3289,66 @@
       <c r="D2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="105" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="107"/>
       <c r="G2" s="107"/>
       <c r="H2" s="107"/>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="111"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="111"/>
+      <c r="M2" s="106"/>
       <c r="N2" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="111"/>
+      <c r="O2" s="106"/>
       <c r="P2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="106" t="s">
+      <c r="Q2" s="105" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="107"/>
       <c r="S2" s="107"/>
-      <c r="T2" s="111"/>
+      <c r="T2" s="106"/>
       <c r="U2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="106" t="s">
+      <c r="W2" s="105" t="s">
         <v>53</v>
       </c>
       <c r="X2" s="107"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="106" t="s">
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="111"/>
+      <c r="AA2" s="106"/>
       <c r="AB2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="106" t="s">
+      <c r="AC2" s="105" t="s">
         <v>58</v>
       </c>
       <c r="AD2" s="107"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="106" t="s">
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="105" t="s">
         <v>46</v>
       </c>
       <c r="AG2" s="107"/>
       <c r="AH2" s="107"/>
       <c r="AI2" s="107"/>
-      <c r="AJ2" s="111"/>
+      <c r="AJ2" s="106"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="63">
@@ -11700,9 +11768,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF78:AJ78"/>
-    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E78:H78"/>
@@ -11719,6 +11784,9 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AF78:AJ78"/>
+    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11727,10 +11795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:W15"/>
+      <selection activeCell="C1" sqref="C1:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12675,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="96">
         <v>1</v>
@@ -12693,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="96">
         <v>0</v>
@@ -12801,6 +12869,77 @@
       </c>
       <c r="W15" s="97">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="95">
+        <v>1</v>
+      </c>
+      <c r="D16" s="96">
+        <v>0</v>
+      </c>
+      <c r="E16" s="97">
+        <v>1</v>
+      </c>
+      <c r="F16" s="96">
+        <v>1</v>
+      </c>
+      <c r="G16" s="97">
+        <v>0</v>
+      </c>
+      <c r="H16" s="96">
+        <v>1</v>
+      </c>
+      <c r="I16" s="97">
+        <v>0</v>
+      </c>
+      <c r="J16" s="96">
+        <v>1</v>
+      </c>
+      <c r="K16" s="97">
+        <v>1</v>
+      </c>
+      <c r="L16" s="96">
+        <v>0</v>
+      </c>
+      <c r="M16" s="97">
+        <v>1</v>
+      </c>
+      <c r="N16" s="97">
+        <v>1</v>
+      </c>
+      <c r="O16" s="95">
+        <v>1</v>
+      </c>
+      <c r="P16" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="97">
+        <v>0</v>
+      </c>
+      <c r="R16" s="96">
+        <v>1</v>
+      </c>
+      <c r="S16" s="98">
+        <v>1</v>
+      </c>
+      <c r="T16" s="97">
+        <v>1</v>
+      </c>
+      <c r="U16" s="96">
+        <v>1</v>
+      </c>
+      <c r="V16" s="98">
+        <v>1</v>
+      </c>
+      <c r="W16" s="97">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -1481,10 +1481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1499,8 +1499,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="95">
         <v>1</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="95">
         <v>1</v>
@@ -3240,44 +3240,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -3289,66 +3289,66 @@
       <c r="D2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="106" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="107"/>
       <c r="G2" s="107"/>
       <c r="H2" s="107"/>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="111"/>
       <c r="K2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="106"/>
+      <c r="M2" s="111"/>
       <c r="N2" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="106"/>
+      <c r="O2" s="111"/>
       <c r="P2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="105" t="s">
+      <c r="Q2" s="106" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="107"/>
       <c r="S2" s="107"/>
-      <c r="T2" s="106"/>
+      <c r="T2" s="111"/>
       <c r="U2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="105" t="s">
+      <c r="W2" s="106" t="s">
         <v>53</v>
       </c>
       <c r="X2" s="107"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="105" t="s">
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="106"/>
+      <c r="AA2" s="111"/>
       <c r="AB2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="105" t="s">
+      <c r="AC2" s="106" t="s">
         <v>58</v>
       </c>
       <c r="AD2" s="107"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="106" t="s">
         <v>46</v>
       </c>
       <c r="AG2" s="107"/>
       <c r="AH2" s="107"/>
       <c r="AI2" s="107"/>
-      <c r="AJ2" s="106"/>
+      <c r="AJ2" s="111"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="63">
@@ -11768,6 +11768,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AF78:AJ78"/>
+    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E78:H78"/>
@@ -11784,9 +11787,6 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AF78:AJ78"/>
-    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12770,7 +12770,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="95">
         <v>1</v>
@@ -12912,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="95">
         <v>1</v>

--- a/Documentation/Controller State Table.xlsx
+++ b/Documentation/Controller State Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="157">
   <si>
     <t>PC</t>
   </si>
@@ -1174,7 +1174,7 @@
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,8 +1472,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,11 +1496,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1505,29 +1526,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1897,30 +1903,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1930,44 +1936,44 @@
       <c r="B2" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102" t="s">
+      <c r="C2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102" t="s">
+      <c r="H2" s="105"/>
+      <c r="I2" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102" t="s">
+      <c r="J2" s="105"/>
+      <c r="K2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="104" t="s">
+      <c r="L2" s="105"/>
+      <c r="M2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="102" t="s">
+      <c r="N2" s="108"/>
+      <c r="O2" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102" t="s">
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102" t="s">
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="100">
@@ -3236,8 +3242,8 @@
   <dimension ref="A1:AL78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+      <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z78" sqref="Z78:AB78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3267,45 +3273,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -3317,67 +3323,67 @@
       <c r="D2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="106" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="108"/>
+      <c r="J2" s="115"/>
       <c r="K2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="115"/>
+      <c r="N2" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="108"/>
+      <c r="O2" s="115"/>
       <c r="P2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="106" t="s">
+      <c r="Q2" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="108"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="115"/>
       <c r="U2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="106" t="s">
+      <c r="W2" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109" t="s">
+      <c r="X2" s="111"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="111"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="118"/>
       <c r="AC2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="106" t="s">
+      <c r="AD2" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="106" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="108"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="111"/>
+      <c r="AJ2" s="111"/>
+      <c r="AK2" s="115"/>
     </row>
     <row r="3" spans="1:38" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="63">
@@ -3476,15 +3482,15 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Z3" s="116">
+      <c r="Z3" s="101">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AA3" s="116">
+      <c r="AA3" s="101">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AB3" s="116">
+      <c r="AB3" s="101">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -3597,13 +3603,13 @@
       <c r="Y4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="117" t="s">
+      <c r="Z4" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="119" t="s">
+      <c r="AB4" s="104" t="s">
         <v>40</v>
       </c>
       <c r="AC4" s="14" t="s">
@@ -11913,7 +11919,9 @@
       <c r="Y77" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="Z77" s="58"/>
+      <c r="Z77" s="58" t="s">
+        <v>155</v>
+      </c>
       <c r="AA77" s="60" t="s">
         <v>39</v>
       </c>
@@ -11999,11 +12007,11 @@
       </c>
       <c r="X78" s="113"/>
       <c r="Y78" s="114"/>
-      <c r="Z78" s="101"/>
-      <c r="AA78" s="112" t="s">
+      <c r="Z78" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="AB78" s="114"/>
+      <c r="AA78" s="121"/>
+      <c r="AB78" s="120"/>
       <c r="AC78" s="18" t="s">
         <v>26</v>
       </c>
@@ -12022,13 +12030,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AG78:AK78"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="Z78:AB78"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E78:H78"/>
     <mergeCell ref="N78:O78"/>
     <mergeCell ref="Q78:T78"/>
     <mergeCell ref="W78:Y78"/>
-    <mergeCell ref="AA78:AB78"/>
     <mergeCell ref="AD78:AF78"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
@@ -12038,9 +12049,6 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AG78:AK78"/>
-    <mergeCell ref="AG2:AK2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
